--- a/Bloque III/ProyectoPony/Resultados/Experiencia 1/data processor.xlsx
+++ b/Bloque III/ProyectoPony/Resultados/Experiencia 1/data processor.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/joscanege_alum_us_es/Documents/TFG/TFG_GITT_Joscanege/ProyectoPony/Resultados/Experiencia 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uses0-my.sharepoint.com/personal/joscanege_alum_us_es/Documents/TFG/TFG_GITT_Joscanege/Bloque III/ProyectoPony/Resultados/Experiencia 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1485" documentId="13_ncr:1_{7BF2AEEA-675E-4CE0-9215-137092C8576A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D9A10D71-831E-4C41-8B5F-80C4E28AD12E}"/>
+  <xr:revisionPtr revIDLastSave="1486" documentId="13_ncr:1_{7BF2AEEA-675E-4CE0-9215-137092C8576A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{344C4C28-A61C-4D13-9E78-2B7B510400CD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="3" activeTab="6" xr2:uid="{3CAB450C-71BC-4FE8-B13A-D8A4907B4A86}"/>
+    <workbookView xWindow="-19320" yWindow="6075" windowWidth="19440" windowHeight="15000" firstSheet="3" activeTab="4" xr2:uid="{3CAB450C-71BC-4FE8-B13A-D8A4907B4A86}"/>
   </bookViews>
   <sheets>
     <sheet name="Informe Previo" sheetId="1" r:id="rId1"/>
@@ -2578,7 +2578,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2661,6 +2661,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3039,7 +3045,7 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="318">
+  <cellXfs count="319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3501,6 +3507,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3531,80 +3597,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="18" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="19" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="20" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="21" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3613,64 +3619,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3678,77 +3636,47 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3771,68 +3699,149 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -33274,6 +33283,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B30"/>
@@ -33284,11 +33298,6 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -33299,8 +33308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21C2A55D-08F5-4036-AAC2-8B0174C385B7}">
   <dimension ref="A2:T150"/>
   <sheetViews>
-    <sheetView topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33388,17 +33397,17 @@
       <c r="A7" s="58" t="s">
         <v>250</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="59" t="s">
+      <c r="B7" s="318"/>
+      <c r="C7" s="318"/>
+      <c r="D7" s="318"/>
+      <c r="E7" s="318"/>
+      <c r="F7" s="318" t="s">
         <v>273</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="59"/>
+      <c r="G7" s="318"/>
+      <c r="H7" s="318"/>
+      <c r="I7" s="318"/>
+      <c r="J7" s="318"/>
       <c r="K7" s="65" t="s">
         <v>253</v>
       </c>
@@ -36399,14 +36408,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="220" t="s">
+      <c r="A2" s="225" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="220"/>
-      <c r="C2" s="220"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="220"/>
-      <c r="F2" s="220"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H3" s="24" t="s">
@@ -36414,7 +36423,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="221" t="s">
+      <c r="B4" s="226" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="206" t="s">
@@ -36438,7 +36447,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="221"/>
+      <c r="B5" s="226"/>
       <c r="C5" s="206"/>
       <c r="D5" s="17" t="s">
         <v>48</v>
@@ -36468,7 +36477,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="221"/>
+      <c r="B6" s="226"/>
       <c r="C6" s="206"/>
       <c r="D6" s="17" t="s">
         <v>55</v>
@@ -36494,7 +36503,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="221"/>
+      <c r="B7" s="226"/>
       <c r="C7" s="206" t="s">
         <v>54</v>
       </c>
@@ -36510,7 +36519,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="221"/>
+      <c r="B8" s="226"/>
       <c r="C8" s="206"/>
       <c r="D8" s="17" t="s">
         <v>48</v>
@@ -36524,7 +36533,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B9" s="221"/>
+      <c r="B9" s="226"/>
       <c r="C9" s="206"/>
       <c r="D9" s="17" t="s">
         <v>55</v>
@@ -36535,7 +36544,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="221" t="s">
+      <c r="B11" s="226" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="206" t="s">
@@ -36550,7 +36559,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="221"/>
+      <c r="B12" s="226"/>
       <c r="C12" s="206"/>
       <c r="D12" s="17" t="s">
         <v>48</v>
@@ -36561,7 +36570,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="221"/>
+      <c r="B13" s="226"/>
       <c r="C13" s="206"/>
       <c r="D13" s="17" t="s">
         <v>55</v>
@@ -36572,7 +36581,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="221"/>
+      <c r="B14" s="226"/>
       <c r="C14" s="206" t="s">
         <v>54</v>
       </c>
@@ -36585,7 +36594,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="221"/>
+      <c r="B15" s="226"/>
       <c r="C15" s="206"/>
       <c r="D15" s="17" t="s">
         <v>48</v>
@@ -36596,7 +36605,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="221"/>
+      <c r="B16" s="226"/>
       <c r="C16" s="206"/>
       <c r="D16" s="17" t="s">
         <v>55</v>
@@ -36844,16 +36853,16 @@
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B44" s="22"/>
-      <c r="H44" s="222" t="e">
+      <c r="H44" s="214" t="e">
         <f>"t "&amp;IF(H35&gt;I41,"&gt;","&lt;")&amp;" valor crítico, por lo tanto se acepta la " &amp; IF(I35&gt;J41,LOWER(I29),LOWER(I28))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I44" s="223"/>
-      <c r="J44" s="223"/>
-      <c r="K44" s="223"/>
-      <c r="L44" s="223"/>
-      <c r="M44" s="223"/>
-      <c r="N44" s="224"/>
+      <c r="I44" s="215"/>
+      <c r="J44" s="215"/>
+      <c r="K44" s="215"/>
+      <c r="L44" s="215"/>
+      <c r="M44" s="215"/>
+      <c r="N44" s="216"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37013,27 +37022,27 @@
     </row>
     <row r="63" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="22"/>
-      <c r="H63" s="225" t="str">
+      <c r="H63" s="208" t="str">
         <f>"t "&amp;IF(I54&gt;J60,"&gt;","&lt;")&amp;" valor crítico, por lo tanto se acepta la " &amp; IF(I54&gt;J60,LOWER(I49),LOWER(I48))</f>
         <v>t &gt; valor crítico, por lo tanto se acepta la hipótesis alternativa: ha habido cambios positivos en los resultados academicos</v>
       </c>
-      <c r="I63" s="226"/>
-      <c r="J63" s="226"/>
-      <c r="K63" s="226"/>
-      <c r="L63" s="226"/>
-      <c r="M63" s="226"/>
-      <c r="N63" s="227"/>
+      <c r="I63" s="209"/>
+      <c r="J63" s="209"/>
+      <c r="K63" s="209"/>
+      <c r="L63" s="209"/>
+      <c r="M63" s="209"/>
+      <c r="N63" s="210"/>
       <c r="O63" s="23"/>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="22"/>
-      <c r="H64" s="228"/>
-      <c r="I64" s="229"/>
-      <c r="J64" s="229"/>
-      <c r="K64" s="229"/>
-      <c r="L64" s="229"/>
-      <c r="M64" s="229"/>
-      <c r="N64" s="230"/>
+      <c r="H64" s="211"/>
+      <c r="I64" s="212"/>
+      <c r="J64" s="212"/>
+      <c r="K64" s="212"/>
+      <c r="L64" s="212"/>
+      <c r="M64" s="212"/>
+      <c r="N64" s="213"/>
       <c r="O64" s="23"/>
     </row>
     <row r="65" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37209,16 +37218,16 @@
     </row>
     <row r="84" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B84" s="22"/>
-      <c r="H84" s="222" t="e">
+      <c r="H84" s="214" t="e">
         <f>"t "&amp;IF(H75&gt;I81,"&gt;","&lt;")&amp;" valor crítico, por lo tanto se acepta la " &amp; IF(I75&gt;J81,LOWER(I69),LOWER(I68))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="I84" s="223"/>
-      <c r="J84" s="223"/>
-      <c r="K84" s="223"/>
-      <c r="L84" s="223"/>
-      <c r="M84" s="223"/>
-      <c r="N84" s="224"/>
+      <c r="I84" s="215"/>
+      <c r="J84" s="215"/>
+      <c r="K84" s="215"/>
+      <c r="L84" s="215"/>
+      <c r="M84" s="215"/>
+      <c r="N84" s="216"/>
       <c r="O84" s="23"/>
     </row>
     <row r="85" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37378,27 +37387,27 @@
     </row>
     <row r="103" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B103" s="22"/>
-      <c r="H103" s="225" t="str">
+      <c r="H103" s="208" t="str">
         <f>"t "&amp;IF(I94&gt;J100,"&gt;","&lt;")&amp;" valor crítico, por lo tanto se acepta la " &amp; IF(I94&gt;J100,LOWER(I89),LOWER(I88))</f>
         <v>t &gt; valor crítico, por lo tanto se acepta la hipótesis alternativa: ha habido cambios positivos en los resultados academicos</v>
       </c>
-      <c r="I103" s="226"/>
-      <c r="J103" s="226"/>
-      <c r="K103" s="226"/>
-      <c r="L103" s="226"/>
-      <c r="M103" s="226"/>
-      <c r="N103" s="227"/>
+      <c r="I103" s="209"/>
+      <c r="J103" s="209"/>
+      <c r="K103" s="209"/>
+      <c r="L103" s="209"/>
+      <c r="M103" s="209"/>
+      <c r="N103" s="210"/>
       <c r="O103" s="23"/>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B104" s="22"/>
-      <c r="H104" s="228"/>
-      <c r="I104" s="229"/>
-      <c r="J104" s="229"/>
-      <c r="K104" s="229"/>
-      <c r="L104" s="229"/>
-      <c r="M104" s="229"/>
-      <c r="N104" s="230"/>
+      <c r="H104" s="211"/>
+      <c r="I104" s="212"/>
+      <c r="J104" s="212"/>
+      <c r="K104" s="212"/>
+      <c r="L104" s="212"/>
+      <c r="M104" s="212"/>
+      <c r="N104" s="213"/>
       <c r="O104" s="23"/>
     </row>
     <row r="105" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37418,14 +37427,14 @@
       <c r="O105" s="28"/>
     </row>
     <row r="107" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A107" s="220" t="s">
+      <c r="A107" s="225" t="s">
         <v>86</v>
       </c>
-      <c r="B107" s="220"/>
-      <c r="C107" s="220"/>
-      <c r="D107" s="220"/>
-      <c r="E107" s="220"/>
-      <c r="F107" s="220"/>
+      <c r="B107" s="225"/>
+      <c r="C107" s="225"/>
+      <c r="D107" s="225"/>
+      <c r="E107" s="225"/>
+      <c r="F107" s="225"/>
     </row>
     <row r="109" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B109" s="35" t="s">
@@ -38521,14 +38530,14 @@
       </c>
     </row>
     <row r="156" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A156" s="220" t="s">
+      <c r="A156" s="225" t="s">
         <v>121</v>
       </c>
-      <c r="B156" s="220"/>
-      <c r="C156" s="220"/>
-      <c r="D156" s="220"/>
-      <c r="E156" s="220"/>
-      <c r="F156" s="220"/>
+      <c r="B156" s="225"/>
+      <c r="C156" s="225"/>
+      <c r="D156" s="225"/>
+      <c r="E156" s="225"/>
+      <c r="F156" s="225"/>
     </row>
     <row r="158" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B158" s="34" t="s">
@@ -38876,13 +38885,13 @@
       </c>
     </row>
     <row r="176" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B176" s="231" t="s">
+      <c r="B176" s="224" t="s">
         <v>245</v>
       </c>
-      <c r="C176" s="231"/>
-      <c r="D176" s="231"/>
-      <c r="E176" s="231"/>
-      <c r="F176" s="231"/>
+      <c r="C176" s="224"/>
+      <c r="D176" s="224"/>
+      <c r="E176" s="224"/>
+      <c r="F176" s="224"/>
     </row>
     <row r="178" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B178" s="34" t="s">
@@ -38917,13 +38926,13 @@
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A179" s="234" t="s">
+      <c r="A179" s="207" t="s">
         <v>522</v>
       </c>
-      <c r="B179" s="218" t="s">
+      <c r="B179" s="217" t="s">
         <v>250</v>
       </c>
-      <c r="C179" s="217">
+      <c r="C179" s="219">
         <f>IF($C$184="N/A",M230/(1-M231),M230)</f>
         <v>0.33333333333333331</v>
       </c>
@@ -38946,7 +38955,7 @@
         <f>G179*E179</f>
         <v>0.375</v>
       </c>
-      <c r="I179" s="233" cm="1">
+      <c r="I179" s="222" cm="1">
         <f t="array" ref="I179">IF(E183="N/A",SUM(E179:E182*F179:F182),SUM(E179:E183*F179:F183))</f>
         <v>2.625</v>
       </c>
@@ -38960,9 +38969,9 @@
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="234"/>
-      <c r="B180" s="218"/>
-      <c r="C180" s="232"/>
+      <c r="A180" s="207"/>
+      <c r="B180" s="217"/>
+      <c r="C180" s="220"/>
       <c r="D180" s="1" t="s">
         <v>136</v>
       </c>
@@ -38982,7 +38991,7 @@
         <f t="shared" ref="H180:H215" si="3">G180*E180</f>
         <v>0</v>
       </c>
-      <c r="I180" s="233"/>
+      <c r="I180" s="222"/>
       <c r="K180" s="51" t="str">
         <f>B184</f>
         <v>Resultados académicos</v>
@@ -38993,9 +39002,9 @@
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="234"/>
-      <c r="B181" s="218"/>
-      <c r="C181" s="232"/>
+      <c r="A181" s="207"/>
+      <c r="B181" s="217"/>
+      <c r="C181" s="220"/>
       <c r="D181" s="1" t="s">
         <v>137</v>
       </c>
@@ -39015,7 +39024,7 @@
         <f t="shared" si="3"/>
         <v>0.20833333333333331</v>
       </c>
-      <c r="I181" s="233"/>
+      <c r="I181" s="222"/>
       <c r="K181" s="51" t="str">
         <f>B186</f>
         <v>Resultados motivacionales</v>
@@ -39026,9 +39035,9 @@
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="234"/>
-      <c r="B182" s="218"/>
-      <c r="C182" s="232"/>
+      <c r="A182" s="207"/>
+      <c r="B182" s="217"/>
+      <c r="C182" s="220"/>
       <c r="D182" s="1" t="s">
         <v>138</v>
       </c>
@@ -39048,7 +39057,7 @@
         <f t="shared" si="3"/>
         <v>0.29166666666666663</v>
       </c>
-      <c r="I182" s="233"/>
+      <c r="I182" s="222"/>
       <c r="K182" s="51" t="s">
         <v>368</v>
       </c>
@@ -39058,9 +39067,9 @@
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A183" s="234"/>
-      <c r="B183" s="218"/>
-      <c r="C183" s="232"/>
+      <c r="A183" s="207"/>
+      <c r="B183" s="217"/>
+      <c r="C183" s="220"/>
       <c r="D183" s="1" t="s">
         <v>251</v>
       </c>
@@ -39080,7 +39089,7 @@
         <f>IF(E183="N/A","N/A",G183*E183)</f>
         <v>N/A</v>
       </c>
-      <c r="I183" s="233"/>
+      <c r="I183" s="222"/>
       <c r="K183" s="51" t="str">
         <f>B209</f>
         <v>Diseño del contenido</v>
@@ -39091,11 +39100,11 @@
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A184" s="234"/>
-      <c r="B184" s="218" t="s">
+      <c r="A184" s="207"/>
+      <c r="B184" s="217" t="s">
         <v>252</v>
       </c>
-      <c r="C184" s="217" t="str">
+      <c r="C184" s="219" t="str">
         <f>IF(E184="N/A","N/A",M231)</f>
         <v>N/A</v>
       </c>
@@ -39118,7 +39127,7 @@
         <f>IF(G184="N/A","N/A",G184*E184)</f>
         <v>N/A</v>
       </c>
-      <c r="I184" s="233" t="str" cm="1">
+      <c r="I184" s="222" t="str" cm="1">
         <f t="array" ref="I184">IF(H184="N/A","N/A",SUM(E184:E185*F184:F185))</f>
         <v>N/A</v>
       </c>
@@ -39132,9 +39141,9 @@
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A185" s="234"/>
-      <c r="B185" s="218"/>
-      <c r="C185" s="232"/>
+      <c r="A185" s="207"/>
+      <c r="B185" s="217"/>
+      <c r="C185" s="220"/>
       <c r="D185" s="1" t="s">
         <v>95</v>
       </c>
@@ -39154,7 +39163,7 @@
         <f>IF(G185="N/A","N/A",G185*E185)</f>
         <v>N/A</v>
       </c>
-      <c r="I185" s="233"/>
+      <c r="I185" s="222"/>
       <c r="K185" s="51" t="str">
         <f>B202</f>
         <v>Diseño técnico</v>
@@ -39165,11 +39174,11 @@
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A186" s="234"/>
-      <c r="B186" s="218" t="s">
+      <c r="A186" s="207"/>
+      <c r="B186" s="217" t="s">
         <v>253</v>
       </c>
-      <c r="C186" s="217">
+      <c r="C186" s="219">
         <f>IF($C$184="N/A",M232/(1-M231),M232)</f>
         <v>0.33333333333333331</v>
       </c>
@@ -39192,15 +39201,15 @@
         <f t="shared" si="3"/>
         <v>0.13723544973544974</v>
       </c>
-      <c r="I186" s="233" cm="1">
+      <c r="I186" s="222" cm="1">
         <f t="array" ref="I186">SUM(E186:E194*F186:F194)</f>
         <v>3.5793283362727806</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="234"/>
-      <c r="B187" s="218"/>
-      <c r="C187" s="232"/>
+      <c r="A187" s="207"/>
+      <c r="B187" s="217"/>
+      <c r="C187" s="220"/>
       <c r="D187" s="1" t="s">
         <v>107</v>
       </c>
@@ -39220,13 +39229,13 @@
         <f t="shared" si="3"/>
         <v>0.15376984126984122</v>
       </c>
-      <c r="I187" s="233"/>
+      <c r="I187" s="222"/>
       <c r="K187" s="11"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A188" s="234"/>
-      <c r="B188" s="218"/>
-      <c r="C188" s="232"/>
+      <c r="A188" s="207"/>
+      <c r="B188" s="217"/>
+      <c r="C188" s="220"/>
       <c r="D188" s="1" t="s">
         <v>108</v>
       </c>
@@ -39246,13 +39255,13 @@
         <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="I188" s="233"/>
+      <c r="I188" s="222"/>
       <c r="K188" s="11"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A189" s="234"/>
-      <c r="B189" s="218"/>
-      <c r="C189" s="232"/>
+      <c r="A189" s="207"/>
+      <c r="B189" s="217"/>
+      <c r="C189" s="220"/>
       <c r="D189" s="1" t="s">
         <v>109</v>
       </c>
@@ -39272,13 +39281,13 @@
         <f t="shared" si="3"/>
         <v>0.14302248677248672</v>
       </c>
-      <c r="I189" s="233"/>
+      <c r="I189" s="222"/>
       <c r="K189" s="11"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A190" s="234"/>
-      <c r="B190" s="218"/>
-      <c r="C190" s="232"/>
+      <c r="A190" s="207"/>
+      <c r="B190" s="217"/>
+      <c r="C190" s="220"/>
       <c r="D190" s="1" t="s">
         <v>110</v>
       </c>
@@ -39298,13 +39307,13 @@
         <f t="shared" si="3"/>
         <v>0.1388888888888889</v>
       </c>
-      <c r="I190" s="233"/>
+      <c r="I190" s="222"/>
       <c r="K190" s="11"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="234"/>
-      <c r="B191" s="218"/>
-      <c r="C191" s="232"/>
+      <c r="A191" s="207"/>
+      <c r="B191" s="217"/>
+      <c r="C191" s="220"/>
       <c r="D191" s="1" t="s">
         <v>111</v>
       </c>
@@ -39324,13 +39333,13 @@
         <f t="shared" si="3"/>
         <v>0.12235449735449734</v>
       </c>
-      <c r="I191" s="233"/>
+      <c r="I191" s="222"/>
       <c r="K191" s="11"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A192" s="234"/>
-      <c r="B192" s="218"/>
-      <c r="C192" s="232"/>
+      <c r="A192" s="207"/>
+      <c r="B192" s="217"/>
+      <c r="C192" s="220"/>
       <c r="D192" s="1" t="s">
         <v>112</v>
       </c>
@@ -39350,13 +39359,13 @@
         <f t="shared" si="3"/>
         <v>9.8379629629629622E-2</v>
       </c>
-      <c r="I192" s="233"/>
+      <c r="I192" s="222"/>
       <c r="K192" s="11"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A193" s="234"/>
-      <c r="B193" s="218"/>
-      <c r="C193" s="232"/>
+      <c r="A193" s="207"/>
+      <c r="B193" s="217"/>
+      <c r="C193" s="220"/>
       <c r="D193" s="1" t="s">
         <v>113</v>
       </c>
@@ -39376,13 +39385,13 @@
         <f t="shared" si="3"/>
         <v>0.14648246129727613</v>
       </c>
-      <c r="I193" s="233"/>
+      <c r="I193" s="222"/>
       <c r="K193" s="11"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A194" s="234"/>
-      <c r="B194" s="218"/>
-      <c r="C194" s="232"/>
+      <c r="A194" s="207"/>
+      <c r="B194" s="217"/>
+      <c r="C194" s="220"/>
       <c r="D194" s="1" t="s">
         <v>114</v>
       </c>
@@ -39402,15 +39411,15 @@
         <f t="shared" si="3"/>
         <v>0.1140873015873016</v>
       </c>
-      <c r="I194" s="233"/>
+      <c r="I194" s="222"/>
       <c r="K194" s="11"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A195" s="234"/>
-      <c r="B195" s="208" t="s">
+      <c r="A195" s="207"/>
+      <c r="B195" s="228" t="s">
         <v>368</v>
       </c>
-      <c r="C195" s="210">
+      <c r="C195" s="230">
         <f>IF($C$184="N/A",M233/(1-M231),M233)</f>
         <v>0.33333333333333331</v>
       </c>
@@ -39433,16 +39442,16 @@
         <f>G195*E195</f>
         <v>0.23333333333333334</v>
       </c>
-      <c r="I195" s="212" cm="1">
+      <c r="I195" s="232" cm="1">
         <f t="array" ref="I195">SUM(E195:E199*F195:F199)</f>
         <v>3.7153846153846155</v>
       </c>
       <c r="K195" s="11"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A196" s="234"/>
-      <c r="B196" s="209"/>
-      <c r="C196" s="211"/>
+      <c r="A196" s="207"/>
+      <c r="B196" s="229"/>
+      <c r="C196" s="231"/>
       <c r="D196" s="1" t="s">
         <v>374</v>
       </c>
@@ -39462,13 +39471,13 @@
         <f>G196*E196</f>
         <v>0.27179487179487177</v>
       </c>
-      <c r="I196" s="213"/>
+      <c r="I196" s="233"/>
       <c r="K196" s="11"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A197" s="234"/>
-      <c r="B197" s="209"/>
-      <c r="C197" s="211"/>
+      <c r="A197" s="207"/>
+      <c r="B197" s="229"/>
+      <c r="C197" s="231"/>
       <c r="D197" s="1" t="s">
         <v>369</v>
       </c>
@@ -39488,13 +39497,13 @@
         <f t="shared" ref="H197:H199" si="7">G197*E197</f>
         <v>0.26666666666666666</v>
       </c>
-      <c r="I197" s="213"/>
+      <c r="I197" s="233"/>
       <c r="K197" s="11"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A198" s="234"/>
-      <c r="B198" s="209"/>
-      <c r="C198" s="211"/>
+      <c r="A198" s="207"/>
+      <c r="B198" s="229"/>
+      <c r="C198" s="231"/>
       <c r="D198" s="1" t="s">
         <v>370</v>
       </c>
@@ -39514,13 +39523,13 @@
         <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
-      <c r="I198" s="213"/>
+      <c r="I198" s="233"/>
       <c r="K198" s="11"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A199" s="234"/>
-      <c r="B199" s="209"/>
-      <c r="C199" s="211"/>
+      <c r="A199" s="207"/>
+      <c r="B199" s="229"/>
+      <c r="C199" s="231"/>
       <c r="D199" s="144" t="s">
         <v>371</v>
       </c>
@@ -39540,7 +39549,7 @@
         <f t="shared" si="7"/>
         <v>0.26666666666666666</v>
       </c>
-      <c r="I199" s="213"/>
+      <c r="I199" s="233"/>
       <c r="K199" s="11"/>
     </row>
     <row r="200" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -39573,13 +39582,13 @@
       <c r="K201" s="11"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A202" s="234" t="s">
+      <c r="A202" s="207" t="s">
         <v>523</v>
       </c>
-      <c r="B202" s="235" t="s">
+      <c r="B202" s="218" t="s">
         <v>254</v>
       </c>
-      <c r="C202" s="236">
+      <c r="C202" s="221">
         <f>K244</f>
         <v>0.33333333333333331</v>
       </c>
@@ -39602,16 +39611,16 @@
         <f t="shared" si="3"/>
         <v>0.17431972789115646</v>
       </c>
-      <c r="I202" s="219" cm="1">
+      <c r="I202" s="223" cm="1">
         <f t="array" ref="I202">SUM(E202:E208*F202:F208)</f>
         <v>3.5390211640211637</v>
       </c>
       <c r="K202" s="11"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="234"/>
-      <c r="B203" s="218"/>
-      <c r="C203" s="232"/>
+      <c r="A203" s="207"/>
+      <c r="B203" s="217"/>
+      <c r="C203" s="220"/>
       <c r="D203" s="1" t="s">
         <v>103</v>
       </c>
@@ -39631,13 +39640,13 @@
         <f t="shared" si="3"/>
         <v>0.17865016376921139</v>
       </c>
-      <c r="I203" s="233"/>
+      <c r="I203" s="222"/>
       <c r="K203" s="11"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A204" s="234"/>
-      <c r="B204" s="218"/>
-      <c r="C204" s="232"/>
+      <c r="A204" s="207"/>
+      <c r="B204" s="217"/>
+      <c r="C204" s="220"/>
       <c r="D204" s="1" t="s">
         <v>104</v>
       </c>
@@ -39657,13 +39666,13 @@
         <f t="shared" si="3"/>
         <v>0.18384668682287728</v>
       </c>
-      <c r="I204" s="233"/>
+      <c r="I204" s="222"/>
       <c r="K204" s="11"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A205" s="234"/>
-      <c r="B205" s="218"/>
-      <c r="C205" s="232"/>
+      <c r="A205" s="207"/>
+      <c r="B205" s="217"/>
+      <c r="C205" s="220"/>
       <c r="D205" s="1" t="s">
         <v>139</v>
       </c>
@@ -39683,13 +39692,13 @@
         <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I205" s="233"/>
+      <c r="I205" s="222"/>
       <c r="K205" s="11"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A206" s="234"/>
-      <c r="B206" s="218"/>
-      <c r="C206" s="232"/>
+      <c r="A206" s="207"/>
+      <c r="B206" s="217"/>
+      <c r="C206" s="220"/>
       <c r="D206" s="1" t="s">
         <v>141</v>
       </c>
@@ -39709,13 +39718,13 @@
         <f t="shared" si="3"/>
         <v>0.11904761904761904</v>
       </c>
-      <c r="I206" s="233"/>
+      <c r="I206" s="222"/>
       <c r="K206" s="11"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A207" s="234"/>
-      <c r="B207" s="218"/>
-      <c r="C207" s="232"/>
+      <c r="A207" s="207"/>
+      <c r="B207" s="217"/>
+      <c r="C207" s="220"/>
       <c r="D207" s="1" t="s">
         <v>142</v>
       </c>
@@ -39735,13 +39744,13 @@
         <f t="shared" si="3"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="I207" s="233"/>
+      <c r="I207" s="222"/>
       <c r="K207" s="11"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="234"/>
-      <c r="B208" s="218"/>
-      <c r="C208" s="232"/>
+      <c r="A208" s="207"/>
+      <c r="B208" s="217"/>
+      <c r="C208" s="220"/>
       <c r="D208" s="1" t="s">
         <v>143</v>
       </c>
@@ -39761,15 +39770,15 @@
         <f t="shared" si="3"/>
         <v>0.19047619047619047</v>
       </c>
-      <c r="I208" s="233"/>
+      <c r="I208" s="222"/>
       <c r="K208" s="11"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A209" s="234"/>
-      <c r="B209" s="218" t="s">
+      <c r="A209" s="207"/>
+      <c r="B209" s="217" t="s">
         <v>255</v>
       </c>
-      <c r="C209" s="217">
+      <c r="C209" s="219">
         <f>K245</f>
         <v>0.33333333333333331</v>
       </c>
@@ -39792,16 +39801,16 @@
         <f t="shared" si="3"/>
         <v>0.30691964285714285</v>
       </c>
-      <c r="I209" s="233" cm="1">
+      <c r="I209" s="222" cm="1">
         <f t="array" ref="I209">SUM(E209:E212*F209:F212)</f>
         <v>3.6553406084656088</v>
       </c>
       <c r="K209" s="11"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A210" s="234"/>
-      <c r="B210" s="218"/>
-      <c r="C210" s="232"/>
+      <c r="A210" s="207"/>
+      <c r="B210" s="217"/>
+      <c r="C210" s="220"/>
       <c r="D210" s="1" t="s">
         <v>116</v>
       </c>
@@ -39821,13 +39830,13 @@
         <f t="shared" si="3"/>
         <v>0.30078813932980597</v>
       </c>
-      <c r="I210" s="233"/>
+      <c r="I210" s="222"/>
       <c r="K210" s="11"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A211" s="234"/>
-      <c r="B211" s="218"/>
-      <c r="C211" s="232"/>
+      <c r="A211" s="207"/>
+      <c r="B211" s="217"/>
+      <c r="C211" s="220"/>
       <c r="D211" s="1" t="s">
         <v>117</v>
       </c>
@@ -39847,13 +39856,13 @@
         <f t="shared" si="3"/>
         <v>0.34474206349206349</v>
       </c>
-      <c r="I211" s="233"/>
+      <c r="I211" s="222"/>
       <c r="K211" s="11"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A212" s="234"/>
-      <c r="B212" s="218"/>
-      <c r="C212" s="232"/>
+      <c r="A212" s="207"/>
+      <c r="B212" s="217"/>
+      <c r="C212" s="220"/>
       <c r="D212" s="1" t="s">
         <v>118</v>
       </c>
@@ -39873,15 +39882,15 @@
         <f t="shared" si="3"/>
         <v>0.26599702380952384</v>
       </c>
-      <c r="I212" s="233"/>
+      <c r="I212" s="222"/>
       <c r="K212" s="11"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A213" s="234"/>
-      <c r="B213" s="218" t="s">
+      <c r="A213" s="207"/>
+      <c r="B213" s="217" t="s">
         <v>256</v>
       </c>
-      <c r="C213" s="217">
+      <c r="C213" s="219">
         <f>K246</f>
         <v>0.33333333333333331</v>
       </c>
@@ -39904,16 +39913,16 @@
         <f t="shared" si="3"/>
         <v>0.20061728395061726</v>
       </c>
-      <c r="I213" s="212" cm="1">
+      <c r="I213" s="232" cm="1">
         <f t="array" ref="I213">SUM(E213:E219*F213:F219)</f>
         <v>3.7191987906273614</v>
       </c>
       <c r="K213" s="11"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A214" s="234"/>
-      <c r="B214" s="218"/>
-      <c r="C214" s="217"/>
+      <c r="A214" s="207"/>
+      <c r="B214" s="217"/>
+      <c r="C214" s="219"/>
       <c r="D214" s="1" t="s">
         <v>140</v>
       </c>
@@ -39933,13 +39942,13 @@
         <f t="shared" si="3"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="I214" s="213"/>
+      <c r="I214" s="233"/>
       <c r="K214" s="11"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="234"/>
-      <c r="B215" s="218"/>
-      <c r="C215" s="217"/>
+      <c r="A215" s="207"/>
+      <c r="B215" s="217"/>
+      <c r="C215" s="219"/>
       <c r="D215" s="1" t="s">
         <v>144</v>
       </c>
@@ -39959,13 +39968,13 @@
         <f t="shared" si="3"/>
         <v>0.19047619047619047</v>
       </c>
-      <c r="I215" s="213"/>
+      <c r="I215" s="233"/>
       <c r="K215" s="11"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A216" s="234"/>
-      <c r="B216" s="218"/>
-      <c r="C216" s="217"/>
+      <c r="A216" s="207"/>
+      <c r="B216" s="217"/>
+      <c r="C216" s="219"/>
       <c r="D216" s="1" t="s">
         <v>119</v>
       </c>
@@ -39985,13 +39994,13 @@
         <f>G216*E216</f>
         <v>0.17219387755102039</v>
       </c>
-      <c r="I216" s="213"/>
+      <c r="I216" s="233"/>
       <c r="K216" s="11"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A217" s="234"/>
-      <c r="B217" s="218"/>
-      <c r="C217" s="217"/>
+      <c r="A217" s="207"/>
+      <c r="B217" s="217"/>
+      <c r="C217" s="219"/>
       <c r="D217" s="1" t="s">
         <v>514</v>
       </c>
@@ -40011,13 +40020,13 @@
         <f t="shared" ref="H217:H219" si="12">G217*E217</f>
         <v>0.17219387755102039</v>
       </c>
-      <c r="I217" s="213"/>
+      <c r="I217" s="233"/>
       <c r="K217" s="11"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A218" s="234"/>
-      <c r="B218" s="218"/>
-      <c r="C218" s="217"/>
+      <c r="A218" s="207"/>
+      <c r="B218" s="217"/>
+      <c r="C218" s="219"/>
       <c r="D218" s="1" t="s">
         <v>515</v>
       </c>
@@ -40037,13 +40046,13 @@
         <f t="shared" si="12"/>
         <v>0.16581632653061221</v>
       </c>
-      <c r="I218" s="213"/>
+      <c r="I218" s="233"/>
       <c r="K218" s="11"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A219" s="234"/>
-      <c r="B219" s="218"/>
-      <c r="C219" s="217"/>
+      <c r="A219" s="207"/>
+      <c r="B219" s="217"/>
+      <c r="C219" s="219"/>
       <c r="D219" s="1" t="s">
         <v>516</v>
       </c>
@@ -40063,7 +40072,7 @@
         <f t="shared" si="12"/>
         <v>0.19557823129251697</v>
       </c>
-      <c r="I219" s="219"/>
+      <c r="I219" s="223"/>
       <c r="K219" s="11"/>
     </row>
     <row r="220" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -40191,12 +40200,12 @@
       <c r="F229" s="72" t="s">
         <v>368</v>
       </c>
-      <c r="G229" s="207" t="s">
+      <c r="G229" s="227" t="s">
         <v>277</v>
       </c>
-      <c r="H229" s="207"/>
-      <c r="I229" s="207"/>
-      <c r="J229" s="207"/>
+      <c r="H229" s="227"/>
+      <c r="I229" s="227"/>
+      <c r="J229" s="227"/>
       <c r="K229" s="75" t="s">
         <v>278</v>
       </c>
@@ -40609,11 +40618,11 @@
       <c r="E243" s="72" t="s">
         <v>256</v>
       </c>
-      <c r="F243" s="207" t="s">
+      <c r="F243" s="227" t="s">
         <v>277</v>
       </c>
-      <c r="G243" s="207"/>
-      <c r="H243" s="207"/>
+      <c r="G243" s="227"/>
+      <c r="H243" s="227"/>
       <c r="I243" s="75" t="s">
         <v>278</v>
       </c>
@@ -40935,13 +40944,13 @@
       <c r="G256" s="72" t="s">
         <v>251</v>
       </c>
-      <c r="H256" s="214" t="s">
+      <c r="H256" s="234" t="s">
         <v>277</v>
       </c>
-      <c r="I256" s="215"/>
-      <c r="J256" s="215"/>
-      <c r="K256" s="215"/>
-      <c r="L256" s="216"/>
+      <c r="I256" s="235"/>
+      <c r="J256" s="235"/>
+      <c r="K256" s="235"/>
+      <c r="L256" s="236"/>
       <c r="M256" s="75" t="s">
         <v>278</v>
       </c>
@@ -41450,10 +41459,10 @@
       <c r="D272" s="62" t="s">
         <v>265</v>
       </c>
-      <c r="E272" s="214" t="s">
+      <c r="E272" s="234" t="s">
         <v>277</v>
       </c>
-      <c r="F272" s="215"/>
+      <c r="F272" s="235"/>
       <c r="G272" s="75" t="s">
         <v>278</v>
       </c>
@@ -41765,17 +41774,17 @@
       <c r="K285" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="L285" s="207" t="s">
+      <c r="L285" s="227" t="s">
         <v>277</v>
       </c>
-      <c r="M285" s="207"/>
-      <c r="N285" s="207"/>
-      <c r="O285" s="207"/>
-      <c r="P285" s="207"/>
-      <c r="Q285" s="207"/>
-      <c r="R285" s="207"/>
-      <c r="S285" s="207"/>
-      <c r="T285" s="207"/>
+      <c r="M285" s="227"/>
+      <c r="N285" s="227"/>
+      <c r="O285" s="227"/>
+      <c r="P285" s="227"/>
+      <c r="Q285" s="227"/>
+      <c r="R285" s="227"/>
+      <c r="S285" s="227"/>
+      <c r="T285" s="227"/>
       <c r="U285" s="75" t="s">
         <v>278</v>
       </c>
@@ -42840,15 +42849,15 @@
       <c r="I305" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="J305" s="214" t="s">
+      <c r="J305" s="234" t="s">
         <v>277</v>
       </c>
-      <c r="K305" s="215"/>
-      <c r="L305" s="215"/>
-      <c r="M305" s="215"/>
-      <c r="N305" s="215"/>
-      <c r="O305" s="215"/>
-      <c r="P305" s="216"/>
+      <c r="K305" s="235"/>
+      <c r="L305" s="235"/>
+      <c r="M305" s="235"/>
+      <c r="N305" s="235"/>
+      <c r="O305" s="235"/>
+      <c r="P305" s="236"/>
       <c r="Q305" s="75" t="s">
         <v>278</v>
       </c>
@@ -44004,15 +44013,15 @@
       <c r="I338" s="72" t="s">
         <v>516</v>
       </c>
-      <c r="J338" s="214" t="s">
+      <c r="J338" s="234" t="s">
         <v>277</v>
       </c>
-      <c r="K338" s="215"/>
-      <c r="L338" s="215"/>
-      <c r="M338" s="215"/>
-      <c r="N338" s="215"/>
-      <c r="O338" s="215"/>
-      <c r="P338" s="216"/>
+      <c r="K338" s="235"/>
+      <c r="L338" s="235"/>
+      <c r="M338" s="235"/>
+      <c r="N338" s="235"/>
+      <c r="O338" s="235"/>
+      <c r="P338" s="236"/>
       <c r="Q338" s="75" t="s">
         <v>278</v>
       </c>
@@ -44754,13 +44763,13 @@
       <c r="G356" s="72" t="s">
         <v>371</v>
       </c>
-      <c r="H356" s="207" t="s">
+      <c r="H356" s="227" t="s">
         <v>277</v>
       </c>
-      <c r="I356" s="207"/>
-      <c r="J356" s="207"/>
-      <c r="K356" s="207"/>
-      <c r="L356" s="207"/>
+      <c r="I356" s="227"/>
+      <c r="J356" s="227"/>
+      <c r="K356" s="227"/>
+      <c r="L356" s="227"/>
       <c r="M356" s="75" t="s">
         <v>278</v>
       </c>
@@ -45158,37 +45167,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A179:A199"/>
-    <mergeCell ref="A202:A219"/>
-    <mergeCell ref="H63:N64"/>
-    <mergeCell ref="H84:N84"/>
-    <mergeCell ref="B186:B194"/>
-    <mergeCell ref="B202:B208"/>
-    <mergeCell ref="B209:B212"/>
-    <mergeCell ref="C186:C194"/>
-    <mergeCell ref="C202:C208"/>
-    <mergeCell ref="I186:I194"/>
-    <mergeCell ref="I202:I208"/>
-    <mergeCell ref="I209:I212"/>
-    <mergeCell ref="C209:C212"/>
-    <mergeCell ref="H44:N44"/>
-    <mergeCell ref="H103:N104"/>
-    <mergeCell ref="B176:F176"/>
-    <mergeCell ref="B179:B183"/>
-    <mergeCell ref="B184:B185"/>
-    <mergeCell ref="C179:C183"/>
-    <mergeCell ref="C184:C185"/>
-    <mergeCell ref="I179:I183"/>
-    <mergeCell ref="I184:I185"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="A156:F156"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B11:B16"/>
     <mergeCell ref="H356:L356"/>
     <mergeCell ref="B195:B199"/>
     <mergeCell ref="C195:C199"/>
@@ -45203,6 +45181,37 @@
     <mergeCell ref="F243:H243"/>
     <mergeCell ref="I213:I219"/>
     <mergeCell ref="J305:P305"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="A156:F156"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="H44:N44"/>
+    <mergeCell ref="H103:N104"/>
+    <mergeCell ref="B176:F176"/>
+    <mergeCell ref="B179:B183"/>
+    <mergeCell ref="B184:B185"/>
+    <mergeCell ref="C179:C183"/>
+    <mergeCell ref="C184:C185"/>
+    <mergeCell ref="I179:I183"/>
+    <mergeCell ref="I184:I185"/>
+    <mergeCell ref="A179:A199"/>
+    <mergeCell ref="A202:A219"/>
+    <mergeCell ref="H63:N64"/>
+    <mergeCell ref="H84:N84"/>
+    <mergeCell ref="B186:B194"/>
+    <mergeCell ref="B202:B208"/>
+    <mergeCell ref="B209:B212"/>
+    <mergeCell ref="C186:C194"/>
+    <mergeCell ref="C202:C208"/>
+    <mergeCell ref="I186:I194"/>
+    <mergeCell ref="I202:I208"/>
+    <mergeCell ref="I209:I212"/>
+    <mergeCell ref="C209:C212"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45272,7 +45281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B55847A-8B51-4EA0-B2F1-2F7149944867}">
   <dimension ref="A1:U874"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A328" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A328" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O423" sqref="O423"/>
     </sheetView>
   </sheetViews>
@@ -45291,20 +45300,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="288" t="s">
         <v>305</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="271"/>
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="290"/>
       <c r="G1" s="106" t="s">
         <v>306</v>
       </c>
       <c r="H1" s="98">
         <f ca="1">TODAY()</f>
-        <v>45269</v>
+        <v>45293</v>
       </c>
       <c r="K1" s="95"/>
       <c r="L1" s="95"/>
@@ -45367,19 +45376,19 @@
       <c r="U3" s="95"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="251" t="s">
+      <c r="A4" s="304" t="s">
         <v>308</v>
       </c>
-      <c r="B4" s="248"/>
-      <c r="C4" s="248"/>
-      <c r="D4" s="248" t="str">
+      <c r="B4" s="301"/>
+      <c r="C4" s="301"/>
+      <c r="D4" s="301" t="str">
         <f>'Informe Previo'!D4</f>
         <v>Kahoot</v>
       </c>
-      <c r="E4" s="248"/>
-      <c r="F4" s="248"/>
-      <c r="G4" s="248"/>
-      <c r="H4" s="249"/>
+      <c r="E4" s="301"/>
+      <c r="F4" s="301"/>
+      <c r="G4" s="301"/>
+      <c r="H4" s="305"/>
       <c r="I4" s="95"/>
       <c r="J4" s="95"/>
       <c r="K4" s="95"/>
@@ -45395,17 +45404,17 @@
       <c r="U4" s="95"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="247" t="s">
+      <c r="A5" s="291" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="240"/>
-      <c r="C5" s="240"/>
+      <c r="B5" s="292"/>
+      <c r="C5" s="292"/>
       <c r="D5" s="105" t="str">
         <f>'Informe Previo'!D5</f>
         <v>2023-10-23</v>
       </c>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
+      <c r="F5" s="292"/>
+      <c r="G5" s="292"/>
       <c r="H5" s="99"/>
       <c r="I5" s="95"/>
       <c r="J5" s="95"/>
@@ -45422,19 +45431,19 @@
       <c r="U5" s="95"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="247" t="s">
+      <c r="A6" s="291" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="240"/>
-      <c r="C6" s="240"/>
-      <c r="D6" s="240" t="str">
+      <c r="B6" s="292"/>
+      <c r="C6" s="292"/>
+      <c r="D6" s="292" t="str">
         <f>'Informe Previo'!D10</f>
         <v>Escuela Superior de Ingenieros</v>
       </c>
-      <c r="E6" s="240"/>
-      <c r="F6" s="240"/>
-      <c r="G6" s="240"/>
-      <c r="H6" s="250"/>
+      <c r="E6" s="292"/>
+      <c r="F6" s="292"/>
+      <c r="G6" s="292"/>
+      <c r="H6" s="293"/>
       <c r="I6" s="95"/>
       <c r="J6" s="95"/>
       <c r="K6" s="95"/>
@@ -45450,19 +45459,19 @@
       <c r="U6" s="95"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="247" t="s">
+      <c r="A7" s="291" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="240"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240" t="str">
+      <c r="B7" s="292"/>
+      <c r="C7" s="292"/>
+      <c r="D7" s="292" t="str">
         <f>'Informe Previo'!D11</f>
         <v>4º</v>
       </c>
-      <c r="E7" s="240"/>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
-      <c r="H7" s="250"/>
+      <c r="E7" s="292"/>
+      <c r="F7" s="292"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="293"/>
       <c r="I7" s="95"/>
       <c r="J7" s="95"/>
       <c r="K7" s="95"/>
@@ -45478,19 +45487,19 @@
       <c r="U7" s="95"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="255" t="s">
+      <c r="A8" s="309" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="256"/>
-      <c r="C8" s="256"/>
-      <c r="D8" s="256" t="str">
+      <c r="B8" s="302"/>
+      <c r="C8" s="302"/>
+      <c r="D8" s="302" t="str">
         <f>'Informe Previo'!D13</f>
         <v>Servicios Telemáticos Avanzados</v>
       </c>
-      <c r="E8" s="256"/>
-      <c r="F8" s="256"/>
-      <c r="G8" s="256"/>
-      <c r="H8" s="257"/>
+      <c r="E8" s="302"/>
+      <c r="F8" s="302"/>
+      <c r="G8" s="302"/>
+      <c r="H8" s="303"/>
       <c r="I8" s="95"/>
       <c r="J8" s="95"/>
       <c r="K8" s="95"/>
@@ -45506,19 +45515,19 @@
       <c r="U8" s="95"/>
     </row>
     <row r="9" spans="1:21" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="258" t="s">
+      <c r="A9" s="310" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="259"/>
-      <c r="C9" s="259"/>
-      <c r="D9" s="260" t="str">
+      <c r="B9" s="311"/>
+      <c r="C9" s="311"/>
+      <c r="D9" s="312" t="str">
         <f>'Informe Previo'!D14</f>
         <v>Francisco Javier Muñoz Calle</v>
       </c>
-      <c r="E9" s="260"/>
-      <c r="F9" s="260"/>
-      <c r="G9" s="260"/>
-      <c r="H9" s="261"/>
+      <c r="E9" s="312"/>
+      <c r="F9" s="312"/>
+      <c r="G9" s="312"/>
+      <c r="H9" s="313"/>
       <c r="I9" s="95"/>
       <c r="J9" s="95"/>
       <c r="K9" s="95"/>
@@ -45534,19 +45543,19 @@
       <c r="U9" s="95"/>
     </row>
     <row r="10" spans="1:21" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="262" t="s">
+      <c r="A10" s="314" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="263"/>
-      <c r="C10" s="263"/>
-      <c r="D10" s="264" t="str">
+      <c r="B10" s="315"/>
+      <c r="C10" s="315"/>
+      <c r="D10" s="248" t="str">
         <f>'Informe Previo'!D15</f>
         <v>José Manuel Candilejo Egea</v>
       </c>
-      <c r="E10" s="264"/>
-      <c r="F10" s="264"/>
-      <c r="G10" s="264"/>
-      <c r="H10" s="265"/>
+      <c r="E10" s="248"/>
+      <c r="F10" s="248"/>
+      <c r="G10" s="248"/>
+      <c r="H10" s="249"/>
       <c r="I10" s="95"/>
       <c r="J10" s="95"/>
       <c r="K10" s="95"/>
@@ -45562,14 +45571,14 @@
       <c r="U10" s="95"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="240"/>
-      <c r="B11" s="240"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="240"/>
-      <c r="E11" s="240"/>
-      <c r="F11" s="240"/>
-      <c r="G11" s="240"/>
-      <c r="H11" s="240"/>
+      <c r="A11" s="292"/>
+      <c r="B11" s="292"/>
+      <c r="C11" s="292"/>
+      <c r="D11" s="292"/>
+      <c r="E11" s="292"/>
+      <c r="F11" s="292"/>
+      <c r="G11" s="292"/>
+      <c r="H11" s="292"/>
       <c r="I11" s="95"/>
       <c r="J11" s="95"/>
       <c r="K11" s="95"/>
@@ -45610,19 +45619,19 @@
       <c r="U12" s="95"/>
     </row>
     <row r="13" spans="1:21" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="266" t="s">
+      <c r="A13" s="273" t="s">
         <v>629</v>
       </c>
-      <c r="B13" s="267"/>
+      <c r="B13" s="274"/>
       <c r="C13" s="101" t="str">
         <f>'Informe Previo'!D6</f>
         <v>2 semanas</v>
       </c>
       <c r="D13" s="101"/>
-      <c r="E13" s="266" t="s">
+      <c r="E13" s="273" t="s">
         <v>627</v>
       </c>
-      <c r="F13" s="267"/>
+      <c r="F13" s="274"/>
       <c r="G13" s="101">
         <f>'Informe Previo'!D7</f>
         <v>2</v>
@@ -45652,10 +45661,10 @@
         <v>Sí. 1º (+0,5), 2º (+0,3), 3º (+0,1) en la calificación de la práctica de ese día.</v>
       </c>
       <c r="D14" s="178"/>
-      <c r="E14" s="279" t="s">
+      <c r="E14" s="275" t="s">
         <v>626</v>
       </c>
-      <c r="F14" s="280"/>
+      <c r="F14" s="276"/>
       <c r="G14" s="178">
         <f>IF('Informe Previo'!D8&lt;&gt;"",'Informe Previo'!D8,"Sin especificar")</f>
         <v>20</v>
@@ -45747,19 +45756,19 @@
       <c r="U17" s="95"/>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="251" t="s">
+      <c r="A18" s="304" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="248"/>
-      <c r="C18" s="248"/>
-      <c r="D18" s="248">
+      <c r="B18" s="301"/>
+      <c r="C18" s="301"/>
+      <c r="D18" s="301">
         <f>'Informe Previo'!D16</f>
         <v>44</v>
       </c>
-      <c r="E18" s="248"/>
-      <c r="F18" s="248"/>
-      <c r="G18" s="248"/>
-      <c r="H18" s="249"/>
+      <c r="E18" s="301"/>
+      <c r="F18" s="301"/>
+      <c r="G18" s="301"/>
+      <c r="H18" s="305"/>
       <c r="I18" s="95"/>
       <c r="J18" s="95"/>
       <c r="K18" s="95"/>
@@ -45775,19 +45784,19 @@
       <c r="U18" s="95"/>
     </row>
     <row r="19" spans="1:21" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="252" t="s">
+      <c r="A19" s="306" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="253"/>
-      <c r="C19" s="253"/>
-      <c r="D19" s="245">
+      <c r="B19" s="307"/>
+      <c r="C19" s="307"/>
+      <c r="D19" s="299">
         <f>'Informe Previo'!D19</f>
         <v>0</v>
       </c>
-      <c r="E19" s="245"/>
-      <c r="F19" s="245"/>
-      <c r="G19" s="245"/>
-      <c r="H19" s="254"/>
+      <c r="E19" s="299"/>
+      <c r="F19" s="299"/>
+      <c r="G19" s="299"/>
+      <c r="H19" s="308"/>
       <c r="I19" s="95"/>
       <c r="J19" s="95"/>
       <c r="K19" s="95"/>
@@ -45803,13 +45812,13 @@
       <c r="U19" s="95"/>
     </row>
     <row r="20" spans="1:21" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="266" t="s">
+      <c r="A20" s="273" t="s">
         <v>310</v>
       </c>
-      <c r="B20" s="267" t="s">
+      <c r="B20" s="274" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="267" t="s">
+      <c r="C20" s="274" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="101">
@@ -45817,8 +45826,8 @@
         <v>0</v>
       </c>
       <c r="E20" s="103"/>
-      <c r="F20" s="248"/>
-      <c r="G20" s="248"/>
+      <c r="F20" s="301"/>
+      <c r="G20" s="301"/>
       <c r="H20" s="102"/>
       <c r="I20" s="95"/>
       <c r="J20" s="95"/>
@@ -45835,23 +45844,23 @@
       <c r="U20" s="95"/>
     </row>
     <row r="21" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="279" t="s">
+      <c r="A21" s="275" t="s">
         <v>311</v>
       </c>
-      <c r="B21" s="280" t="s">
+      <c r="B21" s="276" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="280" t="s">
+      <c r="C21" s="276" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="256">
+      <c r="D21" s="302">
         <f>'Informe Previo'!D18</f>
         <v>0</v>
       </c>
-      <c r="E21" s="256"/>
-      <c r="F21" s="256"/>
-      <c r="G21" s="256"/>
-      <c r="H21" s="257"/>
+      <c r="E21" s="302"/>
+      <c r="F21" s="302"/>
+      <c r="G21" s="302"/>
+      <c r="H21" s="303"/>
       <c r="I21" s="95"/>
       <c r="J21" s="95"/>
       <c r="K21" s="95"/>
@@ -45867,13 +45876,13 @@
       <c r="U21" s="95"/>
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="266" t="s">
+      <c r="A22" s="273" t="s">
         <v>312</v>
       </c>
-      <c r="B22" s="267" t="s">
+      <c r="B22" s="274" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="267" t="s">
+      <c r="C22" s="274" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="242" t="str">
@@ -45927,23 +45936,23 @@
       <c r="U23" s="95"/>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="244" t="s">
+      <c r="A24" s="298" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="245" t="s">
+      <c r="B24" s="299" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="245" t="s">
+      <c r="C24" s="299" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="276" t="str">
+      <c r="D24" s="245" t="str">
         <f>IF('Informe Previo'!D25&lt;&gt;"",'Informe Previo'!D25&amp;" h de trabajo en casa/semana","Sin especificar")</f>
         <v>Sin especificar</v>
       </c>
-      <c r="E24" s="276"/>
-      <c r="F24" s="276"/>
-      <c r="G24" s="276"/>
-      <c r="H24" s="277"/>
+      <c r="E24" s="245"/>
+      <c r="F24" s="245"/>
+      <c r="G24" s="245"/>
+      <c r="H24" s="246"/>
       <c r="I24" s="95"/>
       <c r="J24" s="95"/>
       <c r="K24" s="95"/>
@@ -45959,23 +45968,23 @@
       <c r="U24" s="95"/>
     </row>
     <row r="25" spans="1:21" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="244" t="s">
+      <c r="A25" s="298" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="245" t="s">
+      <c r="B25" s="299" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="245" t="s">
+      <c r="C25" s="299" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="276">
+      <c r="D25" s="245">
         <f>'Informe Previo'!D36</f>
         <v>0</v>
       </c>
-      <c r="E25" s="276"/>
-      <c r="F25" s="276"/>
-      <c r="G25" s="276"/>
-      <c r="H25" s="277"/>
+      <c r="E25" s="245"/>
+      <c r="F25" s="245"/>
+      <c r="G25" s="245"/>
+      <c r="H25" s="246"/>
       <c r="I25" s="95"/>
       <c r="J25" s="95"/>
       <c r="K25" s="95"/>
@@ -45991,19 +46000,19 @@
       <c r="U25" s="95"/>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="247" t="s">
+      <c r="A26" s="291" t="s">
         <v>631</v>
       </c>
-      <c r="B26" s="240"/>
-      <c r="C26" s="240"/>
-      <c r="D26" s="278">
+      <c r="B26" s="292"/>
+      <c r="C26" s="292"/>
+      <c r="D26" s="300">
         <f>'Informe Previo'!D26</f>
         <v>1</v>
       </c>
-      <c r="E26" s="240"/>
-      <c r="F26" s="240"/>
-      <c r="G26" s="240"/>
-      <c r="H26" s="250"/>
+      <c r="E26" s="292"/>
+      <c r="F26" s="292"/>
+      <c r="G26" s="292"/>
+      <c r="H26" s="293"/>
       <c r="I26" s="95"/>
       <c r="J26" s="95"/>
       <c r="K26" s="95"/>
@@ -46019,19 +46028,19 @@
       <c r="U26" s="95"/>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="247" t="s">
+      <c r="A27" s="291" t="s">
         <v>632</v>
       </c>
-      <c r="B27" s="240"/>
-      <c r="C27" s="240"/>
-      <c r="D27" s="240" t="str">
+      <c r="B27" s="292"/>
+      <c r="C27" s="292"/>
+      <c r="D27" s="292" t="str">
         <f>IF('Informe Previo'!D28&lt;&gt;"",'Informe Previo'!D28,"Sin especificar")</f>
         <v>Sin especificar</v>
       </c>
-      <c r="E27" s="240"/>
-      <c r="F27" s="240"/>
-      <c r="G27" s="240"/>
-      <c r="H27" s="250"/>
+      <c r="E27" s="292"/>
+      <c r="F27" s="292"/>
+      <c r="G27" s="292"/>
+      <c r="H27" s="293"/>
       <c r="I27" s="95"/>
       <c r="J27" s="95"/>
       <c r="K27" s="95"/>
@@ -46047,19 +46056,19 @@
       <c r="U27" s="95"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="255" t="s">
+      <c r="A28" s="309" t="s">
         <v>633</v>
       </c>
-      <c r="B28" s="256"/>
-      <c r="C28" s="256"/>
-      <c r="D28" s="256">
+      <c r="B28" s="302"/>
+      <c r="C28" s="302"/>
+      <c r="D28" s="302">
         <f>'Informe Previo'!D29</f>
         <v>0</v>
       </c>
-      <c r="E28" s="256"/>
-      <c r="F28" s="256"/>
-      <c r="G28" s="256"/>
-      <c r="H28" s="257"/>
+      <c r="E28" s="302"/>
+      <c r="F28" s="302"/>
+      <c r="G28" s="302"/>
+      <c r="H28" s="303"/>
       <c r="I28" s="95"/>
       <c r="J28" s="95"/>
       <c r="K28" s="95"/>
@@ -46075,14 +46084,14 @@
       <c r="U28" s="95"/>
     </row>
     <row r="29" spans="1:21" ht="153" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="240"/>
-      <c r="B29" s="240"/>
-      <c r="C29" s="240"/>
-      <c r="D29" s="240"/>
-      <c r="E29" s="240"/>
-      <c r="F29" s="240"/>
-      <c r="G29" s="240"/>
-      <c r="H29" s="240"/>
+      <c r="A29" s="292"/>
+      <c r="B29" s="292"/>
+      <c r="C29" s="292"/>
+      <c r="D29" s="292"/>
+      <c r="E29" s="292"/>
+      <c r="F29" s="292"/>
+      <c r="G29" s="292"/>
+      <c r="H29" s="292"/>
       <c r="I29" s="95"/>
       <c r="J29" s="95"/>
       <c r="K29" s="95"/>
@@ -46277,18 +46286,18 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="110"/>
-      <c r="B37" s="272" t="s">
+      <c r="B37" s="294" t="s">
         <v>319</v>
       </c>
-      <c r="C37" s="272"/>
-      <c r="D37" s="273" t="s">
+      <c r="C37" s="294"/>
+      <c r="D37" s="295" t="s">
         <v>317</v>
       </c>
-      <c r="E37" s="273"/>
-      <c r="F37" s="273" t="s">
+      <c r="E37" s="295"/>
+      <c r="F37" s="295" t="s">
         <v>316</v>
       </c>
-      <c r="G37" s="273"/>
+      <c r="G37" s="295"/>
       <c r="H37" s="111"/>
       <c r="I37" s="95"/>
       <c r="J37" s="95"/>
@@ -46306,8 +46315,8 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="110"/>
-      <c r="B38" s="272"/>
-      <c r="C38" s="272"/>
+      <c r="B38" s="294"/>
+      <c r="C38" s="294"/>
       <c r="D38" s="115" t="s">
         <v>47</v>
       </c>
@@ -46337,10 +46346,10 @@
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="110"/>
-      <c r="B39" s="274" t="s">
+      <c r="B39" s="296" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="274"/>
+      <c r="C39" s="296"/>
       <c r="D39" s="117" t="str">
         <f>IF(D33="No","N/A",Cálculos!E4)</f>
         <v>N/A</v>
@@ -46374,10 +46383,10 @@
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="110"/>
-      <c r="B40" s="274" t="s">
+      <c r="B40" s="296" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="274"/>
+      <c r="C40" s="296"/>
       <c r="D40" s="117" t="str">
         <f>IF(D33="No","N/A",Cálculos!E7)</f>
         <v>N/A</v>
@@ -46434,18 +46443,18 @@
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="110"/>
-      <c r="B42" s="272" t="s">
+      <c r="B42" s="294" t="s">
         <v>320</v>
       </c>
-      <c r="C42" s="272"/>
-      <c r="D42" s="273" t="s">
+      <c r="C42" s="294"/>
+      <c r="D42" s="295" t="s">
         <v>317</v>
       </c>
-      <c r="E42" s="273"/>
-      <c r="F42" s="273" t="s">
+      <c r="E42" s="295"/>
+      <c r="F42" s="295" t="s">
         <v>316</v>
       </c>
-      <c r="G42" s="273"/>
+      <c r="G42" s="295"/>
       <c r="H42" s="111"/>
       <c r="I42" s="95"/>
       <c r="J42" s="95"/>
@@ -46463,8 +46472,8 @@
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="110"/>
-      <c r="B43" s="272"/>
-      <c r="C43" s="272"/>
+      <c r="B43" s="294"/>
+      <c r="C43" s="294"/>
       <c r="D43" s="116" t="s">
         <v>53</v>
       </c>
@@ -46494,7 +46503,7 @@
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="110"/>
-      <c r="B44" s="275" t="s">
+      <c r="B44" s="297" t="s">
         <v>317</v>
       </c>
       <c r="C44" s="116" t="s">
@@ -46531,7 +46540,7 @@
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="110"/>
-      <c r="B45" s="275"/>
+      <c r="B45" s="297"/>
       <c r="C45" s="116" t="s">
         <v>54</v>
       </c>
@@ -46566,7 +46575,7 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="110"/>
-      <c r="B46" s="241" t="s">
+      <c r="B46" s="317" t="s">
         <v>316</v>
       </c>
       <c r="C46" s="116" t="s">
@@ -46603,7 +46612,7 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="110"/>
-      <c r="B47" s="241"/>
+      <c r="B47" s="317"/>
       <c r="C47" s="116" t="s">
         <v>54</v>
       </c>
@@ -47123,15 +47132,15 @@
       <c r="U68" s="95"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A69" s="268" t="str">
+      <c r="A69" s="316" t="str">
         <f>Cálculos!B111</f>
         <v>Pregunta</v>
       </c>
-      <c r="B69" s="268"/>
-      <c r="C69" s="268"/>
-      <c r="D69" s="268"/>
-      <c r="E69" s="268"/>
-      <c r="F69" s="268"/>
+      <c r="B69" s="316"/>
+      <c r="C69" s="316"/>
+      <c r="D69" s="316"/>
+      <c r="E69" s="316"/>
+      <c r="F69" s="316"/>
       <c r="G69" s="118" t="str">
         <f>Cálculos!C111</f>
         <v>Media</v>
@@ -47158,13 +47167,13 @@
       <c r="A70" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="B70" s="246" t="s">
+      <c r="B70" s="277" t="s">
         <v>490</v>
       </c>
-      <c r="C70" s="246"/>
-      <c r="D70" s="246"/>
-      <c r="E70" s="246"/>
-      <c r="F70" s="246"/>
+      <c r="C70" s="277"/>
+      <c r="D70" s="277"/>
+      <c r="E70" s="277"/>
+      <c r="F70" s="277"/>
       <c r="G70" s="120">
         <f>Cálculos!C112</f>
         <v>22.142857142857142</v>
@@ -47191,15 +47200,15 @@
       <c r="A71" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="B71" s="285" t="s">
+      <c r="B71" s="278" t="s">
         <v>491</v>
       </c>
-      <c r="C71" s="286"/>
-      <c r="D71" s="286"/>
-      <c r="E71" s="286"/>
-      <c r="F71" s="286"/>
-      <c r="G71" s="286"/>
-      <c r="H71" s="287"/>
+      <c r="C71" s="279"/>
+      <c r="D71" s="279"/>
+      <c r="E71" s="279"/>
+      <c r="F71" s="279"/>
+      <c r="G71" s="279"/>
+      <c r="H71" s="280"/>
       <c r="I71" s="95"/>
       <c r="J71" s="95"/>
       <c r="K71" s="95"/>
@@ -47215,17 +47224,17 @@
       <c r="U71" s="95"/>
     </row>
     <row r="72" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="282" t="str">
+      <c r="A72" s="281" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D6:CY6)</f>
         <v>Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española   //   Española</v>
       </c>
-      <c r="B72" s="283"/>
-      <c r="C72" s="283"/>
-      <c r="D72" s="283"/>
-      <c r="E72" s="283"/>
-      <c r="F72" s="283"/>
-      <c r="G72" s="283"/>
-      <c r="H72" s="284"/>
+      <c r="B72" s="282"/>
+      <c r="C72" s="282"/>
+      <c r="D72" s="282"/>
+      <c r="E72" s="282"/>
+      <c r="F72" s="282"/>
+      <c r="G72" s="282"/>
+      <c r="H72" s="283"/>
       <c r="I72" s="95"/>
       <c r="J72" s="95"/>
       <c r="K72" s="95"/>
@@ -47244,18 +47253,18 @@
       <c r="A73" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="B73" s="285" t="s">
+      <c r="B73" s="278" t="s">
         <v>492</v>
       </c>
-      <c r="C73" s="286"/>
-      <c r="D73" s="286"/>
-      <c r="E73" s="286"/>
-      <c r="F73" s="286"/>
-      <c r="G73" s="286" t="str">
+      <c r="C73" s="279"/>
+      <c r="D73" s="279"/>
+      <c r="E73" s="279"/>
+      <c r="F73" s="279"/>
+      <c r="G73" s="279" t="str">
         <f>Cálculos!C114</f>
         <v>N/A</v>
       </c>
-      <c r="H73" s="287" t="str">
+      <c r="H73" s="280" t="str">
         <f>Cálculos!D114</f>
         <v>N/A</v>
       </c>
@@ -47274,17 +47283,17 @@
       <c r="U73" s="95"/>
     </row>
     <row r="74" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="282" t="str">
+      <c r="A74" s="281" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D7:CY7)</f>
         <v>Masculino   //   Masculino   //   Masculino   //   Masculino   //   Masculino   //   Masculino   //   Masculino   //   Masculino   //   Masculino   //   Masculino   //   Masculino   //   Masculino   //   Masculino   //   Masculino   //   Masculino   //   Masculino   //   Masculino   //   Masculino   //   Masculino   //   Masculino   //   Masculino   //   Masculino   //   Masculino   //   Femenino   //   Masculino   //   Masculino   //   Masculino   //   Masculino</v>
       </c>
-      <c r="B74" s="283"/>
-      <c r="C74" s="283"/>
-      <c r="D74" s="283"/>
-      <c r="E74" s="283"/>
-      <c r="F74" s="283"/>
-      <c r="G74" s="283"/>
-      <c r="H74" s="284"/>
+      <c r="B74" s="282"/>
+      <c r="C74" s="282"/>
+      <c r="D74" s="282"/>
+      <c r="E74" s="282"/>
+      <c r="F74" s="282"/>
+      <c r="G74" s="282"/>
+      <c r="H74" s="283"/>
       <c r="I74" s="95"/>
       <c r="J74" s="95"/>
       <c r="K74" s="95"/>
@@ -47303,18 +47312,18 @@
       <c r="A75" s="186" t="s">
         <v>20</v>
       </c>
-      <c r="B75" s="285" t="s">
+      <c r="B75" s="278" t="s">
         <v>378</v>
       </c>
-      <c r="C75" s="286"/>
-      <c r="D75" s="286"/>
-      <c r="E75" s="286"/>
-      <c r="F75" s="286"/>
-      <c r="G75" s="286" t="str">
+      <c r="C75" s="279"/>
+      <c r="D75" s="279"/>
+      <c r="E75" s="279"/>
+      <c r="F75" s="279"/>
+      <c r="G75" s="279" t="str">
         <f>Cálculos!C115</f>
         <v>N/A</v>
       </c>
-      <c r="H75" s="287" t="str">
+      <c r="H75" s="280" t="str">
         <f>Cálculos!D115</f>
         <v>N/A</v>
       </c>
@@ -47333,17 +47342,17 @@
       <c r="U75" s="95"/>
     </row>
     <row r="76" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="282" t="str">
+      <c r="A76" s="281" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D8:CY8)</f>
         <v>4º   //   4º   //   4º   //   4º   //   4º   //   4º   //   4º   //   4º   //   4º   //   4º   //   4º   //   4º   //   4º   //   4º   //   4º   //   4º   //   4º   //   4º   //   4º   //   4º   //   4º   //   4º   //   4º   //   4º   //   4º   //   4º   //   4º   //   4º</v>
       </c>
-      <c r="B76" s="283"/>
-      <c r="C76" s="283"/>
-      <c r="D76" s="283"/>
-      <c r="E76" s="283"/>
-      <c r="F76" s="283"/>
-      <c r="G76" s="283"/>
-      <c r="H76" s="284"/>
+      <c r="B76" s="282"/>
+      <c r="C76" s="282"/>
+      <c r="D76" s="282"/>
+      <c r="E76" s="282"/>
+      <c r="F76" s="282"/>
+      <c r="G76" s="282"/>
+      <c r="H76" s="283"/>
       <c r="I76" s="95"/>
       <c r="J76" s="95"/>
       <c r="K76" s="95"/>
@@ -47362,13 +47371,13 @@
       <c r="A77" s="186" t="s">
         <v>21</v>
       </c>
-      <c r="B77" s="246" t="s">
+      <c r="B77" s="277" t="s">
         <v>493</v>
       </c>
-      <c r="C77" s="246"/>
-      <c r="D77" s="246"/>
-      <c r="E77" s="246"/>
-      <c r="F77" s="246"/>
+      <c r="C77" s="277"/>
+      <c r="D77" s="277"/>
+      <c r="E77" s="277"/>
+      <c r="F77" s="277"/>
       <c r="G77" s="120">
         <f>Cálculos!C116</f>
         <v>4.0357142857142856</v>
@@ -47395,13 +47404,13 @@
       <c r="A78" s="186" t="s">
         <v>22</v>
       </c>
-      <c r="B78" s="246" t="s">
+      <c r="B78" s="277" t="s">
         <v>323</v>
       </c>
-      <c r="C78" s="246"/>
-      <c r="D78" s="246"/>
-      <c r="E78" s="246"/>
-      <c r="F78" s="246"/>
+      <c r="C78" s="277"/>
+      <c r="D78" s="277"/>
+      <c r="E78" s="277"/>
+      <c r="F78" s="277"/>
       <c r="G78" s="120">
         <f>Cálculos!C117</f>
         <v>3.8214285714285716</v>
@@ -47428,13 +47437,13 @@
       <c r="A79" s="186" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="246" t="s">
+      <c r="B79" s="277" t="s">
         <v>324</v>
       </c>
-      <c r="C79" s="246"/>
-      <c r="D79" s="246"/>
-      <c r="E79" s="246"/>
-      <c r="F79" s="246"/>
+      <c r="C79" s="277"/>
+      <c r="D79" s="277"/>
+      <c r="E79" s="277"/>
+      <c r="F79" s="277"/>
       <c r="G79" s="120">
         <f>Cálculos!C118</f>
         <v>3.9285714285714284</v>
@@ -47461,13 +47470,13 @@
       <c r="A80" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="B80" s="246" t="s">
+      <c r="B80" s="277" t="s">
         <v>549</v>
       </c>
-      <c r="C80" s="246"/>
-      <c r="D80" s="246"/>
-      <c r="E80" s="246"/>
-      <c r="F80" s="246"/>
+      <c r="C80" s="277"/>
+      <c r="D80" s="277"/>
+      <c r="E80" s="277"/>
+      <c r="F80" s="277"/>
       <c r="G80" s="120">
         <f>Cálculos!C119</f>
         <v>4.0740740740740744</v>
@@ -47494,13 +47503,13 @@
       <c r="A81" s="186" t="s">
         <v>25</v>
       </c>
-      <c r="B81" s="246" t="s">
+      <c r="B81" s="277" t="s">
         <v>550</v>
       </c>
-      <c r="C81" s="246"/>
-      <c r="D81" s="246"/>
-      <c r="E81" s="246"/>
-      <c r="F81" s="246"/>
+      <c r="C81" s="277"/>
+      <c r="D81" s="277"/>
+      <c r="E81" s="277"/>
+      <c r="F81" s="277"/>
       <c r="G81" s="120">
         <f>Cálculos!C120</f>
         <v>4.2142857142857144</v>
@@ -47527,13 +47536,13 @@
       <c r="A82" s="186" t="s">
         <v>26</v>
       </c>
-      <c r="B82" s="246" t="s">
+      <c r="B82" s="277" t="s">
         <v>325</v>
       </c>
-      <c r="C82" s="246"/>
-      <c r="D82" s="246"/>
-      <c r="E82" s="246"/>
-      <c r="F82" s="246"/>
+      <c r="C82" s="277"/>
+      <c r="D82" s="277"/>
+      <c r="E82" s="277"/>
+      <c r="F82" s="277"/>
       <c r="G82" s="120">
         <f>Cálculos!C121</f>
         <v>3.9629629629629628</v>
@@ -47560,13 +47569,13 @@
       <c r="A83" s="186" t="s">
         <v>27</v>
       </c>
-      <c r="B83" s="246" t="s">
+      <c r="B83" s="277" t="s">
         <v>326</v>
       </c>
-      <c r="C83" s="246"/>
-      <c r="D83" s="246"/>
-      <c r="E83" s="246"/>
-      <c r="F83" s="246"/>
+      <c r="C83" s="277"/>
+      <c r="D83" s="277"/>
+      <c r="E83" s="277"/>
+      <c r="F83" s="277"/>
       <c r="G83" s="120">
         <f>Cálculos!C122</f>
         <v>4.3703703703703702</v>
@@ -47593,13 +47602,13 @@
       <c r="A84" s="186" t="s">
         <v>28</v>
       </c>
-      <c r="B84" s="246" t="s">
+      <c r="B84" s="277" t="s">
         <v>551</v>
       </c>
-      <c r="C84" s="246"/>
-      <c r="D84" s="246"/>
-      <c r="E84" s="246"/>
-      <c r="F84" s="246"/>
+      <c r="C84" s="277"/>
+      <c r="D84" s="277"/>
+      <c r="E84" s="277"/>
+      <c r="F84" s="277"/>
       <c r="G84" s="120">
         <f>Cálculos!C123</f>
         <v>3.75</v>
@@ -47626,13 +47635,13 @@
       <c r="A85" s="186" t="s">
         <v>29</v>
       </c>
-      <c r="B85" s="246" t="s">
+      <c r="B85" s="277" t="s">
         <v>327</v>
       </c>
-      <c r="C85" s="246"/>
-      <c r="D85" s="246"/>
-      <c r="E85" s="246"/>
-      <c r="F85" s="246"/>
+      <c r="C85" s="277"/>
+      <c r="D85" s="277"/>
+      <c r="E85" s="277"/>
+      <c r="F85" s="277"/>
       <c r="G85" s="120">
         <f>Cálculos!C124</f>
         <v>4.1428571428571432</v>
@@ -47659,13 +47668,13 @@
       <c r="A86" s="186" t="s">
         <v>30</v>
       </c>
-      <c r="B86" s="246" t="s">
+      <c r="B86" s="277" t="s">
         <v>328</v>
       </c>
-      <c r="C86" s="246"/>
-      <c r="D86" s="246"/>
-      <c r="E86" s="246"/>
-      <c r="F86" s="246"/>
+      <c r="C86" s="277"/>
+      <c r="D86" s="277"/>
+      <c r="E86" s="277"/>
+      <c r="F86" s="277"/>
       <c r="G86" s="120">
         <f>Cálculos!C125</f>
         <v>4.0714285714285712</v>
@@ -47692,13 +47701,13 @@
       <c r="A87" s="186" t="s">
         <v>31</v>
       </c>
-      <c r="B87" s="246" t="s">
+      <c r="B87" s="277" t="s">
         <v>329</v>
       </c>
-      <c r="C87" s="246"/>
-      <c r="D87" s="246"/>
-      <c r="E87" s="246"/>
-      <c r="F87" s="246"/>
+      <c r="C87" s="277"/>
+      <c r="D87" s="277"/>
+      <c r="E87" s="277"/>
+      <c r="F87" s="277"/>
       <c r="G87" s="120">
         <f>Cálculos!C126</f>
         <v>3.7037037037037037</v>
@@ -47725,13 +47734,13 @@
       <c r="A88" s="186" t="s">
         <v>32</v>
       </c>
-      <c r="B88" s="246" t="s">
+      <c r="B88" s="277" t="s">
         <v>330</v>
       </c>
-      <c r="C88" s="246"/>
-      <c r="D88" s="246"/>
-      <c r="E88" s="246"/>
-      <c r="F88" s="246"/>
+      <c r="C88" s="277"/>
+      <c r="D88" s="277"/>
+      <c r="E88" s="277"/>
+      <c r="F88" s="277"/>
       <c r="G88" s="120">
         <f>Cálculos!C127</f>
         <v>4.2857142857142856</v>
@@ -47758,13 +47767,13 @@
       <c r="A89" s="186" t="s">
         <v>33</v>
       </c>
-      <c r="B89" s="246" t="s">
+      <c r="B89" s="277" t="s">
         <v>331</v>
       </c>
-      <c r="C89" s="246"/>
-      <c r="D89" s="246"/>
-      <c r="E89" s="246"/>
-      <c r="F89" s="246"/>
+      <c r="C89" s="277"/>
+      <c r="D89" s="277"/>
+      <c r="E89" s="277"/>
+      <c r="F89" s="277"/>
       <c r="G89" s="120">
         <f>Cálculos!C128</f>
         <v>4.333333333333333</v>
@@ -47791,13 +47800,13 @@
       <c r="A90" s="186" t="s">
         <v>34</v>
       </c>
-      <c r="B90" s="246" t="s">
+      <c r="B90" s="277" t="s">
         <v>332</v>
       </c>
-      <c r="C90" s="246"/>
-      <c r="D90" s="246"/>
-      <c r="E90" s="246"/>
-      <c r="F90" s="246"/>
+      <c r="C90" s="277"/>
+      <c r="D90" s="277"/>
+      <c r="E90" s="277"/>
+      <c r="F90" s="277"/>
       <c r="G90" s="120">
         <f>Cálculos!C129</f>
         <v>3.4642857142857144</v>
@@ -47824,13 +47833,13 @@
       <c r="A91" s="186" t="s">
         <v>35</v>
       </c>
-      <c r="B91" s="246" t="s">
+      <c r="B91" s="277" t="s">
         <v>333</v>
       </c>
-      <c r="C91" s="246"/>
-      <c r="D91" s="246"/>
-      <c r="E91" s="246"/>
-      <c r="F91" s="246"/>
+      <c r="C91" s="277"/>
+      <c r="D91" s="277"/>
+      <c r="E91" s="277"/>
+      <c r="F91" s="277"/>
       <c r="G91" s="120">
         <f>Cálculos!C130</f>
         <v>3.6428571428571428</v>
@@ -47857,13 +47866,13 @@
       <c r="A92" s="186" t="s">
         <v>36</v>
       </c>
-      <c r="B92" s="246" t="s">
+      <c r="B92" s="277" t="s">
         <v>334</v>
       </c>
-      <c r="C92" s="246"/>
-      <c r="D92" s="246"/>
-      <c r="E92" s="246"/>
-      <c r="F92" s="246"/>
+      <c r="C92" s="277"/>
+      <c r="D92" s="277"/>
+      <c r="E92" s="277"/>
+      <c r="F92" s="277"/>
       <c r="G92" s="120">
         <f>Cálculos!C131</f>
         <v>3.8928571428571428</v>
@@ -47890,18 +47899,18 @@
       <c r="A93" s="186" t="s">
         <v>37</v>
       </c>
-      <c r="B93" s="285" t="s">
+      <c r="B93" s="278" t="s">
         <v>552</v>
       </c>
-      <c r="C93" s="286"/>
-      <c r="D93" s="286"/>
-      <c r="E93" s="286"/>
-      <c r="F93" s="286"/>
-      <c r="G93" s="286" t="str">
+      <c r="C93" s="279"/>
+      <c r="D93" s="279"/>
+      <c r="E93" s="279"/>
+      <c r="F93" s="279"/>
+      <c r="G93" s="279" t="str">
         <f>Cálculos!C132</f>
         <v>N/A</v>
       </c>
-      <c r="H93" s="287" t="str">
+      <c r="H93" s="280" t="str">
         <f>Cálculos!D132</f>
         <v>N/A</v>
       </c>
@@ -47920,17 +47929,17 @@
       <c r="U93" s="95"/>
     </row>
     <row r="94" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="282" t="str">
+      <c r="A94" s="281" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D25:CY25)</f>
         <v>Creo que la duración es la óptima   //   Cuando se realizó la segunda vez con más tiempo para las preguntas, se puso realizar mejor los kahoot   //   Creo que el tiempo se adapta bien</v>
       </c>
-      <c r="B94" s="283"/>
-      <c r="C94" s="283"/>
-      <c r="D94" s="283"/>
-      <c r="E94" s="283"/>
-      <c r="F94" s="283"/>
-      <c r="G94" s="283"/>
-      <c r="H94" s="284"/>
+      <c r="B94" s="282"/>
+      <c r="C94" s="282"/>
+      <c r="D94" s="282"/>
+      <c r="E94" s="282"/>
+      <c r="F94" s="282"/>
+      <c r="G94" s="282"/>
+      <c r="H94" s="283"/>
       <c r="I94" s="95"/>
       <c r="J94" s="95"/>
       <c r="K94" s="95"/>
@@ -47949,13 +47958,13 @@
       <c r="A95" s="186" t="s">
         <v>38</v>
       </c>
-      <c r="B95" s="246" t="s">
+      <c r="B95" s="277" t="s">
         <v>335</v>
       </c>
-      <c r="C95" s="246"/>
-      <c r="D95" s="246"/>
-      <c r="E95" s="246"/>
-      <c r="F95" s="246"/>
+      <c r="C95" s="277"/>
+      <c r="D95" s="277"/>
+      <c r="E95" s="277"/>
+      <c r="F95" s="277"/>
       <c r="G95" s="120">
         <f>Cálculos!C133</f>
         <v>4.1071428571428568</v>
@@ -47982,13 +47991,13 @@
       <c r="A96" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="B96" s="246" t="s">
+      <c r="B96" s="277" t="s">
         <v>336</v>
       </c>
-      <c r="C96" s="246"/>
-      <c r="D96" s="246"/>
-      <c r="E96" s="246"/>
-      <c r="F96" s="246"/>
+      <c r="C96" s="277"/>
+      <c r="D96" s="277"/>
+      <c r="E96" s="277"/>
+      <c r="F96" s="277"/>
       <c r="G96" s="120">
         <f>Cálculos!C134</f>
         <v>3.8214285714285716</v>
@@ -48015,13 +48024,13 @@
       <c r="A97" s="186" t="s">
         <v>40</v>
       </c>
-      <c r="B97" s="246" t="s">
+      <c r="B97" s="277" t="s">
         <v>337</v>
       </c>
-      <c r="C97" s="246"/>
-      <c r="D97" s="246"/>
-      <c r="E97" s="246"/>
-      <c r="F97" s="246"/>
+      <c r="C97" s="277"/>
+      <c r="D97" s="277"/>
+      <c r="E97" s="277"/>
+      <c r="F97" s="277"/>
       <c r="G97" s="120">
         <f>Cálculos!C135</f>
         <v>4.3214285714285712</v>
@@ -48048,13 +48057,13 @@
       <c r="A98" s="186" t="s">
         <v>41</v>
       </c>
-      <c r="B98" s="246" t="s">
+      <c r="B98" s="277" t="s">
         <v>338</v>
       </c>
-      <c r="C98" s="246"/>
-      <c r="D98" s="246"/>
-      <c r="E98" s="246"/>
-      <c r="F98" s="246"/>
+      <c r="C98" s="277"/>
+      <c r="D98" s="277"/>
+      <c r="E98" s="277"/>
+      <c r="F98" s="277"/>
       <c r="G98" s="120">
         <f>Cálculos!C136</f>
         <v>3.9285714285714284</v>
@@ -48081,13 +48090,13 @@
       <c r="A99" s="186" t="s">
         <v>42</v>
       </c>
-      <c r="B99" s="246" t="s">
+      <c r="B99" s="277" t="s">
         <v>339</v>
       </c>
-      <c r="C99" s="246"/>
-      <c r="D99" s="246"/>
-      <c r="E99" s="246"/>
-      <c r="F99" s="246"/>
+      <c r="C99" s="277"/>
+      <c r="D99" s="277"/>
+      <c r="E99" s="277"/>
+      <c r="F99" s="277"/>
       <c r="G99" s="120">
         <f>Cálculos!C137</f>
         <v>4.0714285714285712</v>
@@ -48114,13 +48123,13 @@
       <c r="A100" s="186" t="s">
         <v>43</v>
       </c>
-      <c r="B100" s="246" t="s">
+      <c r="B100" s="277" t="s">
         <v>340</v>
       </c>
-      <c r="C100" s="246"/>
-      <c r="D100" s="246"/>
-      <c r="E100" s="246"/>
-      <c r="F100" s="246"/>
+      <c r="C100" s="277"/>
+      <c r="D100" s="277"/>
+      <c r="E100" s="277"/>
+      <c r="F100" s="277"/>
       <c r="G100" s="120">
         <f>Cálculos!C138</f>
         <v>4.1071428571428568</v>
@@ -48147,13 +48156,13 @@
       <c r="A101" s="186" t="s">
         <v>44</v>
       </c>
-      <c r="B101" s="246" t="s">
+      <c r="B101" s="277" t="s">
         <v>341</v>
       </c>
-      <c r="C101" s="246"/>
-      <c r="D101" s="246"/>
-      <c r="E101" s="246"/>
-      <c r="F101" s="246"/>
+      <c r="C101" s="277"/>
+      <c r="D101" s="277"/>
+      <c r="E101" s="277"/>
+      <c r="F101" s="277"/>
       <c r="G101" s="120">
         <f>Cálculos!C139</f>
         <v>4.0714285714285712</v>
@@ -48180,13 +48189,13 @@
       <c r="A102" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="B102" s="246" t="s">
+      <c r="B102" s="277" t="s">
         <v>342</v>
       </c>
-      <c r="C102" s="246"/>
-      <c r="D102" s="246"/>
-      <c r="E102" s="246"/>
-      <c r="F102" s="246"/>
+      <c r="C102" s="277"/>
+      <c r="D102" s="277"/>
+      <c r="E102" s="277"/>
+      <c r="F102" s="277"/>
       <c r="G102" s="120">
         <f>Cálculos!C140</f>
         <v>4</v>
@@ -48213,13 +48222,13 @@
       <c r="A103" s="186" t="s">
         <v>46</v>
       </c>
-      <c r="B103" s="246" t="s">
+      <c r="B103" s="277" t="s">
         <v>343</v>
       </c>
-      <c r="C103" s="246"/>
-      <c r="D103" s="246"/>
-      <c r="E103" s="246"/>
-      <c r="F103" s="246"/>
+      <c r="C103" s="277"/>
+      <c r="D103" s="277"/>
+      <c r="E103" s="277"/>
+      <c r="F103" s="277"/>
       <c r="G103" s="120">
         <f>Cálculos!C141</f>
         <v>3.6428571428571428</v>
@@ -48246,13 +48255,13 @@
       <c r="A104" s="186" t="s">
         <v>367</v>
       </c>
-      <c r="B104" s="246" t="s">
+      <c r="B104" s="277" t="s">
         <v>344</v>
       </c>
-      <c r="C104" s="246"/>
-      <c r="D104" s="246"/>
-      <c r="E104" s="246"/>
-      <c r="F104" s="246"/>
+      <c r="C104" s="277"/>
+      <c r="D104" s="277"/>
+      <c r="E104" s="277"/>
+      <c r="F104" s="277"/>
       <c r="G104" s="120">
         <f>Cálculos!C142</f>
         <v>2.9285714285714284</v>
@@ -48279,13 +48288,13 @@
       <c r="A105" s="186" t="s">
         <v>387</v>
       </c>
-      <c r="B105" s="246" t="s">
+      <c r="B105" s="277" t="s">
         <v>345</v>
       </c>
-      <c r="C105" s="246"/>
-      <c r="D105" s="246"/>
-      <c r="E105" s="246"/>
-      <c r="F105" s="246"/>
+      <c r="C105" s="277"/>
+      <c r="D105" s="277"/>
+      <c r="E105" s="277"/>
+      <c r="F105" s="277"/>
       <c r="G105" s="120">
         <f>Cálculos!C143</f>
         <v>3.3214285714285716</v>
@@ -48312,13 +48321,13 @@
       <c r="A106" s="186" t="s">
         <v>388</v>
       </c>
-      <c r="B106" s="246" t="s">
+      <c r="B106" s="277" t="s">
         <v>346</v>
       </c>
-      <c r="C106" s="246"/>
-      <c r="D106" s="246"/>
-      <c r="E106" s="246"/>
-      <c r="F106" s="246"/>
+      <c r="C106" s="277"/>
+      <c r="D106" s="277"/>
+      <c r="E106" s="277"/>
+      <c r="F106" s="277"/>
       <c r="G106" s="120">
         <f>Cálculos!C144</f>
         <v>4.1851851851851851</v>
@@ -48345,13 +48354,13 @@
       <c r="A107" s="186" t="s">
         <v>500</v>
       </c>
-      <c r="B107" s="246" t="s">
+      <c r="B107" s="277" t="s">
         <v>347</v>
       </c>
-      <c r="C107" s="246"/>
-      <c r="D107" s="246"/>
-      <c r="E107" s="246"/>
-      <c r="F107" s="246"/>
+      <c r="C107" s="277"/>
+      <c r="D107" s="277"/>
+      <c r="E107" s="277"/>
+      <c r="F107" s="277"/>
       <c r="G107" s="120">
         <f>Cálculos!C145</f>
         <v>4.1428571428571432</v>
@@ -48378,13 +48387,13 @@
       <c r="A108" s="186" t="s">
         <v>501</v>
       </c>
-      <c r="B108" s="246" t="s">
+      <c r="B108" s="277" t="s">
         <v>348</v>
       </c>
-      <c r="C108" s="246"/>
-      <c r="D108" s="246"/>
-      <c r="E108" s="246"/>
-      <c r="F108" s="246"/>
+      <c r="C108" s="277"/>
+      <c r="D108" s="277"/>
+      <c r="E108" s="277"/>
+      <c r="F108" s="277"/>
       <c r="G108" s="120">
         <f>Cálculos!C146</f>
         <v>3.4642857142857144</v>
@@ -48411,13 +48420,13 @@
       <c r="A109" s="186" t="s">
         <v>502</v>
       </c>
-      <c r="B109" s="246" t="s">
+      <c r="B109" s="277" t="s">
         <v>494</v>
       </c>
-      <c r="C109" s="246"/>
-      <c r="D109" s="246"/>
-      <c r="E109" s="246"/>
-      <c r="F109" s="246"/>
+      <c r="C109" s="277"/>
+      <c r="D109" s="277"/>
+      <c r="E109" s="277"/>
+      <c r="F109" s="277"/>
       <c r="G109" s="120">
         <f>Cálculos!C147</f>
         <v>3.8928571428571428</v>
@@ -48444,18 +48453,18 @@
       <c r="A110" s="186" t="s">
         <v>503</v>
       </c>
-      <c r="B110" s="285" t="s">
+      <c r="B110" s="278" t="s">
         <v>553</v>
       </c>
-      <c r="C110" s="286"/>
-      <c r="D110" s="286"/>
-      <c r="E110" s="286"/>
-      <c r="F110" s="286"/>
-      <c r="G110" s="286" t="str">
+      <c r="C110" s="279"/>
+      <c r="D110" s="279"/>
+      <c r="E110" s="279"/>
+      <c r="F110" s="279"/>
+      <c r="G110" s="279" t="str">
         <f>Cálculos!C148</f>
         <v>N/A</v>
       </c>
-      <c r="H110" s="287" t="str">
+      <c r="H110" s="280" t="str">
         <f>Cálculos!D148</f>
         <v>N/A</v>
       </c>
@@ -48474,17 +48483,17 @@
       <c r="U110" s="95"/>
     </row>
     <row r="111" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="282" t="str">
+      <c r="A111" s="281" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D41:CY41)</f>
         <v>Yo las haría más separadas   //   Yo creo que después de las prácticas al igual que se hacen preguntas de exámenes al final de la práctica, se puede hacer un kahoot.   //   Haría una sesión después de cada clase para ver si los conceptos explicados se han entendido y sería muy útil para el profesor ver el nivel que posee la clase sobre la materia</v>
       </c>
-      <c r="B111" s="283"/>
-      <c r="C111" s="283"/>
-      <c r="D111" s="283"/>
-      <c r="E111" s="283"/>
-      <c r="F111" s="283"/>
-      <c r="G111" s="283"/>
-      <c r="H111" s="284"/>
+      <c r="B111" s="282"/>
+      <c r="C111" s="282"/>
+      <c r="D111" s="282"/>
+      <c r="E111" s="282"/>
+      <c r="F111" s="282"/>
+      <c r="G111" s="282"/>
+      <c r="H111" s="283"/>
       <c r="I111" s="95"/>
       <c r="J111" s="95"/>
       <c r="K111" s="95"/>
@@ -48503,13 +48512,13 @@
       <c r="A112" s="186" t="s">
         <v>504</v>
       </c>
-      <c r="B112" s="246" t="s">
+      <c r="B112" s="277" t="s">
         <v>495</v>
       </c>
-      <c r="C112" s="246"/>
-      <c r="D112" s="246"/>
-      <c r="E112" s="246"/>
-      <c r="F112" s="246"/>
+      <c r="C112" s="277"/>
+      <c r="D112" s="277"/>
+      <c r="E112" s="277"/>
+      <c r="F112" s="277"/>
       <c r="G112" s="120">
         <f>Cálculos!C149</f>
         <v>3.7857142857142856</v>
@@ -48536,18 +48545,18 @@
       <c r="A113" s="186" t="s">
         <v>505</v>
       </c>
-      <c r="B113" s="285" t="s">
+      <c r="B113" s="278" t="s">
         <v>554</v>
       </c>
-      <c r="C113" s="286"/>
-      <c r="D113" s="286"/>
-      <c r="E113" s="286"/>
-      <c r="F113" s="286"/>
-      <c r="G113" s="286" t="str">
+      <c r="C113" s="279"/>
+      <c r="D113" s="279"/>
+      <c r="E113" s="279"/>
+      <c r="F113" s="279"/>
+      <c r="G113" s="279" t="str">
         <f>Cálculos!C150</f>
         <v>N/A</v>
       </c>
-      <c r="H113" s="287" t="str">
+      <c r="H113" s="280" t="str">
         <f>Cálculos!D150</f>
         <v>N/A</v>
       </c>
@@ -48566,17 +48575,17 @@
       <c r="U113" s="95"/>
     </row>
     <row r="114" spans="1:21" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="282" t="str">
+      <c r="A114" s="281" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D43:CY43)</f>
         <v>Yo creo que grupos de 2 es lo correcto</v>
       </c>
-      <c r="B114" s="283"/>
-      <c r="C114" s="283"/>
-      <c r="D114" s="283"/>
-      <c r="E114" s="283"/>
-      <c r="F114" s="283"/>
-      <c r="G114" s="283"/>
-      <c r="H114" s="284"/>
+      <c r="B114" s="282"/>
+      <c r="C114" s="282"/>
+      <c r="D114" s="282"/>
+      <c r="E114" s="282"/>
+      <c r="F114" s="282"/>
+      <c r="G114" s="282"/>
+      <c r="H114" s="283"/>
       <c r="I114" s="95"/>
       <c r="J114" s="95"/>
       <c r="K114" s="95"/>
@@ -48595,13 +48604,13 @@
       <c r="A115" s="186" t="s">
         <v>506</v>
       </c>
-      <c r="B115" s="246" t="s">
+      <c r="B115" s="277" t="s">
         <v>496</v>
       </c>
-      <c r="C115" s="246"/>
-      <c r="D115" s="246"/>
-      <c r="E115" s="246"/>
-      <c r="F115" s="246"/>
+      <c r="C115" s="277"/>
+      <c r="D115" s="277"/>
+      <c r="E115" s="277"/>
+      <c r="F115" s="277"/>
       <c r="G115" s="120">
         <f>Cálculos!C151</f>
         <v>4.2857142857142856</v>
@@ -48628,13 +48637,13 @@
       <c r="A116" s="186" t="s">
         <v>555</v>
       </c>
-      <c r="B116" s="246" t="s">
+      <c r="B116" s="277" t="s">
         <v>497</v>
       </c>
-      <c r="C116" s="246"/>
-      <c r="D116" s="246"/>
-      <c r="E116" s="246"/>
-      <c r="F116" s="246"/>
+      <c r="C116" s="277"/>
+      <c r="D116" s="277"/>
+      <c r="E116" s="277"/>
+      <c r="F116" s="277"/>
       <c r="G116" s="120">
         <f>Cálculos!C152</f>
         <v>8.1538461538461533</v>
@@ -48661,18 +48670,18 @@
       <c r="A117" s="186" t="s">
         <v>556</v>
       </c>
-      <c r="B117" s="285" t="s">
+      <c r="B117" s="278" t="s">
         <v>498</v>
       </c>
-      <c r="C117" s="286"/>
-      <c r="D117" s="286"/>
-      <c r="E117" s="286"/>
-      <c r="F117" s="286"/>
-      <c r="G117" s="286" t="str">
+      <c r="C117" s="279"/>
+      <c r="D117" s="279"/>
+      <c r="E117" s="279"/>
+      <c r="F117" s="279"/>
+      <c r="G117" s="279" t="str">
         <f>Cálculos!C153</f>
         <v>N/A</v>
       </c>
-      <c r="H117" s="287" t="str">
+      <c r="H117" s="280" t="str">
         <f>Cálculos!D153</f>
         <v>N/A</v>
       </c>
@@ -48691,17 +48700,17 @@
       <c r="U117" s="95"/>
     </row>
     <row r="118" spans="1:21" ht="298.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="282" t="str">
+      <c r="A118" s="281" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D46:CY46)</f>
         <v xml:space="preserve">Ayuda a ver qué cosas has entendido mejor y cuales peor, para saber cuáles tienes que estudiar más    //   .   //   Buena experiencia    //   Muy buena manera de motivar el estudio y la atención en clase   //   Bastante divertido   //   Me ha motivado a antender mejor en clase para asimilar los conceptos.   //   Motiva mas pensar para responder las preguntas en este tipo de juegos que en un cuestionario sin mas con una nota   //   La herramienta utilizada es la adecuada, pero el contenido me pareció un poco más complejo que lo que se enseñaba en la práctica.   //   Satisfactorio   //   Útil pero mal enfocada.   //   Una experiencia muy buena para aprender, motivando competitivamente a todos a hacerlo lo mejor posible    //   Una experiencia muy buena para aprender, motivando competitivamente a todos a hacerlo lo mejor posible    //   Muy entretenida y util para el aprendizaje   //   Me ha parecido una forma divertida de poner a prueba mis conocimientos y me ha levantado entusiasmo por formarme más en la asignatura de cara a ganar las mini competiciones.   //   Me ha parecido una buena experiencia para practicar sobre los conocimientos vistos en la asignatura   //   Ha sido gratificante porque te ayuda a valorar tu entendimiento de la práctica y los conocimientos adquiridos   //   Considero que es una buena herramienta y que puede ser muy útil para la docencia. Sin embargo, debido a la disposición de los asientos en la clase, resulta muy difícil, bajo mi punto de vista, mantener la atención en ella. Además, tanto las preguntas como las respuestas posibles mostradas por pantalla eran difíciles de visualizar y entender, consumiendo mucho tiempo para buscar la solución correcta.    //   Muy dinámica para aplicar lo explicado   //   Me parece que es biena experiencia pero se debe enfocar de otro modo   //   Creo que la experiencia es positiva, pero las preguntas eran bastante complicadas    //   Muy buena y divertida   //   Me parece una herramienta cómoda y útil para aprender de forma complementaria    //   Me ha parecido bastante entretenida. Es una buena forma de comprobar cómo vas en esa asignatura, si necesitas estudiar más...    //   divertido   //   Me parece una actividad entretenida, que complementa la práctica. Es bueno que se añadan cosas como estas a nuestra educación, saliendose un poco del sistema tradicional de aprendizaje   //   Está bien para enfrentar a lo aprendido en la práctica   //   .   //   Ha sido una buena experiencia </v>
       </c>
-      <c r="B118" s="283"/>
-      <c r="C118" s="283"/>
-      <c r="D118" s="283"/>
-      <c r="E118" s="283"/>
-      <c r="F118" s="283"/>
-      <c r="G118" s="283"/>
-      <c r="H118" s="284"/>
+      <c r="B118" s="282"/>
+      <c r="C118" s="282"/>
+      <c r="D118" s="282"/>
+      <c r="E118" s="282"/>
+      <c r="F118" s="282"/>
+      <c r="G118" s="282"/>
+      <c r="H118" s="283"/>
       <c r="I118" s="95"/>
       <c r="J118" s="95"/>
       <c r="K118" s="95"/>
@@ -48720,18 +48729,18 @@
       <c r="A119" s="186" t="s">
         <v>512</v>
       </c>
-      <c r="B119" s="285" t="s">
+      <c r="B119" s="278" t="s">
         <v>499</v>
       </c>
-      <c r="C119" s="286"/>
-      <c r="D119" s="286"/>
-      <c r="E119" s="286"/>
-      <c r="F119" s="286"/>
-      <c r="G119" s="286" t="str">
+      <c r="C119" s="279"/>
+      <c r="D119" s="279"/>
+      <c r="E119" s="279"/>
+      <c r="F119" s="279"/>
+      <c r="G119" s="279" t="str">
         <f>Cálculos!C154</f>
         <v>N/A</v>
       </c>
-      <c r="H119" s="287" t="str">
+      <c r="H119" s="280" t="str">
         <f>Cálculos!D154</f>
         <v>N/A</v>
       </c>
@@ -48750,17 +48759,17 @@
       <c r="U119" s="95"/>
     </row>
     <row r="120" spans="1:21" ht="329.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="282" t="str">
+      <c r="A120" s="281" t="str">
         <f>_xlfn.TEXTJOIN("   //   ",TRUE,'Resultados Encuestas'!D47:CY47)</f>
         <v>Posibilidad de no responder o si respondes mal que reste, para evitar aciertos por suerte   //   .   //   Una breve explicación    //   Incluir alguna pregunta de otros contenidos anteriores para fomentar el estudio al día    //   Nada   //   No tengo indicaciones al respecto   //   Haría uno en cada tema   //   Respuestas más distintas entre ellas y no tan específicas.   //   Aumentar la visibilidad de las preguntas ya que a veces se hacía molesto seguirlas   //   Breve explicación de la resolución o respuesta correcta.   //   Me gustó todo. No mejoraría nada   //   Me gustó todo. No mejoraría nada   //   Exposición de las preguntas   //   Lo mismo, algo que mejoraría sería la interfaz. Hacerla un poquito más compleja.   //   El tipo / formato de las preguntas, incluyendo algunas de verdadero y falso   //   Las letras de las preguntas largas se ven chicas y cuesta verlas.   //   Intentar mejorar la interfaz, mostrando las preguntas de forma clara y con el tamaño adecuado y colocando cada posible respuesta con su respectivo color, tal y como se visualiza en el dispositivo móvil.    //   Lo único que mejoraría, es una explicación de las cuestiones que no acierto o que he acertado pero no he estado seguro. Me gustaría o una explicación breve del profesor para afianzar conceptos.   //   El tiempo de explicación disponible de los conceptos de la asignatura es muy corto a mi parecer, ya que cuesta asimilar tantas cosas en una explicación, por lo que el nivel de dificultad del kahoot me parece difícil, sin embargo es una buena manera de aprendizaje.   //   Creo que varias preguntas no se adecuan a la experiencia, por ejemplo las de los grupos puesto que la actividad la he os realizado en solitario, y la de la experiencia con la plataforma porque era un kahoot (no es novedoso ni tiene complicaciones en su uso ya que está muy extendido)   //   La dificultad de las preguntas.   //   Más tiempo de respuesta   //   Lo que mejoraría sería hacerlo con mayor frecuencia y como punto fuerte diría que es una forma amena de aprender y ponerte a prueba sin necesidad de exámenes    //   nada   //   Son muchos los conocimientos adquiridos durante la práctica, y a lo mejor no da tiempo a procesarlo todo antes del kahoot. También daría un poco más de tiempo y lo haría en parejas, para discutir el resultado y comparar cada versión. Por lo demás me parece una experiencia enriquecedora, que te hace pensar sobre los conocimientos obtenidos, no solo escucharlos.   //   .   //   Apoyo lo de meter herramientas asó en las clases, para afianzar de una forma un poco más divertida los conocimientos impartidos, pero lo meter dentro del horario de clase. Estas semanas que hemos probado a hacerlo, hemos tenido que salir unos 15 minutos tarde de la hora normal de salida. Lo suyo sería adaptar la duración de todo lo anterior, para que dé tiempo a hacer lo del juego. Por lo demás, genial.   //   Mejoraría no hacer los kahoots tan tarde</v>
       </c>
-      <c r="B120" s="283"/>
-      <c r="C120" s="283"/>
-      <c r="D120" s="283"/>
-      <c r="E120" s="283"/>
-      <c r="F120" s="283"/>
-      <c r="G120" s="283"/>
-      <c r="H120" s="284"/>
+      <c r="B120" s="282"/>
+      <c r="C120" s="282"/>
+      <c r="D120" s="282"/>
+      <c r="E120" s="282"/>
+      <c r="F120" s="282"/>
+      <c r="G120" s="282"/>
+      <c r="H120" s="283"/>
       <c r="I120" s="95"/>
       <c r="J120" s="95"/>
       <c r="K120" s="95"/>
@@ -49297,15 +49306,15 @@
       <c r="A144" s="124" t="s">
         <v>350</v>
       </c>
-      <c r="B144" s="237" t="s">
+      <c r="B144" s="284" t="s">
         <v>122</v>
       </c>
-      <c r="C144" s="237"/>
-      <c r="D144" s="237"/>
-      <c r="E144" s="237"/>
-      <c r="F144" s="237"/>
-      <c r="G144" s="237"/>
-      <c r="H144" s="237"/>
+      <c r="C144" s="284"/>
+      <c r="D144" s="284"/>
+      <c r="E144" s="284"/>
+      <c r="F144" s="284"/>
+      <c r="G144" s="284"/>
+      <c r="H144" s="284"/>
       <c r="I144" s="95"/>
       <c r="J144" s="95"/>
       <c r="K144" s="95"/>
@@ -49321,16 +49330,16 @@
       <c r="U144" s="95"/>
     </row>
     <row r="145" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="237" t="e">
+      <c r="B145" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C145" s="237"/>
-      <c r="D145" s="237"/>
-      <c r="E145" s="237"/>
-      <c r="F145" s="237"/>
-      <c r="G145" s="237"/>
-      <c r="H145" s="237"/>
+      <c r="C145" s="284"/>
+      <c r="D145" s="284"/>
+      <c r="E145" s="284"/>
+      <c r="F145" s="284"/>
+      <c r="G145" s="284"/>
+      <c r="H145" s="284"/>
       <c r="I145" s="95"/>
       <c r="J145" s="95"/>
       <c r="K145" s="95"/>
@@ -49349,16 +49358,16 @@
       <c r="A146" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B146" s="237" t="e">
+      <c r="B146" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C146" s="237"/>
-      <c r="D146" s="237"/>
-      <c r="E146" s="237"/>
-      <c r="F146" s="237"/>
-      <c r="G146" s="237"/>
-      <c r="H146" s="237"/>
+      <c r="C146" s="284"/>
+      <c r="D146" s="284"/>
+      <c r="E146" s="284"/>
+      <c r="F146" s="284"/>
+      <c r="G146" s="284"/>
+      <c r="H146" s="284"/>
       <c r="I146" s="95"/>
       <c r="J146" s="95"/>
       <c r="K146" s="95"/>
@@ -49378,16 +49387,16 @@
         <f>Cálculos!D159</f>
         <v>7</v>
       </c>
-      <c r="B147" s="237" t="e">
+      <c r="B147" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C147" s="237"/>
-      <c r="D147" s="237"/>
-      <c r="E147" s="237"/>
-      <c r="F147" s="237"/>
-      <c r="G147" s="237"/>
-      <c r="H147" s="237"/>
+      <c r="C147" s="284"/>
+      <c r="D147" s="284"/>
+      <c r="E147" s="284"/>
+      <c r="F147" s="284"/>
+      <c r="G147" s="284"/>
+      <c r="H147" s="284"/>
       <c r="I147" s="95"/>
       <c r="J147" s="95"/>
       <c r="K147" s="95"/>
@@ -49404,16 +49413,16 @@
     </row>
     <row r="148" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="127"/>
-      <c r="B148" s="237" t="e">
+      <c r="B148" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C148" s="237"/>
-      <c r="D148" s="237"/>
-      <c r="E148" s="237"/>
-      <c r="F148" s="237"/>
-      <c r="G148" s="237"/>
-      <c r="H148" s="237"/>
+      <c r="C148" s="284"/>
+      <c r="D148" s="284"/>
+      <c r="E148" s="284"/>
+      <c r="F148" s="284"/>
+      <c r="G148" s="284"/>
+      <c r="H148" s="284"/>
       <c r="I148" s="95"/>
       <c r="J148" s="95"/>
       <c r="K148" s="95"/>
@@ -49430,16 +49439,16 @@
     </row>
     <row r="149" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="126"/>
-      <c r="B149" s="238" t="e">
+      <c r="B149" s="285" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C149" s="238"/>
-      <c r="D149" s="238"/>
-      <c r="E149" s="238"/>
-      <c r="F149" s="238"/>
-      <c r="G149" s="238"/>
-      <c r="H149" s="238"/>
+      <c r="C149" s="285"/>
+      <c r="D149" s="285"/>
+      <c r="E149" s="285"/>
+      <c r="F149" s="285"/>
+      <c r="G149" s="285"/>
+      <c r="H149" s="285"/>
       <c r="I149" s="95"/>
       <c r="J149" s="95"/>
       <c r="K149" s="95"/>
@@ -49458,15 +49467,15 @@
       <c r="A150" s="127" t="s">
         <v>351</v>
       </c>
-      <c r="B150" s="281" t="s">
+      <c r="B150" s="287" t="s">
         <v>123</v>
       </c>
-      <c r="C150" s="281"/>
-      <c r="D150" s="281"/>
-      <c r="E150" s="281"/>
-      <c r="F150" s="281"/>
-      <c r="G150" s="281"/>
-      <c r="H150" s="281"/>
+      <c r="C150" s="287"/>
+      <c r="D150" s="287"/>
+      <c r="E150" s="287"/>
+      <c r="F150" s="287"/>
+      <c r="G150" s="287"/>
+      <c r="H150" s="287"/>
       <c r="I150" s="95"/>
       <c r="J150" s="95"/>
       <c r="K150" s="95"/>
@@ -49482,16 +49491,16 @@
       <c r="U150" s="95"/>
     </row>
     <row r="151" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B151" s="237" t="e">
+      <c r="B151" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C151" s="237"/>
-      <c r="D151" s="237"/>
-      <c r="E151" s="237"/>
-      <c r="F151" s="237"/>
-      <c r="G151" s="237"/>
-      <c r="H151" s="237"/>
+      <c r="C151" s="284"/>
+      <c r="D151" s="284"/>
+      <c r="E151" s="284"/>
+      <c r="F151" s="284"/>
+      <c r="G151" s="284"/>
+      <c r="H151" s="284"/>
       <c r="I151" s="95"/>
       <c r="J151" s="95"/>
       <c r="K151" s="95"/>
@@ -49510,16 +49519,16 @@
       <c r="A152" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B152" s="237" t="e">
+      <c r="B152" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C152" s="237"/>
-      <c r="D152" s="237"/>
-      <c r="E152" s="237"/>
-      <c r="F152" s="237"/>
-      <c r="G152" s="237"/>
-      <c r="H152" s="237"/>
+      <c r="C152" s="284"/>
+      <c r="D152" s="284"/>
+      <c r="E152" s="284"/>
+      <c r="F152" s="284"/>
+      <c r="G152" s="284"/>
+      <c r="H152" s="284"/>
       <c r="I152" s="95"/>
       <c r="J152" s="95"/>
       <c r="K152" s="95"/>
@@ -49539,16 +49548,16 @@
         <f>Cálculos!D160</f>
         <v>6</v>
       </c>
-      <c r="B153" s="237" t="e">
+      <c r="B153" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C153" s="237"/>
-      <c r="D153" s="237"/>
-      <c r="E153" s="237"/>
-      <c r="F153" s="237"/>
-      <c r="G153" s="237"/>
-      <c r="H153" s="237"/>
+      <c r="C153" s="284"/>
+      <c r="D153" s="284"/>
+      <c r="E153" s="284"/>
+      <c r="F153" s="284"/>
+      <c r="G153" s="284"/>
+      <c r="H153" s="284"/>
       <c r="I153" s="95"/>
       <c r="J153" s="95"/>
       <c r="K153" s="95"/>
@@ -49565,16 +49574,16 @@
     </row>
     <row r="154" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="127"/>
-      <c r="B154" s="237" t="e">
+      <c r="B154" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C154" s="237"/>
-      <c r="D154" s="237"/>
-      <c r="E154" s="237"/>
-      <c r="F154" s="237"/>
-      <c r="G154" s="237"/>
-      <c r="H154" s="237"/>
+      <c r="C154" s="284"/>
+      <c r="D154" s="284"/>
+      <c r="E154" s="284"/>
+      <c r="F154" s="284"/>
+      <c r="G154" s="284"/>
+      <c r="H154" s="284"/>
       <c r="I154" s="95"/>
       <c r="J154" s="95"/>
       <c r="K154" s="95"/>
@@ -49591,16 +49600,16 @@
     </row>
     <row r="155" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="126"/>
-      <c r="B155" s="238" t="e">
+      <c r="B155" s="285" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C155" s="238"/>
-      <c r="D155" s="238"/>
-      <c r="E155" s="238"/>
-      <c r="F155" s="238"/>
-      <c r="G155" s="238"/>
-      <c r="H155" s="238"/>
+      <c r="C155" s="285"/>
+      <c r="D155" s="285"/>
+      <c r="E155" s="285"/>
+      <c r="F155" s="285"/>
+      <c r="G155" s="285"/>
+      <c r="H155" s="285"/>
       <c r="I155" s="95"/>
       <c r="J155" s="95"/>
       <c r="K155" s="95"/>
@@ -49619,15 +49628,15 @@
       <c r="A156" s="125" t="s">
         <v>352</v>
       </c>
-      <c r="B156" s="281" t="s">
+      <c r="B156" s="287" t="s">
         <v>124</v>
       </c>
-      <c r="C156" s="281"/>
-      <c r="D156" s="281"/>
-      <c r="E156" s="281"/>
-      <c r="F156" s="281"/>
-      <c r="G156" s="281"/>
-      <c r="H156" s="281"/>
+      <c r="C156" s="287"/>
+      <c r="D156" s="287"/>
+      <c r="E156" s="287"/>
+      <c r="F156" s="287"/>
+      <c r="G156" s="287"/>
+      <c r="H156" s="287"/>
       <c r="I156" s="95"/>
       <c r="J156" s="95"/>
       <c r="K156" s="95"/>
@@ -49643,16 +49652,16 @@
       <c r="U156" s="95"/>
     </row>
     <row r="157" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B157" s="237" t="e">
+      <c r="B157" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C157" s="237"/>
-      <c r="D157" s="237"/>
-      <c r="E157" s="237"/>
-      <c r="F157" s="237"/>
-      <c r="G157" s="237"/>
-      <c r="H157" s="237"/>
+      <c r="C157" s="284"/>
+      <c r="D157" s="284"/>
+      <c r="E157" s="284"/>
+      <c r="F157" s="284"/>
+      <c r="G157" s="284"/>
+      <c r="H157" s="284"/>
       <c r="I157" s="95"/>
       <c r="J157" s="95"/>
       <c r="K157" s="95"/>
@@ -49671,16 +49680,16 @@
       <c r="A158" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B158" s="237" t="e">
+      <c r="B158" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C158" s="237"/>
-      <c r="D158" s="237"/>
-      <c r="E158" s="237"/>
-      <c r="F158" s="237"/>
-      <c r="G158" s="237"/>
-      <c r="H158" s="237"/>
+      <c r="C158" s="284"/>
+      <c r="D158" s="284"/>
+      <c r="E158" s="284"/>
+      <c r="F158" s="284"/>
+      <c r="G158" s="284"/>
+      <c r="H158" s="284"/>
       <c r="I158" s="95"/>
       <c r="J158" s="95"/>
       <c r="K158" s="95"/>
@@ -49700,16 +49709,16 @@
         <f>Cálculos!D161</f>
         <v>7</v>
       </c>
-      <c r="B159" s="237" t="e">
+      <c r="B159" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C159" s="237"/>
-      <c r="D159" s="237"/>
-      <c r="E159" s="237"/>
-      <c r="F159" s="237"/>
-      <c r="G159" s="237"/>
-      <c r="H159" s="237"/>
+      <c r="C159" s="284"/>
+      <c r="D159" s="284"/>
+      <c r="E159" s="284"/>
+      <c r="F159" s="284"/>
+      <c r="G159" s="284"/>
+      <c r="H159" s="284"/>
       <c r="I159" s="95"/>
       <c r="J159" s="95"/>
       <c r="K159" s="95"/>
@@ -49726,16 +49735,16 @@
     </row>
     <row r="160" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="127"/>
-      <c r="B160" s="237" t="e">
+      <c r="B160" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C160" s="237"/>
-      <c r="D160" s="237"/>
-      <c r="E160" s="237"/>
-      <c r="F160" s="237"/>
-      <c r="G160" s="237"/>
-      <c r="H160" s="237"/>
+      <c r="C160" s="284"/>
+      <c r="D160" s="284"/>
+      <c r="E160" s="284"/>
+      <c r="F160" s="284"/>
+      <c r="G160" s="284"/>
+      <c r="H160" s="284"/>
       <c r="I160" s="95"/>
       <c r="J160" s="95"/>
       <c r="K160" s="95"/>
@@ -49752,16 +49761,16 @@
     </row>
     <row r="161" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="126"/>
-      <c r="B161" s="238" t="e">
+      <c r="B161" s="285" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C161" s="238"/>
-      <c r="D161" s="238"/>
-      <c r="E161" s="238"/>
-      <c r="F161" s="238"/>
-      <c r="G161" s="238"/>
-      <c r="H161" s="238"/>
+      <c r="C161" s="285"/>
+      <c r="D161" s="285"/>
+      <c r="E161" s="285"/>
+      <c r="F161" s="285"/>
+      <c r="G161" s="285"/>
+      <c r="H161" s="285"/>
       <c r="I161" s="95"/>
       <c r="J161" s="95"/>
       <c r="K161" s="95"/>
@@ -49780,15 +49789,15 @@
       <c r="A162" s="124" t="s">
         <v>353</v>
       </c>
-      <c r="B162" s="239" t="s">
+      <c r="B162" s="286" t="s">
         <v>125</v>
       </c>
-      <c r="C162" s="239"/>
-      <c r="D162" s="239"/>
-      <c r="E162" s="239"/>
-      <c r="F162" s="239"/>
-      <c r="G162" s="239"/>
-      <c r="H162" s="239"/>
+      <c r="C162" s="286"/>
+      <c r="D162" s="286"/>
+      <c r="E162" s="286"/>
+      <c r="F162" s="286"/>
+      <c r="G162" s="286"/>
+      <c r="H162" s="286"/>
       <c r="I162" s="95"/>
       <c r="J162" s="95"/>
       <c r="K162" s="95"/>
@@ -49804,16 +49813,16 @@
       <c r="U162" s="95"/>
     </row>
     <row r="163" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="237" t="e">
+      <c r="B163" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C163" s="237"/>
-      <c r="D163" s="237"/>
-      <c r="E163" s="237"/>
-      <c r="F163" s="237"/>
-      <c r="G163" s="237"/>
-      <c r="H163" s="237"/>
+      <c r="C163" s="284"/>
+      <c r="D163" s="284"/>
+      <c r="E163" s="284"/>
+      <c r="F163" s="284"/>
+      <c r="G163" s="284"/>
+      <c r="H163" s="284"/>
       <c r="I163" s="95"/>
       <c r="J163" s="95"/>
       <c r="K163" s="95"/>
@@ -49832,16 +49841,16 @@
       <c r="A164" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B164" s="237" t="e">
+      <c r="B164" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C164" s="237"/>
-      <c r="D164" s="237"/>
-      <c r="E164" s="237"/>
-      <c r="F164" s="237"/>
-      <c r="G164" s="237"/>
-      <c r="H164" s="237"/>
+      <c r="C164" s="284"/>
+      <c r="D164" s="284"/>
+      <c r="E164" s="284"/>
+      <c r="F164" s="284"/>
+      <c r="G164" s="284"/>
+      <c r="H164" s="284"/>
       <c r="I164" s="95"/>
       <c r="J164" s="95"/>
       <c r="K164" s="95"/>
@@ -49861,16 +49870,16 @@
         <f>Cálculos!D162</f>
         <v>8</v>
       </c>
-      <c r="B165" s="237" t="e">
+      <c r="B165" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C165" s="237"/>
-      <c r="D165" s="237"/>
-      <c r="E165" s="237"/>
-      <c r="F165" s="237"/>
-      <c r="G165" s="237"/>
-      <c r="H165" s="237"/>
+      <c r="C165" s="284"/>
+      <c r="D165" s="284"/>
+      <c r="E165" s="284"/>
+      <c r="F165" s="284"/>
+      <c r="G165" s="284"/>
+      <c r="H165" s="284"/>
       <c r="I165" s="95"/>
       <c r="J165" s="95"/>
       <c r="K165" s="95"/>
@@ -49887,16 +49896,16 @@
     </row>
     <row r="166" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="127"/>
-      <c r="B166" s="237" t="e">
+      <c r="B166" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C166" s="237"/>
-      <c r="D166" s="237"/>
-      <c r="E166" s="237"/>
-      <c r="F166" s="237"/>
-      <c r="G166" s="237"/>
-      <c r="H166" s="237"/>
+      <c r="C166" s="284"/>
+      <c r="D166" s="284"/>
+      <c r="E166" s="284"/>
+      <c r="F166" s="284"/>
+      <c r="G166" s="284"/>
+      <c r="H166" s="284"/>
       <c r="I166" s="95"/>
       <c r="J166" s="95"/>
       <c r="K166" s="95"/>
@@ -49913,16 +49922,16 @@
     </row>
     <row r="167" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="126"/>
-      <c r="B167" s="237" t="e">
+      <c r="B167" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C167" s="237"/>
-      <c r="D167" s="237"/>
-      <c r="E167" s="237"/>
-      <c r="F167" s="237"/>
-      <c r="G167" s="237"/>
-      <c r="H167" s="237"/>
+      <c r="C167" s="284"/>
+      <c r="D167" s="284"/>
+      <c r="E167" s="284"/>
+      <c r="F167" s="284"/>
+      <c r="G167" s="284"/>
+      <c r="H167" s="284"/>
       <c r="I167" s="95"/>
       <c r="J167" s="95"/>
       <c r="K167" s="95"/>
@@ -49941,15 +49950,15 @@
       <c r="A168" s="126" t="s">
         <v>354</v>
       </c>
-      <c r="B168" s="238" t="s">
+      <c r="B168" s="285" t="s">
         <v>126</v>
       </c>
-      <c r="C168" s="238"/>
-      <c r="D168" s="238"/>
-      <c r="E168" s="238"/>
-      <c r="F168" s="238"/>
-      <c r="G168" s="238"/>
-      <c r="H168" s="238"/>
+      <c r="C168" s="285"/>
+      <c r="D168" s="285"/>
+      <c r="E168" s="285"/>
+      <c r="F168" s="285"/>
+      <c r="G168" s="285"/>
+      <c r="H168" s="285"/>
       <c r="I168" s="95"/>
       <c r="J168" s="95"/>
       <c r="K168" s="95"/>
@@ -49965,16 +49974,16 @@
       <c r="U168" s="95"/>
     </row>
     <row r="169" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="237" t="e">
+      <c r="B169" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C169" s="237"/>
-      <c r="D169" s="237"/>
-      <c r="E169" s="237"/>
-      <c r="F169" s="237"/>
-      <c r="G169" s="237"/>
-      <c r="H169" s="237"/>
+      <c r="C169" s="284"/>
+      <c r="D169" s="284"/>
+      <c r="E169" s="284"/>
+      <c r="F169" s="284"/>
+      <c r="G169" s="284"/>
+      <c r="H169" s="284"/>
       <c r="I169" s="95"/>
       <c r="J169" s="95"/>
       <c r="K169" s="95"/>
@@ -49993,16 +50002,16 @@
       <c r="A170" s="128" t="s">
         <v>365</v>
       </c>
-      <c r="B170" s="237" t="e">
+      <c r="B170" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C170" s="237"/>
-      <c r="D170" s="237"/>
-      <c r="E170" s="237"/>
-      <c r="F170" s="237"/>
-      <c r="G170" s="237"/>
-      <c r="H170" s="237"/>
+      <c r="C170" s="284"/>
+      <c r="D170" s="284"/>
+      <c r="E170" s="284"/>
+      <c r="F170" s="284"/>
+      <c r="G170" s="284"/>
+      <c r="H170" s="284"/>
       <c r="I170" s="95"/>
       <c r="J170" s="95"/>
       <c r="K170" s="95"/>
@@ -50022,16 +50031,16 @@
         <f>Cálculos!#REF! &amp; " (Copy)"</f>
         <v>#REF!</v>
       </c>
-      <c r="B171" s="237" t="e">
+      <c r="B171" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C171" s="237"/>
-      <c r="D171" s="237"/>
-      <c r="E171" s="237"/>
-      <c r="F171" s="237"/>
-      <c r="G171" s="237"/>
-      <c r="H171" s="237"/>
+      <c r="C171" s="284"/>
+      <c r="D171" s="284"/>
+      <c r="E171" s="284"/>
+      <c r="F171" s="284"/>
+      <c r="G171" s="284"/>
+      <c r="H171" s="284"/>
       <c r="I171" s="95"/>
       <c r="J171" s="95"/>
       <c r="K171" s="95"/>
@@ -50051,16 +50060,16 @@
         <f>Cálculos!#REF!&amp; " (DDHH)"</f>
         <v>#REF!</v>
       </c>
-      <c r="B172" s="237" t="e">
+      <c r="B172" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C172" s="237"/>
-      <c r="D172" s="237"/>
-      <c r="E172" s="237"/>
-      <c r="F172" s="237"/>
-      <c r="G172" s="237"/>
-      <c r="H172" s="237"/>
+      <c r="C172" s="284"/>
+      <c r="D172" s="284"/>
+      <c r="E172" s="284"/>
+      <c r="F172" s="284"/>
+      <c r="G172" s="284"/>
+      <c r="H172" s="284"/>
       <c r="I172" s="95"/>
       <c r="J172" s="95"/>
       <c r="K172" s="95"/>
@@ -50077,16 +50086,16 @@
     </row>
     <row r="173" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="126"/>
-      <c r="B173" s="238" t="e">
+      <c r="B173" s="285" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C173" s="238"/>
-      <c r="D173" s="238"/>
-      <c r="E173" s="238"/>
-      <c r="F173" s="238"/>
-      <c r="G173" s="238"/>
-      <c r="H173" s="238"/>
+      <c r="C173" s="285"/>
+      <c r="D173" s="285"/>
+      <c r="E173" s="285"/>
+      <c r="F173" s="285"/>
+      <c r="G173" s="285"/>
+      <c r="H173" s="285"/>
       <c r="I173" s="95"/>
       <c r="J173" s="95"/>
       <c r="K173" s="95"/>
@@ -50105,15 +50114,15 @@
       <c r="A174" s="126" t="s">
         <v>355</v>
       </c>
-      <c r="B174" s="239" t="s">
+      <c r="B174" s="286" t="s">
         <v>127</v>
       </c>
-      <c r="C174" s="239"/>
-      <c r="D174" s="239"/>
-      <c r="E174" s="239"/>
-      <c r="F174" s="239"/>
-      <c r="G174" s="239"/>
-      <c r="H174" s="239"/>
+      <c r="C174" s="286"/>
+      <c r="D174" s="286"/>
+      <c r="E174" s="286"/>
+      <c r="F174" s="286"/>
+      <c r="G174" s="286"/>
+      <c r="H174" s="286"/>
       <c r="I174" s="95"/>
       <c r="J174" s="95"/>
       <c r="K174" s="95"/>
@@ -50129,16 +50138,16 @@
       <c r="U174" s="95"/>
     </row>
     <row r="175" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="237" t="e">
+      <c r="B175" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C175" s="237"/>
-      <c r="D175" s="237"/>
-      <c r="E175" s="237"/>
-      <c r="F175" s="237"/>
-      <c r="G175" s="237"/>
-      <c r="H175" s="237"/>
+      <c r="C175" s="284"/>
+      <c r="D175" s="284"/>
+      <c r="E175" s="284"/>
+      <c r="F175" s="284"/>
+      <c r="G175" s="284"/>
+      <c r="H175" s="284"/>
       <c r="I175" s="95"/>
       <c r="J175" s="95"/>
       <c r="K175" s="95"/>
@@ -50157,16 +50166,16 @@
       <c r="A176" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B176" s="237" t="e">
+      <c r="B176" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C176" s="237"/>
-      <c r="D176" s="237"/>
-      <c r="E176" s="237"/>
-      <c r="F176" s="237"/>
-      <c r="G176" s="237"/>
-      <c r="H176" s="237"/>
+      <c r="C176" s="284"/>
+      <c r="D176" s="284"/>
+      <c r="E176" s="284"/>
+      <c r="F176" s="284"/>
+      <c r="G176" s="284"/>
+      <c r="H176" s="284"/>
       <c r="I176" s="95"/>
       <c r="J176" s="95"/>
       <c r="K176" s="95"/>
@@ -50186,16 +50195,16 @@
         <f>Cálculos!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B177" s="237" t="e">
+      <c r="B177" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C177" s="237"/>
-      <c r="D177" s="237"/>
-      <c r="E177" s="237"/>
-      <c r="F177" s="237"/>
-      <c r="G177" s="237"/>
-      <c r="H177" s="237"/>
+      <c r="C177" s="284"/>
+      <c r="D177" s="284"/>
+      <c r="E177" s="284"/>
+      <c r="F177" s="284"/>
+      <c r="G177" s="284"/>
+      <c r="H177" s="284"/>
       <c r="I177" s="95"/>
       <c r="J177" s="95"/>
       <c r="K177" s="95"/>
@@ -50212,16 +50221,16 @@
     </row>
     <row r="178" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="127"/>
-      <c r="B178" s="237" t="e">
+      <c r="B178" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C178" s="237"/>
-      <c r="D178" s="237"/>
-      <c r="E178" s="237"/>
-      <c r="F178" s="237"/>
-      <c r="G178" s="237"/>
-      <c r="H178" s="237"/>
+      <c r="C178" s="284"/>
+      <c r="D178" s="284"/>
+      <c r="E178" s="284"/>
+      <c r="F178" s="284"/>
+      <c r="G178" s="284"/>
+      <c r="H178" s="284"/>
       <c r="I178" s="95"/>
       <c r="J178" s="95"/>
       <c r="K178" s="95"/>
@@ -50238,16 +50247,16 @@
     </row>
     <row r="179" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="126"/>
-      <c r="B179" s="238" t="e">
+      <c r="B179" s="285" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C179" s="238"/>
-      <c r="D179" s="238"/>
-      <c r="E179" s="238"/>
-      <c r="F179" s="238"/>
-      <c r="G179" s="238"/>
-      <c r="H179" s="238"/>
+      <c r="C179" s="285"/>
+      <c r="D179" s="285"/>
+      <c r="E179" s="285"/>
+      <c r="F179" s="285"/>
+      <c r="G179" s="285"/>
+      <c r="H179" s="285"/>
       <c r="I179" s="95"/>
       <c r="J179" s="95"/>
       <c r="K179" s="95"/>
@@ -50266,15 +50275,15 @@
       <c r="A180" s="126" t="s">
         <v>356</v>
       </c>
-      <c r="B180" s="239" t="s">
+      <c r="B180" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="C180" s="239"/>
-      <c r="D180" s="239"/>
-      <c r="E180" s="239"/>
-      <c r="F180" s="239"/>
-      <c r="G180" s="239"/>
-      <c r="H180" s="239"/>
+      <c r="C180" s="286"/>
+      <c r="D180" s="286"/>
+      <c r="E180" s="286"/>
+      <c r="F180" s="286"/>
+      <c r="G180" s="286"/>
+      <c r="H180" s="286"/>
       <c r="I180" s="95"/>
       <c r="J180" s="95"/>
       <c r="K180" s="95"/>
@@ -50290,16 +50299,16 @@
       <c r="U180" s="95"/>
     </row>
     <row r="181" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="237" t="e">
+      <c r="B181" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C181" s="237"/>
-      <c r="D181" s="237"/>
-      <c r="E181" s="237"/>
-      <c r="F181" s="237"/>
-      <c r="G181" s="237"/>
-      <c r="H181" s="237"/>
+      <c r="C181" s="284"/>
+      <c r="D181" s="284"/>
+      <c r="E181" s="284"/>
+      <c r="F181" s="284"/>
+      <c r="G181" s="284"/>
+      <c r="H181" s="284"/>
       <c r="I181" s="95"/>
       <c r="J181" s="95"/>
       <c r="K181" s="95"/>
@@ -50318,16 +50327,16 @@
       <c r="A182" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B182" s="237" t="e">
+      <c r="B182" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C182" s="237"/>
-      <c r="D182" s="237"/>
-      <c r="E182" s="237"/>
-      <c r="F182" s="237"/>
-      <c r="G182" s="237"/>
-      <c r="H182" s="237"/>
+      <c r="C182" s="284"/>
+      <c r="D182" s="284"/>
+      <c r="E182" s="284"/>
+      <c r="F182" s="284"/>
+      <c r="G182" s="284"/>
+      <c r="H182" s="284"/>
       <c r="I182" s="95"/>
       <c r="J182" s="95"/>
       <c r="K182" s="95"/>
@@ -50347,16 +50356,16 @@
         <f>Cálculos!D163</f>
         <v>8</v>
       </c>
-      <c r="B183" s="237" t="e">
+      <c r="B183" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C183" s="237"/>
-      <c r="D183" s="237"/>
-      <c r="E183" s="237"/>
-      <c r="F183" s="237"/>
-      <c r="G183" s="237"/>
-      <c r="H183" s="237"/>
+      <c r="C183" s="284"/>
+      <c r="D183" s="284"/>
+      <c r="E183" s="284"/>
+      <c r="F183" s="284"/>
+      <c r="G183" s="284"/>
+      <c r="H183" s="284"/>
       <c r="I183" s="95"/>
       <c r="J183" s="95"/>
       <c r="K183" s="95"/>
@@ -50373,16 +50382,16 @@
     </row>
     <row r="184" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="127"/>
-      <c r="B184" s="237" t="e">
+      <c r="B184" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C184" s="237"/>
-      <c r="D184" s="237"/>
-      <c r="E184" s="237"/>
-      <c r="F184" s="237"/>
-      <c r="G184" s="237"/>
-      <c r="H184" s="237"/>
+      <c r="C184" s="284"/>
+      <c r="D184" s="284"/>
+      <c r="E184" s="284"/>
+      <c r="F184" s="284"/>
+      <c r="G184" s="284"/>
+      <c r="H184" s="284"/>
       <c r="I184" s="95"/>
       <c r="J184" s="95"/>
       <c r="K184" s="95"/>
@@ -50399,16 +50408,16 @@
     </row>
     <row r="185" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="126"/>
-      <c r="B185" s="238" t="e">
+      <c r="B185" s="285" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C185" s="238"/>
-      <c r="D185" s="238"/>
-      <c r="E185" s="238"/>
-      <c r="F185" s="238"/>
-      <c r="G185" s="238"/>
-      <c r="H185" s="238"/>
+      <c r="C185" s="285"/>
+      <c r="D185" s="285"/>
+      <c r="E185" s="285"/>
+      <c r="F185" s="285"/>
+      <c r="G185" s="285"/>
+      <c r="H185" s="285"/>
       <c r="I185" s="95"/>
       <c r="J185" s="95"/>
       <c r="K185" s="95"/>
@@ -50427,15 +50436,15 @@
       <c r="A186" s="126" t="s">
         <v>357</v>
       </c>
-      <c r="B186" s="239" t="s">
+      <c r="B186" s="286" t="s">
         <v>129</v>
       </c>
-      <c r="C186" s="239"/>
-      <c r="D186" s="239"/>
-      <c r="E186" s="239"/>
-      <c r="F186" s="239"/>
-      <c r="G186" s="239"/>
-      <c r="H186" s="239"/>
+      <c r="C186" s="286"/>
+      <c r="D186" s="286"/>
+      <c r="E186" s="286"/>
+      <c r="F186" s="286"/>
+      <c r="G186" s="286"/>
+      <c r="H186" s="286"/>
       <c r="I186" s="95"/>
       <c r="J186" s="95"/>
       <c r="K186" s="95"/>
@@ -50451,16 +50460,16 @@
       <c r="U186" s="95"/>
     </row>
     <row r="187" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="237" t="e">
+      <c r="B187" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C187" s="237"/>
-      <c r="D187" s="237"/>
-      <c r="E187" s="237"/>
-      <c r="F187" s="237"/>
-      <c r="G187" s="237"/>
-      <c r="H187" s="237"/>
+      <c r="C187" s="284"/>
+      <c r="D187" s="284"/>
+      <c r="E187" s="284"/>
+      <c r="F187" s="284"/>
+      <c r="G187" s="284"/>
+      <c r="H187" s="284"/>
       <c r="I187" s="95"/>
       <c r="J187" s="95"/>
       <c r="K187" s="95"/>
@@ -50479,16 +50488,16 @@
       <c r="A188" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B188" s="237" t="e">
+      <c r="B188" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C188" s="237"/>
-      <c r="D188" s="237"/>
-      <c r="E188" s="237"/>
-      <c r="F188" s="237"/>
-      <c r="G188" s="237"/>
-      <c r="H188" s="237"/>
+      <c r="C188" s="284"/>
+      <c r="D188" s="284"/>
+      <c r="E188" s="284"/>
+      <c r="F188" s="284"/>
+      <c r="G188" s="284"/>
+      <c r="H188" s="284"/>
       <c r="I188" s="95"/>
       <c r="J188" s="95"/>
       <c r="K188" s="95"/>
@@ -50508,16 +50517,16 @@
         <f>Cálculos!D164</f>
         <v>9</v>
       </c>
-      <c r="B189" s="237" t="e">
+      <c r="B189" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C189" s="237"/>
-      <c r="D189" s="237"/>
-      <c r="E189" s="237"/>
-      <c r="F189" s="237"/>
-      <c r="G189" s="237"/>
-      <c r="H189" s="237"/>
+      <c r="C189" s="284"/>
+      <c r="D189" s="284"/>
+      <c r="E189" s="284"/>
+      <c r="F189" s="284"/>
+      <c r="G189" s="284"/>
+      <c r="H189" s="284"/>
       <c r="I189" s="95"/>
       <c r="J189" s="95"/>
       <c r="K189" s="95"/>
@@ -50534,16 +50543,16 @@
     </row>
     <row r="190" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="127"/>
-      <c r="B190" s="237" t="e">
+      <c r="B190" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C190" s="237"/>
-      <c r="D190" s="237"/>
-      <c r="E190" s="237"/>
-      <c r="F190" s="237"/>
-      <c r="G190" s="237"/>
-      <c r="H190" s="237"/>
+      <c r="C190" s="284"/>
+      <c r="D190" s="284"/>
+      <c r="E190" s="284"/>
+      <c r="F190" s="284"/>
+      <c r="G190" s="284"/>
+      <c r="H190" s="284"/>
       <c r="I190" s="95"/>
       <c r="J190" s="95"/>
       <c r="K190" s="95"/>
@@ -50560,16 +50569,16 @@
     </row>
     <row r="191" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="126"/>
-      <c r="B191" s="238" t="e">
+      <c r="B191" s="285" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C191" s="238"/>
-      <c r="D191" s="238"/>
-      <c r="E191" s="238"/>
-      <c r="F191" s="238"/>
-      <c r="G191" s="238"/>
-      <c r="H191" s="238"/>
+      <c r="C191" s="285"/>
+      <c r="D191" s="285"/>
+      <c r="E191" s="285"/>
+      <c r="F191" s="285"/>
+      <c r="G191" s="285"/>
+      <c r="H191" s="285"/>
       <c r="I191" s="95"/>
       <c r="J191" s="95"/>
       <c r="K191" s="95"/>
@@ -50588,15 +50597,15 @@
       <c r="A192" s="126" t="s">
         <v>358</v>
       </c>
-      <c r="B192" s="239" t="s">
+      <c r="B192" s="286" t="s">
         <v>130</v>
       </c>
-      <c r="C192" s="239"/>
-      <c r="D192" s="239"/>
-      <c r="E192" s="239"/>
-      <c r="F192" s="239"/>
-      <c r="G192" s="239"/>
-      <c r="H192" s="239"/>
+      <c r="C192" s="286"/>
+      <c r="D192" s="286"/>
+      <c r="E192" s="286"/>
+      <c r="F192" s="286"/>
+      <c r="G192" s="286"/>
+      <c r="H192" s="286"/>
       <c r="I192" s="95"/>
       <c r="J192" s="95"/>
       <c r="K192" s="95"/>
@@ -50612,16 +50621,16 @@
       <c r="U192" s="95"/>
     </row>
     <row r="193" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="237" t="e">
+      <c r="B193" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C193" s="237"/>
-      <c r="D193" s="237"/>
-      <c r="E193" s="237"/>
-      <c r="F193" s="237"/>
-      <c r="G193" s="237"/>
-      <c r="H193" s="237"/>
+      <c r="C193" s="284"/>
+      <c r="D193" s="284"/>
+      <c r="E193" s="284"/>
+      <c r="F193" s="284"/>
+      <c r="G193" s="284"/>
+      <c r="H193" s="284"/>
       <c r="I193" s="95"/>
       <c r="J193" s="95"/>
       <c r="K193" s="95"/>
@@ -50640,16 +50649,16 @@
       <c r="A194" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B194" s="237" t="e">
+      <c r="B194" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C194" s="237"/>
-      <c r="D194" s="237"/>
-      <c r="E194" s="237"/>
-      <c r="F194" s="237"/>
-      <c r="G194" s="237"/>
-      <c r="H194" s="237"/>
+      <c r="C194" s="284"/>
+      <c r="D194" s="284"/>
+      <c r="E194" s="284"/>
+      <c r="F194" s="284"/>
+      <c r="G194" s="284"/>
+      <c r="H194" s="284"/>
       <c r="I194" s="95"/>
       <c r="J194" s="95"/>
       <c r="K194" s="95"/>
@@ -50669,16 +50678,16 @@
         <f>Cálculos!D165</f>
         <v>0</v>
       </c>
-      <c r="B195" s="237" t="e">
+      <c r="B195" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C195" s="237"/>
-      <c r="D195" s="237"/>
-      <c r="E195" s="237"/>
-      <c r="F195" s="237"/>
-      <c r="G195" s="237"/>
-      <c r="H195" s="237"/>
+      <c r="C195" s="284"/>
+      <c r="D195" s="284"/>
+      <c r="E195" s="284"/>
+      <c r="F195" s="284"/>
+      <c r="G195" s="284"/>
+      <c r="H195" s="284"/>
       <c r="I195" s="95"/>
       <c r="J195" s="95"/>
       <c r="K195" s="95"/>
@@ -50695,16 +50704,16 @@
     </row>
     <row r="196" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="127"/>
-      <c r="B196" s="237" t="e">
+      <c r="B196" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C196" s="237"/>
-      <c r="D196" s="237"/>
-      <c r="E196" s="237"/>
-      <c r="F196" s="237"/>
-      <c r="G196" s="237"/>
-      <c r="H196" s="237"/>
+      <c r="C196" s="284"/>
+      <c r="D196" s="284"/>
+      <c r="E196" s="284"/>
+      <c r="F196" s="284"/>
+      <c r="G196" s="284"/>
+      <c r="H196" s="284"/>
       <c r="I196" s="95"/>
       <c r="J196" s="95"/>
       <c r="K196" s="95"/>
@@ -50721,16 +50730,16 @@
     </row>
     <row r="197" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="126"/>
-      <c r="B197" s="237" t="e">
+      <c r="B197" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C197" s="237"/>
-      <c r="D197" s="237"/>
-      <c r="E197" s="237"/>
-      <c r="F197" s="237"/>
-      <c r="G197" s="237"/>
-      <c r="H197" s="237"/>
+      <c r="C197" s="284"/>
+      <c r="D197" s="284"/>
+      <c r="E197" s="284"/>
+      <c r="F197" s="284"/>
+      <c r="G197" s="284"/>
+      <c r="H197" s="284"/>
       <c r="I197" s="95"/>
       <c r="J197" s="95"/>
       <c r="K197" s="95"/>
@@ -50749,15 +50758,15 @@
       <c r="A198" s="126" t="s">
         <v>359</v>
       </c>
-      <c r="B198" s="238" t="s">
+      <c r="B198" s="285" t="s">
         <v>131</v>
       </c>
-      <c r="C198" s="238"/>
-      <c r="D198" s="238"/>
-      <c r="E198" s="238"/>
-      <c r="F198" s="238"/>
-      <c r="G198" s="238"/>
-      <c r="H198" s="238"/>
+      <c r="C198" s="285"/>
+      <c r="D198" s="285"/>
+      <c r="E198" s="285"/>
+      <c r="F198" s="285"/>
+      <c r="G198" s="285"/>
+      <c r="H198" s="285"/>
       <c r="I198" s="95"/>
       <c r="J198" s="95"/>
       <c r="K198" s="95"/>
@@ -50773,16 +50782,16 @@
       <c r="U198" s="95"/>
     </row>
     <row r="199" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="237" t="e">
+      <c r="B199" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C199" s="237"/>
-      <c r="D199" s="237"/>
-      <c r="E199" s="237"/>
-      <c r="F199" s="237"/>
-      <c r="G199" s="237"/>
-      <c r="H199" s="237"/>
+      <c r="C199" s="284"/>
+      <c r="D199" s="284"/>
+      <c r="E199" s="284"/>
+      <c r="F199" s="284"/>
+      <c r="G199" s="284"/>
+      <c r="H199" s="284"/>
       <c r="I199" s="95"/>
       <c r="J199" s="95"/>
       <c r="K199" s="95"/>
@@ -50801,16 +50810,16 @@
       <c r="A200" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B200" s="237" t="e">
+      <c r="B200" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C200" s="237"/>
-      <c r="D200" s="237"/>
-      <c r="E200" s="237"/>
-      <c r="F200" s="237"/>
-      <c r="G200" s="237"/>
-      <c r="H200" s="237"/>
+      <c r="C200" s="284"/>
+      <c r="D200" s="284"/>
+      <c r="E200" s="284"/>
+      <c r="F200" s="284"/>
+      <c r="G200" s="284"/>
+      <c r="H200" s="284"/>
       <c r="I200" s="95"/>
       <c r="J200" s="95"/>
       <c r="K200" s="95"/>
@@ -50830,16 +50839,16 @@
         <f>Cálculos!D166</f>
         <v>5</v>
       </c>
-      <c r="B201" s="237" t="e">
+      <c r="B201" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C201" s="237"/>
-      <c r="D201" s="237"/>
-      <c r="E201" s="237"/>
-      <c r="F201" s="237"/>
-      <c r="G201" s="237"/>
-      <c r="H201" s="237"/>
+      <c r="C201" s="284"/>
+      <c r="D201" s="284"/>
+      <c r="E201" s="284"/>
+      <c r="F201" s="284"/>
+      <c r="G201" s="284"/>
+      <c r="H201" s="284"/>
       <c r="I201" s="95"/>
       <c r="J201" s="95"/>
       <c r="K201" s="95"/>
@@ -50856,16 +50865,16 @@
     </row>
     <row r="202" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="127"/>
-      <c r="B202" s="237" t="e">
+      <c r="B202" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C202" s="237"/>
-      <c r="D202" s="237"/>
-      <c r="E202" s="237"/>
-      <c r="F202" s="237"/>
-      <c r="G202" s="237"/>
-      <c r="H202" s="237"/>
+      <c r="C202" s="284"/>
+      <c r="D202" s="284"/>
+      <c r="E202" s="284"/>
+      <c r="F202" s="284"/>
+      <c r="G202" s="284"/>
+      <c r="H202" s="284"/>
       <c r="I202" s="95"/>
       <c r="J202" s="95"/>
       <c r="K202" s="95"/>
@@ -50882,16 +50891,16 @@
     </row>
     <row r="203" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="126"/>
-      <c r="B203" s="237" t="e">
+      <c r="B203" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C203" s="237"/>
-      <c r="D203" s="237"/>
-      <c r="E203" s="237"/>
-      <c r="F203" s="237"/>
-      <c r="G203" s="237"/>
-      <c r="H203" s="237"/>
+      <c r="C203" s="284"/>
+      <c r="D203" s="284"/>
+      <c r="E203" s="284"/>
+      <c r="F203" s="284"/>
+      <c r="G203" s="284"/>
+      <c r="H203" s="284"/>
       <c r="I203" s="95"/>
       <c r="J203" s="95"/>
       <c r="K203" s="95"/>
@@ -50910,15 +50919,15 @@
       <c r="A204" s="126" t="s">
         <v>360</v>
       </c>
-      <c r="B204" s="238" t="s">
+      <c r="B204" s="285" t="s">
         <v>132</v>
       </c>
-      <c r="C204" s="238"/>
-      <c r="D204" s="238"/>
-      <c r="E204" s="238"/>
-      <c r="F204" s="238"/>
-      <c r="G204" s="238"/>
-      <c r="H204" s="238"/>
+      <c r="C204" s="285"/>
+      <c r="D204" s="285"/>
+      <c r="E204" s="285"/>
+      <c r="F204" s="285"/>
+      <c r="G204" s="285"/>
+      <c r="H204" s="285"/>
       <c r="I204" s="95"/>
       <c r="J204" s="95"/>
       <c r="K204" s="95"/>
@@ -50934,16 +50943,16 @@
       <c r="U204" s="95"/>
     </row>
     <row r="205" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B205" s="237" t="e">
+      <c r="B205" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C205" s="237"/>
-      <c r="D205" s="237"/>
-      <c r="E205" s="237"/>
-      <c r="F205" s="237"/>
-      <c r="G205" s="237"/>
-      <c r="H205" s="237"/>
+      <c r="C205" s="284"/>
+      <c r="D205" s="284"/>
+      <c r="E205" s="284"/>
+      <c r="F205" s="284"/>
+      <c r="G205" s="284"/>
+      <c r="H205" s="284"/>
       <c r="I205" s="95"/>
       <c r="J205" s="95"/>
       <c r="K205" s="95"/>
@@ -50962,16 +50971,16 @@
       <c r="A206" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B206" s="237" t="e">
+      <c r="B206" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C206" s="237"/>
-      <c r="D206" s="237"/>
-      <c r="E206" s="237"/>
-      <c r="F206" s="237"/>
-      <c r="G206" s="237"/>
-      <c r="H206" s="237"/>
+      <c r="C206" s="284"/>
+      <c r="D206" s="284"/>
+      <c r="E206" s="284"/>
+      <c r="F206" s="284"/>
+      <c r="G206" s="284"/>
+      <c r="H206" s="284"/>
       <c r="I206" s="95"/>
       <c r="J206" s="95"/>
       <c r="K206" s="95"/>
@@ -50991,16 +51000,16 @@
         <f>Cálculos!D167</f>
         <v>7</v>
       </c>
-      <c r="B207" s="237" t="e">
+      <c r="B207" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C207" s="237"/>
-      <c r="D207" s="237"/>
-      <c r="E207" s="237"/>
-      <c r="F207" s="237"/>
-      <c r="G207" s="237"/>
-      <c r="H207" s="237"/>
+      <c r="C207" s="284"/>
+      <c r="D207" s="284"/>
+      <c r="E207" s="284"/>
+      <c r="F207" s="284"/>
+      <c r="G207" s="284"/>
+      <c r="H207" s="284"/>
       <c r="I207" s="95"/>
       <c r="J207" s="95"/>
       <c r="K207" s="95"/>
@@ -51017,16 +51026,16 @@
     </row>
     <row r="208" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="127"/>
-      <c r="B208" s="237" t="e">
+      <c r="B208" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C208" s="237"/>
-      <c r="D208" s="237"/>
-      <c r="E208" s="237"/>
-      <c r="F208" s="237"/>
-      <c r="G208" s="237"/>
-      <c r="H208" s="237"/>
+      <c r="C208" s="284"/>
+      <c r="D208" s="284"/>
+      <c r="E208" s="284"/>
+      <c r="F208" s="284"/>
+      <c r="G208" s="284"/>
+      <c r="H208" s="284"/>
       <c r="I208" s="95"/>
       <c r="J208" s="95"/>
       <c r="K208" s="95"/>
@@ -51043,16 +51052,16 @@
     </row>
     <row r="209" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="126"/>
-      <c r="B209" s="237" t="e">
+      <c r="B209" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C209" s="237"/>
-      <c r="D209" s="237"/>
-      <c r="E209" s="237"/>
-      <c r="F209" s="237"/>
-      <c r="G209" s="237"/>
-      <c r="H209" s="237"/>
+      <c r="C209" s="284"/>
+      <c r="D209" s="284"/>
+      <c r="E209" s="284"/>
+      <c r="F209" s="284"/>
+      <c r="G209" s="284"/>
+      <c r="H209" s="284"/>
       <c r="I209" s="95"/>
       <c r="J209" s="95"/>
       <c r="K209" s="95"/>
@@ -51071,15 +51080,15 @@
       <c r="A210" s="126" t="s">
         <v>361</v>
       </c>
-      <c r="B210" s="238" t="s">
+      <c r="B210" s="285" t="s">
         <v>133</v>
       </c>
-      <c r="C210" s="238"/>
-      <c r="D210" s="238"/>
-      <c r="E210" s="238"/>
-      <c r="F210" s="238"/>
-      <c r="G210" s="238"/>
-      <c r="H210" s="238"/>
+      <c r="C210" s="285"/>
+      <c r="D210" s="285"/>
+      <c r="E210" s="285"/>
+      <c r="F210" s="285"/>
+      <c r="G210" s="285"/>
+      <c r="H210" s="285"/>
       <c r="I210" s="95"/>
       <c r="J210" s="95"/>
       <c r="K210" s="95"/>
@@ -51095,16 +51104,16 @@
       <c r="U210" s="95"/>
     </row>
     <row r="211" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B211" s="237" t="e">
+      <c r="B211" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C211" s="237"/>
-      <c r="D211" s="237"/>
-      <c r="E211" s="237"/>
-      <c r="F211" s="237"/>
-      <c r="G211" s="237"/>
-      <c r="H211" s="237"/>
+      <c r="C211" s="284"/>
+      <c r="D211" s="284"/>
+      <c r="E211" s="284"/>
+      <c r="F211" s="284"/>
+      <c r="G211" s="284"/>
+      <c r="H211" s="284"/>
       <c r="I211" s="95"/>
       <c r="J211" s="95"/>
       <c r="K211" s="95"/>
@@ -51123,16 +51132,16 @@
       <c r="A212" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B212" s="237" t="e">
+      <c r="B212" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C212" s="237"/>
-      <c r="D212" s="237"/>
-      <c r="E212" s="237"/>
-      <c r="F212" s="237"/>
-      <c r="G212" s="237"/>
-      <c r="H212" s="237"/>
+      <c r="C212" s="284"/>
+      <c r="D212" s="284"/>
+      <c r="E212" s="284"/>
+      <c r="F212" s="284"/>
+      <c r="G212" s="284"/>
+      <c r="H212" s="284"/>
       <c r="I212" s="95"/>
       <c r="J212" s="95"/>
       <c r="K212" s="95"/>
@@ -51152,16 +51161,16 @@
         <f>Cálculos!D168</f>
         <v>5</v>
       </c>
-      <c r="B213" s="237" t="e">
+      <c r="B213" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C213" s="237"/>
-      <c r="D213" s="237"/>
-      <c r="E213" s="237"/>
-      <c r="F213" s="237"/>
-      <c r="G213" s="237"/>
-      <c r="H213" s="237"/>
+      <c r="C213" s="284"/>
+      <c r="D213" s="284"/>
+      <c r="E213" s="284"/>
+      <c r="F213" s="284"/>
+      <c r="G213" s="284"/>
+      <c r="H213" s="284"/>
       <c r="I213" s="95"/>
       <c r="J213" s="95"/>
       <c r="K213" s="95"/>
@@ -51178,16 +51187,16 @@
     </row>
     <row r="214" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="127"/>
-      <c r="B214" s="237" t="e">
+      <c r="B214" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C214" s="237"/>
-      <c r="D214" s="237"/>
-      <c r="E214" s="237"/>
-      <c r="F214" s="237"/>
-      <c r="G214" s="237"/>
-      <c r="H214" s="237"/>
+      <c r="C214" s="284"/>
+      <c r="D214" s="284"/>
+      <c r="E214" s="284"/>
+      <c r="F214" s="284"/>
+      <c r="G214" s="284"/>
+      <c r="H214" s="284"/>
       <c r="I214" s="95"/>
       <c r="J214" s="95"/>
       <c r="K214" s="95"/>
@@ -51204,16 +51213,16 @@
     </row>
     <row r="215" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="126"/>
-      <c r="B215" s="237" t="e">
+      <c r="B215" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C215" s="237"/>
-      <c r="D215" s="237"/>
-      <c r="E215" s="237"/>
-      <c r="F215" s="237"/>
-      <c r="G215" s="237"/>
-      <c r="H215" s="237"/>
+      <c r="C215" s="284"/>
+      <c r="D215" s="284"/>
+      <c r="E215" s="284"/>
+      <c r="F215" s="284"/>
+      <c r="G215" s="284"/>
+      <c r="H215" s="284"/>
       <c r="I215" s="95"/>
       <c r="J215" s="95"/>
       <c r="K215" s="95"/>
@@ -51232,15 +51241,15 @@
       <c r="A216" s="126" t="s">
         <v>362</v>
       </c>
-      <c r="B216" s="238" t="s">
+      <c r="B216" s="285" t="s">
         <v>363</v>
       </c>
-      <c r="C216" s="238"/>
-      <c r="D216" s="238"/>
-      <c r="E216" s="238"/>
-      <c r="F216" s="238"/>
-      <c r="G216" s="238"/>
-      <c r="H216" s="238"/>
+      <c r="C216" s="285"/>
+      <c r="D216" s="285"/>
+      <c r="E216" s="285"/>
+      <c r="F216" s="285"/>
+      <c r="G216" s="285"/>
+      <c r="H216" s="285"/>
       <c r="I216" s="95"/>
       <c r="J216" s="95"/>
       <c r="K216" s="95"/>
@@ -51256,16 +51265,16 @@
       <c r="U216" s="95"/>
     </row>
     <row r="217" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B217" s="237" t="e">
+      <c r="B217" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C217" s="237"/>
-      <c r="D217" s="237"/>
-      <c r="E217" s="237"/>
-      <c r="F217" s="237"/>
-      <c r="G217" s="237"/>
-      <c r="H217" s="237"/>
+      <c r="C217" s="284"/>
+      <c r="D217" s="284"/>
+      <c r="E217" s="284"/>
+      <c r="F217" s="284"/>
+      <c r="G217" s="284"/>
+      <c r="H217" s="284"/>
       <c r="I217" s="95"/>
       <c r="J217" s="95"/>
       <c r="K217" s="95"/>
@@ -51284,16 +51293,16 @@
       <c r="A218" s="128" t="s">
         <v>364</v>
       </c>
-      <c r="B218" s="237" t="e">
+      <c r="B218" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C218" s="237"/>
-      <c r="D218" s="237"/>
-      <c r="E218" s="237"/>
-      <c r="F218" s="237"/>
-      <c r="G218" s="237"/>
-      <c r="H218" s="237"/>
+      <c r="C218" s="284"/>
+      <c r="D218" s="284"/>
+      <c r="E218" s="284"/>
+      <c r="F218" s="284"/>
+      <c r="G218" s="284"/>
+      <c r="H218" s="284"/>
       <c r="I218" s="95"/>
       <c r="J218" s="95"/>
       <c r="K218" s="95"/>
@@ -51313,16 +51322,16 @@
         <f>Cálculos!D169</f>
         <v>N/A</v>
       </c>
-      <c r="B219" s="237" t="e">
+      <c r="B219" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C219" s="237"/>
-      <c r="D219" s="237"/>
-      <c r="E219" s="237"/>
-      <c r="F219" s="237"/>
-      <c r="G219" s="237"/>
-      <c r="H219" s="237"/>
+      <c r="C219" s="284"/>
+      <c r="D219" s="284"/>
+      <c r="E219" s="284"/>
+      <c r="F219" s="284"/>
+      <c r="G219" s="284"/>
+      <c r="H219" s="284"/>
       <c r="I219" s="95"/>
       <c r="J219" s="95"/>
       <c r="K219" s="95"/>
@@ -51339,16 +51348,16 @@
     </row>
     <row r="220" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="127"/>
-      <c r="B220" s="237" t="e">
+      <c r="B220" s="284" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C220" s="237"/>
-      <c r="D220" s="237"/>
-      <c r="E220" s="237"/>
-      <c r="F220" s="237"/>
-      <c r="G220" s="237"/>
-      <c r="H220" s="237"/>
+      <c r="C220" s="284"/>
+      <c r="D220" s="284"/>
+      <c r="E220" s="284"/>
+      <c r="F220" s="284"/>
+      <c r="G220" s="284"/>
+      <c r="H220" s="284"/>
       <c r="I220" s="95"/>
       <c r="J220" s="95"/>
       <c r="K220" s="95"/>
@@ -51365,16 +51374,16 @@
     </row>
     <row r="221" spans="1:21" ht="14.1" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="126"/>
-      <c r="B221" s="238" t="e">
+      <c r="B221" s="285" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="C221" s="238"/>
-      <c r="D221" s="238"/>
-      <c r="E221" s="238"/>
-      <c r="F221" s="238"/>
-      <c r="G221" s="238"/>
-      <c r="H221" s="238"/>
+      <c r="C221" s="285"/>
+      <c r="D221" s="285"/>
+      <c r="E221" s="285"/>
+      <c r="F221" s="285"/>
+      <c r="G221" s="285"/>
+      <c r="H221" s="285"/>
       <c r="I221" s="95"/>
       <c r="J221" s="95"/>
       <c r="K221" s="95"/>
@@ -51676,17 +51685,17 @@
         <v>558</v>
       </c>
       <c r="B234" s="206"/>
-      <c r="C234" s="289" t="s">
+      <c r="C234" s="271" t="s">
         <v>559</v>
       </c>
-      <c r="D234" s="289"/>
-      <c r="E234" s="289">
+      <c r="D234" s="271"/>
+      <c r="E234" s="271">
         <f>'Resultados Informe Final'!D3</f>
         <v>7</v>
       </c>
-      <c r="F234" s="289"/>
-      <c r="G234" s="289"/>
-      <c r="H234" s="289"/>
+      <c r="F234" s="271"/>
+      <c r="G234" s="271"/>
+      <c r="H234" s="271"/>
       <c r="I234" s="95"/>
       <c r="J234" s="95"/>
       <c r="K234" s="95"/>
@@ -51704,17 +51713,17 @@
     <row r="235" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="206"/>
       <c r="B235" s="206"/>
-      <c r="C235" s="289" t="s">
+      <c r="C235" s="271" t="s">
         <v>560</v>
       </c>
-      <c r="D235" s="289"/>
-      <c r="E235" s="289" t="str">
+      <c r="D235" s="271"/>
+      <c r="E235" s="271" t="str">
         <f>'Resultados Informe Final'!D4</f>
         <v/>
       </c>
-      <c r="F235" s="289"/>
-      <c r="G235" s="289"/>
-      <c r="H235" s="289"/>
+      <c r="F235" s="271"/>
+      <c r="G235" s="271"/>
+      <c r="H235" s="271"/>
       <c r="I235" s="95"/>
       <c r="J235" s="95"/>
       <c r="K235" s="95"/>
@@ -51734,17 +51743,17 @@
         <v>561</v>
       </c>
       <c r="B236" s="206"/>
-      <c r="C236" s="289" t="s">
+      <c r="C236" s="271" t="s">
         <v>562</v>
       </c>
-      <c r="D236" s="289"/>
-      <c r="E236" s="289">
+      <c r="D236" s="271"/>
+      <c r="E236" s="271">
         <f>'Resultados Informe Final'!D5</f>
         <v>6</v>
       </c>
-      <c r="F236" s="289"/>
-      <c r="G236" s="289"/>
-      <c r="H236" s="289"/>
+      <c r="F236" s="271"/>
+      <c r="G236" s="271"/>
+      <c r="H236" s="271"/>
       <c r="I236" s="95"/>
       <c r="J236" s="95"/>
       <c r="K236" s="95"/>
@@ -51762,17 +51771,17 @@
     <row r="237" spans="1:21" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="206"/>
       <c r="B237" s="206"/>
-      <c r="C237" s="289" t="s">
+      <c r="C237" s="271" t="s">
         <v>563</v>
       </c>
-      <c r="D237" s="289"/>
-      <c r="E237" s="289" t="str">
+      <c r="D237" s="271"/>
+      <c r="E237" s="271" t="str">
         <f>'Resultados Informe Final'!D6</f>
         <v/>
       </c>
-      <c r="F237" s="289"/>
-      <c r="G237" s="289"/>
-      <c r="H237" s="289"/>
+      <c r="F237" s="271"/>
+      <c r="G237" s="271"/>
+      <c r="H237" s="271"/>
       <c r="I237" s="95"/>
       <c r="J237" s="95"/>
       <c r="K237" s="95"/>
@@ -51792,17 +51801,17 @@
         <v>564</v>
       </c>
       <c r="B238" s="206"/>
-      <c r="C238" s="289" t="s">
+      <c r="C238" s="271" t="s">
         <v>565</v>
       </c>
-      <c r="D238" s="289"/>
-      <c r="E238" s="289">
+      <c r="D238" s="271"/>
+      <c r="E238" s="271">
         <f>'Resultados Informe Final'!D7</f>
         <v>7</v>
       </c>
-      <c r="F238" s="289"/>
-      <c r="G238" s="289"/>
-      <c r="H238" s="289"/>
+      <c r="F238" s="271"/>
+      <c r="G238" s="271"/>
+      <c r="H238" s="271"/>
       <c r="I238" s="95"/>
       <c r="J238" s="95"/>
       <c r="K238" s="95"/>
@@ -51820,17 +51829,17 @@
     <row r="239" spans="1:21" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="206"/>
       <c r="B239" s="206"/>
-      <c r="C239" s="289" t="s">
+      <c r="C239" s="271" t="s">
         <v>566</v>
       </c>
-      <c r="D239" s="289"/>
-      <c r="E239" s="289" t="str">
+      <c r="D239" s="271"/>
+      <c r="E239" s="271" t="str">
         <f>'Resultados Informe Final'!D8</f>
         <v/>
       </c>
-      <c r="F239" s="289"/>
-      <c r="G239" s="289"/>
-      <c r="H239" s="289"/>
+      <c r="F239" s="271"/>
+      <c r="G239" s="271"/>
+      <c r="H239" s="271"/>
       <c r="I239" s="95"/>
       <c r="J239" s="95"/>
       <c r="K239" s="95"/>
@@ -51846,21 +51855,21 @@
       <c r="U239" s="95"/>
     </row>
     <row r="240" spans="1:21" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="288" t="s">
+      <c r="A240" s="272" t="s">
         <v>567</v>
       </c>
-      <c r="B240" s="288"/>
-      <c r="C240" s="289" t="s">
+      <c r="B240" s="272"/>
+      <c r="C240" s="271" t="s">
         <v>621</v>
       </c>
-      <c r="D240" s="289"/>
-      <c r="E240" s="289">
+      <c r="D240" s="271"/>
+      <c r="E240" s="271">
         <f>'Resultados Informe Final'!D9</f>
         <v>8</v>
       </c>
-      <c r="F240" s="289"/>
-      <c r="G240" s="289"/>
-      <c r="H240" s="289"/>
+      <c r="F240" s="271"/>
+      <c r="G240" s="271"/>
+      <c r="H240" s="271"/>
       <c r="I240" s="95"/>
       <c r="J240" s="95"/>
       <c r="K240" s="95"/>
@@ -51876,19 +51885,19 @@
       <c r="U240" s="95"/>
     </row>
     <row r="241" spans="1:21" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="288"/>
-      <c r="B241" s="288"/>
-      <c r="C241" s="289" t="s">
+      <c r="A241" s="272"/>
+      <c r="B241" s="272"/>
+      <c r="C241" s="271" t="s">
         <v>568</v>
       </c>
-      <c r="D241" s="289"/>
-      <c r="E241" s="289" t="str">
+      <c r="D241" s="271"/>
+      <c r="E241" s="271" t="str">
         <f>'Resultados Informe Final'!D10</f>
         <v/>
       </c>
-      <c r="F241" s="289"/>
-      <c r="G241" s="289"/>
-      <c r="H241" s="289"/>
+      <c r="F241" s="271"/>
+      <c r="G241" s="271"/>
+      <c r="H241" s="271"/>
       <c r="I241" s="95"/>
       <c r="J241" s="95"/>
       <c r="K241" s="95"/>
@@ -51908,17 +51917,17 @@
         <v>569</v>
       </c>
       <c r="B242" s="206"/>
-      <c r="C242" s="289" t="s">
+      <c r="C242" s="271" t="s">
         <v>622</v>
       </c>
-      <c r="D242" s="289"/>
-      <c r="E242" s="289">
+      <c r="D242" s="271"/>
+      <c r="E242" s="271">
         <f>'Resultados Informe Final'!D11</f>
         <v>8</v>
       </c>
-      <c r="F242" s="289"/>
-      <c r="G242" s="289"/>
-      <c r="H242" s="289"/>
+      <c r="F242" s="271"/>
+      <c r="G242" s="271"/>
+      <c r="H242" s="271"/>
       <c r="I242" s="95"/>
       <c r="J242" s="95"/>
       <c r="K242" s="95"/>
@@ -51936,17 +51945,17 @@
     <row r="243" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="206"/>
       <c r="B243" s="206"/>
-      <c r="C243" s="289" t="s">
+      <c r="C243" s="271" t="s">
         <v>570</v>
       </c>
-      <c r="D243" s="289"/>
-      <c r="E243" s="289" t="str">
+      <c r="D243" s="271"/>
+      <c r="E243" s="271" t="str">
         <f>'Resultados Informe Final'!D12</f>
         <v/>
       </c>
-      <c r="F243" s="289"/>
-      <c r="G243" s="289"/>
-      <c r="H243" s="289"/>
+      <c r="F243" s="271"/>
+      <c r="G243" s="271"/>
+      <c r="H243" s="271"/>
       <c r="I243" s="95"/>
       <c r="J243" s="95"/>
       <c r="K243" s="95"/>
@@ -51966,17 +51975,17 @@
         <v>571</v>
       </c>
       <c r="B244" s="206"/>
-      <c r="C244" s="289" t="s">
+      <c r="C244" s="271" t="s">
         <v>572</v>
       </c>
-      <c r="D244" s="289"/>
-      <c r="E244" s="289">
+      <c r="D244" s="271"/>
+      <c r="E244" s="271">
         <f>'Resultados Informe Final'!D13</f>
         <v>9</v>
       </c>
-      <c r="F244" s="289"/>
-      <c r="G244" s="289"/>
-      <c r="H244" s="289"/>
+      <c r="F244" s="271"/>
+      <c r="G244" s="271"/>
+      <c r="H244" s="271"/>
       <c r="I244" s="95"/>
       <c r="J244" s="95"/>
       <c r="K244" s="95"/>
@@ -51994,17 +52003,17 @@
     <row r="245" spans="1:21" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="206"/>
       <c r="B245" s="206"/>
-      <c r="C245" s="289" t="s">
+      <c r="C245" s="271" t="s">
         <v>573</v>
       </c>
-      <c r="D245" s="289"/>
-      <c r="E245" s="289" t="str">
+      <c r="D245" s="271"/>
+      <c r="E245" s="271" t="str">
         <f>'Resultados Informe Final'!D14</f>
         <v/>
       </c>
-      <c r="F245" s="289"/>
-      <c r="G245" s="289"/>
-      <c r="H245" s="289"/>
+      <c r="F245" s="271"/>
+      <c r="G245" s="271"/>
+      <c r="H245" s="271"/>
       <c r="I245" s="95"/>
       <c r="J245" s="95"/>
       <c r="K245" s="95"/>
@@ -52024,17 +52033,17 @@
         <v>574</v>
       </c>
       <c r="B246" s="206"/>
-      <c r="C246" s="289" t="s">
+      <c r="C246" s="271" t="s">
         <v>575</v>
       </c>
-      <c r="D246" s="289"/>
-      <c r="E246" s="289">
+      <c r="D246" s="271"/>
+      <c r="E246" s="271">
         <f>'Resultados Informe Final'!D15</f>
         <v>0</v>
       </c>
-      <c r="F246" s="289"/>
-      <c r="G246" s="289"/>
-      <c r="H246" s="289"/>
+      <c r="F246" s="271"/>
+      <c r="G246" s="271"/>
+      <c r="H246" s="271"/>
       <c r="I246" s="95"/>
       <c r="J246" s="95"/>
       <c r="K246" s="95"/>
@@ -52052,17 +52061,17 @@
     <row r="247" spans="1:21" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="206"/>
       <c r="B247" s="206"/>
-      <c r="C247" s="289" t="s">
+      <c r="C247" s="271" t="s">
         <v>576</v>
       </c>
-      <c r="D247" s="289"/>
-      <c r="E247" s="289" t="str">
+      <c r="D247" s="271"/>
+      <c r="E247" s="271" t="str">
         <f>'Resultados Informe Final'!D16</f>
         <v/>
       </c>
-      <c r="F247" s="289"/>
-      <c r="G247" s="289"/>
-      <c r="H247" s="289"/>
+      <c r="F247" s="271"/>
+      <c r="G247" s="271"/>
+      <c r="H247" s="271"/>
       <c r="I247" s="95"/>
       <c r="J247" s="95"/>
       <c r="K247" s="95"/>
@@ -52082,17 +52091,17 @@
         <v>577</v>
       </c>
       <c r="B248" s="206"/>
-      <c r="C248" s="289" t="s">
+      <c r="C248" s="271" t="s">
         <v>578</v>
       </c>
-      <c r="D248" s="289"/>
-      <c r="E248" s="289">
+      <c r="D248" s="271"/>
+      <c r="E248" s="271">
         <f>'Resultados Informe Final'!D17</f>
         <v>5</v>
       </c>
-      <c r="F248" s="289"/>
-      <c r="G248" s="289"/>
-      <c r="H248" s="289"/>
+      <c r="F248" s="271"/>
+      <c r="G248" s="271"/>
+      <c r="H248" s="271"/>
       <c r="I248" s="95"/>
       <c r="J248" s="95"/>
       <c r="K248" s="95"/>
@@ -52110,17 +52119,17 @@
     <row r="249" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="206"/>
       <c r="B249" s="206"/>
-      <c r="C249" s="289" t="s">
+      <c r="C249" s="271" t="s">
         <v>579</v>
       </c>
-      <c r="D249" s="289"/>
-      <c r="E249" s="289" t="str">
+      <c r="D249" s="271"/>
+      <c r="E249" s="271" t="str">
         <f>'Resultados Informe Final'!D18</f>
         <v/>
       </c>
-      <c r="F249" s="289"/>
-      <c r="G249" s="289"/>
-      <c r="H249" s="289"/>
+      <c r="F249" s="271"/>
+      <c r="G249" s="271"/>
+      <c r="H249" s="271"/>
       <c r="I249" s="95"/>
       <c r="J249" s="95"/>
       <c r="K249" s="95"/>
@@ -52140,17 +52149,17 @@
         <v>580</v>
       </c>
       <c r="B250" s="206"/>
-      <c r="C250" s="289" t="s">
+      <c r="C250" s="271" t="s">
         <v>581</v>
       </c>
-      <c r="D250" s="289"/>
-      <c r="E250" s="289">
+      <c r="D250" s="271"/>
+      <c r="E250" s="271">
         <f>'Resultados Informe Final'!D19</f>
         <v>7</v>
       </c>
-      <c r="F250" s="289"/>
-      <c r="G250" s="289"/>
-      <c r="H250" s="289"/>
+      <c r="F250" s="271"/>
+      <c r="G250" s="271"/>
+      <c r="H250" s="271"/>
       <c r="I250" s="95"/>
       <c r="J250" s="95"/>
       <c r="K250" s="95"/>
@@ -52168,17 +52177,17 @@
     <row r="251" spans="1:21" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="206"/>
       <c r="B251" s="206"/>
-      <c r="C251" s="289" t="s">
+      <c r="C251" s="271" t="s">
         <v>582</v>
       </c>
-      <c r="D251" s="289"/>
-      <c r="E251" s="289" t="str">
+      <c r="D251" s="271"/>
+      <c r="E251" s="271" t="str">
         <f>'Resultados Informe Final'!D20</f>
         <v/>
       </c>
-      <c r="F251" s="289"/>
-      <c r="G251" s="289"/>
-      <c r="H251" s="289"/>
+      <c r="F251" s="271"/>
+      <c r="G251" s="271"/>
+      <c r="H251" s="271"/>
       <c r="I251" s="95"/>
       <c r="J251" s="95"/>
       <c r="K251" s="95"/>
@@ -52198,17 +52207,17 @@
         <v>583</v>
       </c>
       <c r="B252" s="206"/>
-      <c r="C252" s="289" t="s">
+      <c r="C252" s="271" t="s">
         <v>584</v>
       </c>
-      <c r="D252" s="289"/>
-      <c r="E252" s="289">
+      <c r="D252" s="271"/>
+      <c r="E252" s="271">
         <f>'Resultados Informe Final'!D21</f>
         <v>5</v>
       </c>
-      <c r="F252" s="289"/>
-      <c r="G252" s="289"/>
-      <c r="H252" s="289"/>
+      <c r="F252" s="271"/>
+      <c r="G252" s="271"/>
+      <c r="H252" s="271"/>
       <c r="I252" s="95"/>
       <c r="J252" s="95"/>
       <c r="K252" s="95"/>
@@ -52226,17 +52235,17 @@
     <row r="253" spans="1:21" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="206"/>
       <c r="B253" s="206"/>
-      <c r="C253" s="289" t="s">
+      <c r="C253" s="271" t="s">
         <v>585</v>
       </c>
-      <c r="D253" s="289"/>
-      <c r="E253" s="289" t="str">
+      <c r="D253" s="271"/>
+      <c r="E253" s="271" t="str">
         <f>'Resultados Informe Final'!D22</f>
         <v/>
       </c>
-      <c r="F253" s="289"/>
-      <c r="G253" s="289"/>
-      <c r="H253" s="289"/>
+      <c r="F253" s="271"/>
+      <c r="G253" s="271"/>
+      <c r="H253" s="271"/>
       <c r="I253" s="95"/>
       <c r="J253" s="95"/>
       <c r="K253" s="95"/>
@@ -52252,21 +52261,21 @@
       <c r="U253" s="95"/>
     </row>
     <row r="254" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="288" t="s">
+      <c r="A254" s="272" t="s">
         <v>586</v>
       </c>
-      <c r="B254" s="288"/>
-      <c r="C254" s="289" t="s">
+      <c r="B254" s="272"/>
+      <c r="C254" s="271" t="s">
         <v>587</v>
       </c>
-      <c r="D254" s="289"/>
-      <c r="E254" s="289" t="str">
+      <c r="D254" s="271"/>
+      <c r="E254" s="271" t="str">
         <f>'Resultados Informe Final'!D23</f>
         <v>N/A</v>
       </c>
-      <c r="F254" s="289"/>
-      <c r="G254" s="289"/>
-      <c r="H254" s="289"/>
+      <c r="F254" s="271"/>
+      <c r="G254" s="271"/>
+      <c r="H254" s="271"/>
       <c r="I254" s="95"/>
       <c r="J254" s="95"/>
       <c r="K254" s="95"/>
@@ -52282,19 +52291,19 @@
       <c r="U254" s="95"/>
     </row>
     <row r="255" spans="1:21" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A255" s="288"/>
-      <c r="B255" s="288"/>
-      <c r="C255" s="289" t="s">
+      <c r="A255" s="272"/>
+      <c r="B255" s="272"/>
+      <c r="C255" s="271" t="s">
         <v>588</v>
       </c>
-      <c r="D255" s="289"/>
-      <c r="E255" s="289" t="str">
+      <c r="D255" s="271"/>
+      <c r="E255" s="271" t="str">
         <f>'Resultados Informe Final'!D24</f>
         <v/>
       </c>
-      <c r="F255" s="289"/>
-      <c r="G255" s="289"/>
-      <c r="H255" s="289"/>
+      <c r="F255" s="271"/>
+      <c r="G255" s="271"/>
+      <c r="H255" s="271"/>
       <c r="I255" s="95"/>
       <c r="J255" s="95"/>
       <c r="K255" s="95"/>
@@ -52314,17 +52323,17 @@
         <v>589</v>
       </c>
       <c r="B256" s="206"/>
-      <c r="C256" s="289" t="s">
+      <c r="C256" s="271" t="s">
         <v>590</v>
       </c>
-      <c r="D256" s="289"/>
-      <c r="E256" s="289">
+      <c r="D256" s="271"/>
+      <c r="E256" s="271">
         <f>'Resultados Informe Final'!D25</f>
         <v>7</v>
       </c>
-      <c r="F256" s="289"/>
-      <c r="G256" s="289"/>
-      <c r="H256" s="289"/>
+      <c r="F256" s="271"/>
+      <c r="G256" s="271"/>
+      <c r="H256" s="271"/>
       <c r="I256" s="95"/>
       <c r="J256" s="95"/>
       <c r="K256" s="95"/>
@@ -52342,17 +52351,17 @@
     <row r="257" spans="1:21" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="206"/>
       <c r="B257" s="206"/>
-      <c r="C257" s="289" t="s">
+      <c r="C257" s="271" t="s">
         <v>591</v>
       </c>
-      <c r="D257" s="289"/>
-      <c r="E257" s="289" t="str">
+      <c r="D257" s="271"/>
+      <c r="E257" s="271" t="str">
         <f>'Resultados Informe Final'!D26</f>
         <v/>
       </c>
-      <c r="F257" s="289"/>
-      <c r="G257" s="289"/>
-      <c r="H257" s="289"/>
+      <c r="F257" s="271"/>
+      <c r="G257" s="271"/>
+      <c r="H257" s="271"/>
       <c r="I257" s="95"/>
       <c r="J257" s="95"/>
       <c r="K257" s="95"/>
@@ -52372,17 +52381,17 @@
         <v>592</v>
       </c>
       <c r="B258" s="206"/>
-      <c r="C258" s="289" t="s">
+      <c r="C258" s="271" t="s">
         <v>593</v>
       </c>
-      <c r="D258" s="289"/>
-      <c r="E258" s="289">
+      <c r="D258" s="271"/>
+      <c r="E258" s="271">
         <f>'Resultados Informe Final'!D27</f>
         <v>8</v>
       </c>
-      <c r="F258" s="289"/>
-      <c r="G258" s="289"/>
-      <c r="H258" s="289"/>
+      <c r="F258" s="271"/>
+      <c r="G258" s="271"/>
+      <c r="H258" s="271"/>
       <c r="I258" s="95"/>
       <c r="J258" s="95"/>
       <c r="K258" s="95"/>
@@ -52400,17 +52409,17 @@
     <row r="259" spans="1:21" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="206"/>
       <c r="B259" s="206"/>
-      <c r="C259" s="289" t="s">
+      <c r="C259" s="271" t="s">
         <v>594</v>
       </c>
-      <c r="D259" s="289"/>
-      <c r="E259" s="289" t="str">
+      <c r="D259" s="271"/>
+      <c r="E259" s="271" t="str">
         <f>'Resultados Informe Final'!D28</f>
         <v/>
       </c>
-      <c r="F259" s="289"/>
-      <c r="G259" s="289"/>
-      <c r="H259" s="289"/>
+      <c r="F259" s="271"/>
+      <c r="G259" s="271"/>
+      <c r="H259" s="271"/>
       <c r="I259" s="95"/>
       <c r="J259" s="95"/>
       <c r="K259" s="95"/>
@@ -52430,17 +52439,17 @@
         <v>595</v>
       </c>
       <c r="B260" s="206"/>
-      <c r="C260" s="289" t="s">
+      <c r="C260" s="271" t="s">
         <v>593</v>
       </c>
-      <c r="D260" s="289"/>
-      <c r="E260" s="289">
+      <c r="D260" s="271"/>
+      <c r="E260" s="271">
         <f>'Resultados Informe Final'!D29</f>
         <v>6</v>
       </c>
-      <c r="F260" s="289"/>
-      <c r="G260" s="289"/>
-      <c r="H260" s="289"/>
+      <c r="F260" s="271"/>
+      <c r="G260" s="271"/>
+      <c r="H260" s="271"/>
       <c r="I260" s="95"/>
       <c r="J260" s="95"/>
       <c r="K260" s="95"/>
@@ -52458,17 +52467,17 @@
     <row r="261" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="206"/>
       <c r="B261" s="206"/>
-      <c r="C261" s="289" t="s">
+      <c r="C261" s="271" t="s">
         <v>596</v>
       </c>
-      <c r="D261" s="289"/>
-      <c r="E261" s="289" t="str">
+      <c r="D261" s="271"/>
+      <c r="E261" s="271" t="str">
         <f>'Resultados Informe Final'!D30</f>
         <v/>
       </c>
-      <c r="F261" s="289"/>
-      <c r="G261" s="289"/>
-      <c r="H261" s="289"/>
+      <c r="F261" s="271"/>
+      <c r="G261" s="271"/>
+      <c r="H261" s="271"/>
       <c r="I261" s="95"/>
       <c r="J261" s="95"/>
       <c r="K261" s="95"/>
@@ -52488,17 +52497,17 @@
         <v>597</v>
       </c>
       <c r="B262" s="206"/>
-      <c r="C262" s="289" t="s">
+      <c r="C262" s="271" t="s">
         <v>598</v>
       </c>
-      <c r="D262" s="289"/>
-      <c r="E262" s="289">
+      <c r="D262" s="271"/>
+      <c r="E262" s="271">
         <f>'Resultados Informe Final'!D31</f>
         <v>8</v>
       </c>
-      <c r="F262" s="289"/>
-      <c r="G262" s="289"/>
-      <c r="H262" s="289"/>
+      <c r="F262" s="271"/>
+      <c r="G262" s="271"/>
+      <c r="H262" s="271"/>
       <c r="I262" s="95"/>
       <c r="J262" s="95"/>
       <c r="K262" s="95"/>
@@ -52516,17 +52525,17 @@
     <row r="263" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="206"/>
       <c r="B263" s="206"/>
-      <c r="C263" s="289" t="s">
+      <c r="C263" s="271" t="s">
         <v>566</v>
       </c>
-      <c r="D263" s="289"/>
-      <c r="E263" s="289">
+      <c r="D263" s="271"/>
+      <c r="E263" s="271">
         <f>'Resultados Informe Final'!D32</f>
         <v>0</v>
       </c>
-      <c r="F263" s="289"/>
-      <c r="G263" s="289"/>
-      <c r="H263" s="289"/>
+      <c r="F263" s="271"/>
+      <c r="G263" s="271"/>
+      <c r="H263" s="271"/>
       <c r="I263" s="95"/>
       <c r="J263" s="95"/>
       <c r="K263" s="95"/>
@@ -53076,19 +53085,19 @@
       <c r="U286" s="95"/>
     </row>
     <row r="287" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="299" t="s">
+      <c r="A287" s="262" t="s">
         <v>246</v>
       </c>
-      <c r="B287" s="299"/>
-      <c r="C287" s="299" t="s">
+      <c r="B287" s="262"/>
+      <c r="C287" s="262" t="s">
         <v>248</v>
       </c>
-      <c r="D287" s="299"/>
-      <c r="E287" s="299"/>
-      <c r="F287" s="300" t="s">
+      <c r="D287" s="262"/>
+      <c r="E287" s="262"/>
+      <c r="F287" s="263" t="s">
         <v>364</v>
       </c>
-      <c r="G287" s="300"/>
+      <c r="G287" s="263"/>
       <c r="H287" s="189" t="str">
         <f>Cálculos!I178</f>
         <v>Puntuación del criterio</v>
@@ -53108,21 +53117,21 @@
       <c r="U287" s="95"/>
     </row>
     <row r="288" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="294" t="s">
+      <c r="A288" s="268" t="s">
         <v>250</v>
       </c>
-      <c r="B288" s="294"/>
-      <c r="C288" s="297" t="s">
+      <c r="B288" s="268"/>
+      <c r="C288" s="260" t="s">
         <v>135</v>
       </c>
-      <c r="D288" s="297"/>
-      <c r="E288" s="297"/>
-      <c r="F288" s="301">
+      <c r="D288" s="260"/>
+      <c r="E288" s="260"/>
+      <c r="F288" s="256">
         <f>Cálculos!E179</f>
         <v>4.5</v>
       </c>
-      <c r="G288" s="301"/>
-      <c r="H288" s="290">
+      <c r="G288" s="256"/>
+      <c r="H288" s="264">
         <f>Cálculos!I179</f>
         <v>2.625</v>
       </c>
@@ -53141,19 +53150,19 @@
       <c r="U288" s="95"/>
     </row>
     <row r="289" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A289" s="294"/>
-      <c r="B289" s="294"/>
-      <c r="C289" s="298" t="s">
+      <c r="A289" s="268"/>
+      <c r="B289" s="268"/>
+      <c r="C289" s="261" t="s">
         <v>136</v>
       </c>
-      <c r="D289" s="298"/>
-      <c r="E289" s="298"/>
-      <c r="F289" s="302">
+      <c r="D289" s="261"/>
+      <c r="E289" s="261"/>
+      <c r="F289" s="257">
         <f>Cálculos!E180</f>
         <v>0</v>
       </c>
-      <c r="G289" s="302"/>
-      <c r="H289" s="290"/>
+      <c r="G289" s="257"/>
+      <c r="H289" s="264"/>
       <c r="I289" s="95"/>
       <c r="J289" s="95"/>
       <c r="K289" s="95"/>
@@ -53169,19 +53178,19 @@
       <c r="U289" s="95"/>
     </row>
     <row r="290" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A290" s="294"/>
-      <c r="B290" s="294"/>
-      <c r="C290" s="297" t="s">
+      <c r="A290" s="268"/>
+      <c r="B290" s="268"/>
+      <c r="C290" s="260" t="s">
         <v>137</v>
       </c>
-      <c r="D290" s="297"/>
-      <c r="E290" s="297"/>
-      <c r="F290" s="301">
+      <c r="D290" s="260"/>
+      <c r="E290" s="260"/>
+      <c r="F290" s="256">
         <f>Cálculos!E181</f>
         <v>2.5</v>
       </c>
-      <c r="G290" s="301"/>
-      <c r="H290" s="290"/>
+      <c r="G290" s="256"/>
+      <c r="H290" s="264"/>
       <c r="I290" s="95"/>
       <c r="J290" s="95"/>
       <c r="K290" s="95"/>
@@ -53197,19 +53206,19 @@
       <c r="U290" s="95"/>
     </row>
     <row r="291" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A291" s="294"/>
-      <c r="B291" s="294"/>
-      <c r="C291" s="298" t="s">
+      <c r="A291" s="268"/>
+      <c r="B291" s="268"/>
+      <c r="C291" s="261" t="s">
         <v>138</v>
       </c>
-      <c r="D291" s="298"/>
-      <c r="E291" s="298"/>
-      <c r="F291" s="302">
+      <c r="D291" s="261"/>
+      <c r="E291" s="261"/>
+      <c r="F291" s="257">
         <f>Cálculos!E182</f>
         <v>3.5</v>
       </c>
-      <c r="G291" s="302"/>
-      <c r="H291" s="290"/>
+      <c r="G291" s="257"/>
+      <c r="H291" s="264"/>
       <c r="I291" s="95"/>
       <c r="J291" s="95"/>
       <c r="K291" s="95"/>
@@ -53225,19 +53234,19 @@
       <c r="U291" s="95"/>
     </row>
     <row r="292" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A292" s="294"/>
-      <c r="B292" s="294"/>
-      <c r="C292" s="297" t="s">
+      <c r="A292" s="268"/>
+      <c r="B292" s="268"/>
+      <c r="C292" s="260" t="s">
         <v>251</v>
       </c>
-      <c r="D292" s="297"/>
-      <c r="E292" s="297"/>
-      <c r="F292" s="301" t="str">
+      <c r="D292" s="260"/>
+      <c r="E292" s="260"/>
+      <c r="F292" s="256" t="str">
         <f>Cálculos!E183</f>
         <v>N/A</v>
       </c>
-      <c r="G292" s="301"/>
-      <c r="H292" s="290"/>
+      <c r="G292" s="256"/>
+      <c r="H292" s="264"/>
       <c r="I292" s="95"/>
       <c r="J292" s="95"/>
       <c r="K292" s="95"/>
@@ -53257,17 +53266,17 @@
         <v>252</v>
       </c>
       <c r="B293" s="206"/>
-      <c r="C293" s="298" t="s">
+      <c r="C293" s="261" t="s">
         <v>91</v>
       </c>
-      <c r="D293" s="298"/>
-      <c r="E293" s="298"/>
-      <c r="F293" s="302" t="str">
+      <c r="D293" s="261"/>
+      <c r="E293" s="261"/>
+      <c r="F293" s="257" t="str">
         <f>Cálculos!E184</f>
         <v>N/A</v>
       </c>
-      <c r="G293" s="302"/>
-      <c r="H293" s="291" t="str">
+      <c r="G293" s="257"/>
+      <c r="H293" s="265" t="str">
         <f>Cálculos!I184</f>
         <v>N/A</v>
       </c>
@@ -53288,17 +53297,17 @@
     <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294" s="206"/>
       <c r="B294" s="206"/>
-      <c r="C294" s="297" t="s">
+      <c r="C294" s="260" t="s">
         <v>95</v>
       </c>
-      <c r="D294" s="297"/>
-      <c r="E294" s="297"/>
-      <c r="F294" s="301" t="str">
+      <c r="D294" s="260"/>
+      <c r="E294" s="260"/>
+      <c r="F294" s="256" t="str">
         <f>Cálculos!E185</f>
         <v>N/A</v>
       </c>
-      <c r="G294" s="301"/>
-      <c r="H294" s="291"/>
+      <c r="G294" s="256"/>
+      <c r="H294" s="265"/>
       <c r="I294" s="95"/>
       <c r="J294" s="95"/>
       <c r="K294" s="95"/>
@@ -53314,21 +53323,21 @@
       <c r="U294" s="95"/>
     </row>
     <row r="295" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A295" s="294" t="s">
+      <c r="A295" s="268" t="s">
         <v>253</v>
       </c>
-      <c r="B295" s="294"/>
-      <c r="C295" s="298" t="s">
+      <c r="B295" s="268"/>
+      <c r="C295" s="261" t="s">
         <v>105</v>
       </c>
-      <c r="D295" s="298"/>
-      <c r="E295" s="298"/>
-      <c r="F295" s="302">
+      <c r="D295" s="261"/>
+      <c r="E295" s="261"/>
+      <c r="F295" s="257">
         <f>Cálculos!E186</f>
         <v>3.7053571428571432</v>
       </c>
-      <c r="G295" s="302"/>
-      <c r="H295" s="292">
+      <c r="G295" s="257"/>
+      <c r="H295" s="266">
         <f>Cálculos!I186</f>
         <v>3.5793283362727806</v>
       </c>
@@ -53347,19 +53356,19 @@
       <c r="U295" s="95"/>
     </row>
     <row r="296" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A296" s="294"/>
-      <c r="B296" s="294"/>
-      <c r="C296" s="297" t="s">
+      <c r="A296" s="268"/>
+      <c r="B296" s="268"/>
+      <c r="C296" s="260" t="s">
         <v>107</v>
       </c>
-      <c r="D296" s="297"/>
-      <c r="E296" s="297"/>
-      <c r="F296" s="301">
+      <c r="D296" s="260"/>
+      <c r="E296" s="260"/>
+      <c r="F296" s="256">
         <f>Cálculos!E187</f>
         <v>4.1517857142857135</v>
       </c>
-      <c r="G296" s="301"/>
-      <c r="H296" s="292"/>
+      <c r="G296" s="256"/>
+      <c r="H296" s="266"/>
       <c r="I296" s="95"/>
       <c r="J296" s="95"/>
       <c r="K296" s="95"/>
@@ -53375,19 +53384,19 @@
       <c r="U296" s="95"/>
     </row>
     <row r="297" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A297" s="294"/>
-      <c r="B297" s="294"/>
-      <c r="C297" s="298" t="s">
+      <c r="A297" s="268"/>
+      <c r="B297" s="268"/>
+      <c r="C297" s="261" t="s">
         <v>108</v>
       </c>
-      <c r="D297" s="298"/>
-      <c r="E297" s="298"/>
-      <c r="F297" s="302">
+      <c r="D297" s="261"/>
+      <c r="E297" s="261"/>
+      <c r="F297" s="257">
         <f>Cálculos!E188</f>
         <v>3.75</v>
       </c>
-      <c r="G297" s="302"/>
-      <c r="H297" s="292"/>
+      <c r="G297" s="257"/>
+      <c r="H297" s="266"/>
       <c r="I297" s="95"/>
       <c r="J297" s="95"/>
       <c r="K297" s="95"/>
@@ -53403,19 +53412,19 @@
       <c r="U297" s="95"/>
     </row>
     <row r="298" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A298" s="294"/>
-      <c r="B298" s="294"/>
-      <c r="C298" s="297" t="s">
+      <c r="A298" s="268"/>
+      <c r="B298" s="268"/>
+      <c r="C298" s="260" t="s">
         <v>109</v>
       </c>
-      <c r="D298" s="297"/>
-      <c r="E298" s="297"/>
-      <c r="F298" s="301">
+      <c r="D298" s="260"/>
+      <c r="E298" s="260"/>
+      <c r="F298" s="256">
         <f>Cálculos!E189</f>
         <v>3.8616071428571419</v>
       </c>
-      <c r="G298" s="301"/>
-      <c r="H298" s="292"/>
+      <c r="G298" s="256"/>
+      <c r="H298" s="266"/>
       <c r="I298" s="95"/>
       <c r="J298" s="95"/>
       <c r="K298" s="95"/>
@@ -53431,19 +53440,19 @@
       <c r="U298" s="95"/>
     </row>
     <row r="299" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A299" s="294"/>
-      <c r="B299" s="294"/>
-      <c r="C299" s="298" t="s">
+      <c r="A299" s="268"/>
+      <c r="B299" s="268"/>
+      <c r="C299" s="261" t="s">
         <v>110</v>
       </c>
-      <c r="D299" s="298"/>
-      <c r="E299" s="298"/>
-      <c r="F299" s="302">
+      <c r="D299" s="261"/>
+      <c r="E299" s="261"/>
+      <c r="F299" s="257">
         <f>Cálculos!E190</f>
         <v>3.75</v>
       </c>
-      <c r="G299" s="302"/>
-      <c r="H299" s="292"/>
+      <c r="G299" s="257"/>
+      <c r="H299" s="266"/>
       <c r="I299" s="95"/>
       <c r="J299" s="95"/>
       <c r="K299" s="95"/>
@@ -53459,19 +53468,19 @@
       <c r="U299" s="95"/>
     </row>
     <row r="300" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A300" s="294"/>
-      <c r="B300" s="294"/>
-      <c r="C300" s="297" t="s">
+      <c r="A300" s="268"/>
+      <c r="B300" s="268"/>
+      <c r="C300" s="260" t="s">
         <v>111</v>
       </c>
-      <c r="D300" s="297"/>
-      <c r="E300" s="297"/>
-      <c r="F300" s="301">
+      <c r="D300" s="260"/>
+      <c r="E300" s="260"/>
+      <c r="F300" s="256">
         <f>Cálculos!E191</f>
         <v>3.3035714285714284</v>
       </c>
-      <c r="G300" s="301"/>
-      <c r="H300" s="292"/>
+      <c r="G300" s="256"/>
+      <c r="H300" s="266"/>
       <c r="I300" s="95"/>
       <c r="J300" s="95"/>
       <c r="K300" s="95"/>
@@ -53487,19 +53496,19 @@
       <c r="U300" s="95"/>
     </row>
     <row r="301" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A301" s="294"/>
-      <c r="B301" s="294"/>
-      <c r="C301" s="298" t="s">
+      <c r="A301" s="268"/>
+      <c r="B301" s="268"/>
+      <c r="C301" s="261" t="s">
         <v>112</v>
       </c>
-      <c r="D301" s="298"/>
-      <c r="E301" s="298"/>
-      <c r="F301" s="302">
+      <c r="D301" s="261"/>
+      <c r="E301" s="261"/>
+      <c r="F301" s="257">
         <f>Cálculos!E192</f>
         <v>2.65625</v>
       </c>
-      <c r="G301" s="302"/>
-      <c r="H301" s="292"/>
+      <c r="G301" s="257"/>
+      <c r="H301" s="266"/>
       <c r="I301" s="95"/>
       <c r="J301" s="95"/>
       <c r="K301" s="95"/>
@@ -53515,19 +53524,19 @@
       <c r="U301" s="95"/>
     </row>
     <row r="302" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A302" s="294"/>
-      <c r="B302" s="294"/>
-      <c r="C302" s="297" t="s">
+      <c r="A302" s="268"/>
+      <c r="B302" s="268"/>
+      <c r="C302" s="260" t="s">
         <v>113</v>
       </c>
-      <c r="D302" s="297"/>
-      <c r="E302" s="297"/>
-      <c r="F302" s="301">
+      <c r="D302" s="260"/>
+      <c r="E302" s="260"/>
+      <c r="F302" s="256">
         <f>Cálculos!E193</f>
         <v>3.9550264550264558</v>
       </c>
-      <c r="G302" s="301"/>
-      <c r="H302" s="292"/>
+      <c r="G302" s="256"/>
+      <c r="H302" s="266"/>
       <c r="I302" s="95"/>
       <c r="J302" s="95"/>
       <c r="K302" s="95"/>
@@ -53543,19 +53552,19 @@
       <c r="U302" s="95"/>
     </row>
     <row r="303" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A303" s="294"/>
-      <c r="B303" s="294"/>
-      <c r="C303" s="298" t="s">
+      <c r="A303" s="268"/>
+      <c r="B303" s="268"/>
+      <c r="C303" s="261" t="s">
         <v>114</v>
       </c>
-      <c r="D303" s="298"/>
-      <c r="E303" s="298"/>
-      <c r="F303" s="302">
+      <c r="D303" s="261"/>
+      <c r="E303" s="261"/>
+      <c r="F303" s="257">
         <f>Cálculos!E194</f>
         <v>3.0803571428571432</v>
       </c>
-      <c r="G303" s="302"/>
-      <c r="H303" s="292"/>
+      <c r="G303" s="257"/>
+      <c r="H303" s="266"/>
       <c r="I303" s="95"/>
       <c r="J303" s="95"/>
       <c r="K303" s="95"/>
@@ -53575,17 +53584,17 @@
         <v>368</v>
       </c>
       <c r="B304" s="206"/>
-      <c r="C304" s="297" t="s">
+      <c r="C304" s="260" t="s">
         <v>373</v>
       </c>
-      <c r="D304" s="297"/>
-      <c r="E304" s="297"/>
-      <c r="F304" s="301">
+      <c r="D304" s="260"/>
+      <c r="E304" s="260"/>
+      <c r="F304" s="256">
         <f>Cálculos!E195</f>
         <v>3.5</v>
       </c>
-      <c r="G304" s="301"/>
-      <c r="H304" s="291">
+      <c r="G304" s="256"/>
+      <c r="H304" s="265">
         <f>Cálculos!I195</f>
         <v>3.7153846153846155</v>
       </c>
@@ -53606,17 +53615,17 @@
     <row r="305" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A305" s="206"/>
       <c r="B305" s="206"/>
-      <c r="C305" s="298" t="s">
+      <c r="C305" s="261" t="s">
         <v>374</v>
       </c>
-      <c r="D305" s="298"/>
-      <c r="E305" s="298"/>
-      <c r="F305" s="302">
+      <c r="D305" s="261"/>
+      <c r="E305" s="261"/>
+      <c r="F305" s="257">
         <f>Cálculos!E196</f>
         <v>4.0769230769230766</v>
       </c>
-      <c r="G305" s="302"/>
-      <c r="H305" s="291"/>
+      <c r="G305" s="257"/>
+      <c r="H305" s="265"/>
       <c r="I305" s="95"/>
       <c r="J305" s="95"/>
       <c r="K305" s="95"/>
@@ -53634,17 +53643,17 @@
     <row r="306" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A306" s="206"/>
       <c r="B306" s="206"/>
-      <c r="C306" s="297" t="s">
+      <c r="C306" s="260" t="s">
         <v>369</v>
       </c>
-      <c r="D306" s="297"/>
-      <c r="E306" s="297"/>
-      <c r="F306" s="301">
+      <c r="D306" s="260"/>
+      <c r="E306" s="260"/>
+      <c r="F306" s="256">
         <f>Cálculos!E197</f>
         <v>4</v>
       </c>
-      <c r="G306" s="301"/>
-      <c r="H306" s="291"/>
+      <c r="G306" s="256"/>
+      <c r="H306" s="265"/>
       <c r="I306" s="95"/>
       <c r="J306" s="95"/>
       <c r="K306" s="95"/>
@@ -53662,17 +53671,17 @@
     <row r="307" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A307" s="206"/>
       <c r="B307" s="206"/>
-      <c r="C307" s="298" t="s">
+      <c r="C307" s="261" t="s">
         <v>370</v>
       </c>
-      <c r="D307" s="298"/>
-      <c r="E307" s="298"/>
-      <c r="F307" s="302">
+      <c r="D307" s="261"/>
+      <c r="E307" s="261"/>
+      <c r="F307" s="257">
         <f>Cálculos!E198</f>
         <v>3</v>
       </c>
-      <c r="G307" s="302"/>
-      <c r="H307" s="291"/>
+      <c r="G307" s="257"/>
+      <c r="H307" s="265"/>
       <c r="I307" s="95"/>
       <c r="J307" s="95"/>
       <c r="K307" s="95"/>
@@ -53690,17 +53699,17 @@
     <row r="308" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A308" s="206"/>
       <c r="B308" s="206"/>
-      <c r="C308" s="297" t="s">
+      <c r="C308" s="260" t="s">
         <v>371</v>
       </c>
-      <c r="D308" s="297"/>
-      <c r="E308" s="297"/>
-      <c r="F308" s="301">
+      <c r="D308" s="260"/>
+      <c r="E308" s="260"/>
+      <c r="F308" s="256">
         <f>Cálculos!E199</f>
         <v>4</v>
       </c>
-      <c r="G308" s="301"/>
-      <c r="H308" s="291"/>
+      <c r="G308" s="256"/>
+      <c r="H308" s="265"/>
       <c r="I308" s="95"/>
       <c r="J308" s="95"/>
       <c r="K308" s="95"/>
@@ -53769,19 +53778,19 @@
       <c r="U310" s="95"/>
     </row>
     <row r="311" spans="1:21" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="299" t="s">
+      <c r="A311" s="262" t="s">
         <v>246</v>
       </c>
-      <c r="B311" s="299"/>
-      <c r="C311" s="299" t="s">
+      <c r="B311" s="262"/>
+      <c r="C311" s="262" t="s">
         <v>248</v>
       </c>
-      <c r="D311" s="299"/>
-      <c r="E311" s="299"/>
-      <c r="F311" s="305" t="s">
+      <c r="D311" s="262"/>
+      <c r="E311" s="262"/>
+      <c r="F311" s="258" t="s">
         <v>364</v>
       </c>
-      <c r="G311" s="306"/>
+      <c r="G311" s="259"/>
       <c r="H311" s="189" t="s">
         <v>366</v>
       </c>
@@ -53800,21 +53809,21 @@
       <c r="U311" s="95"/>
     </row>
     <row r="312" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A312" s="295" t="s">
+      <c r="A312" s="269" t="s">
         <v>254</v>
       </c>
-      <c r="B312" s="295"/>
-      <c r="C312" s="298" t="s">
+      <c r="B312" s="269"/>
+      <c r="C312" s="261" t="s">
         <v>102</v>
       </c>
-      <c r="D312" s="298"/>
-      <c r="E312" s="298"/>
-      <c r="F312" s="302">
+      <c r="D312" s="261"/>
+      <c r="E312" s="261"/>
+      <c r="F312" s="257">
         <f>Cálculos!E202</f>
         <v>3.660714285714286</v>
       </c>
-      <c r="G312" s="302"/>
-      <c r="H312" s="293">
+      <c r="G312" s="257"/>
+      <c r="H312" s="267">
         <f>Cálculos!I202</f>
         <v>3.5390211640211637</v>
       </c>
@@ -53833,19 +53842,19 @@
       <c r="U312" s="95"/>
     </row>
     <row r="313" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A313" s="296"/>
-      <c r="B313" s="296"/>
-      <c r="C313" s="297" t="s">
+      <c r="A313" s="270"/>
+      <c r="B313" s="270"/>
+      <c r="C313" s="260" t="s">
         <v>103</v>
       </c>
-      <c r="D313" s="297"/>
-      <c r="E313" s="297"/>
-      <c r="F313" s="301">
+      <c r="D313" s="260"/>
+      <c r="E313" s="260"/>
+      <c r="F313" s="256">
         <f>Cálculos!E203</f>
         <v>3.7516534391534395</v>
       </c>
-      <c r="G313" s="301"/>
-      <c r="H313" s="292"/>
+      <c r="G313" s="256"/>
+      <c r="H313" s="266"/>
       <c r="I313" s="95"/>
       <c r="J313" s="95"/>
       <c r="K313" s="95"/>
@@ -53861,19 +53870,19 @@
       <c r="U313" s="95"/>
     </row>
     <row r="314" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A314" s="296"/>
-      <c r="B314" s="296"/>
-      <c r="C314" s="298" t="s">
+      <c r="A314" s="270"/>
+      <c r="B314" s="270"/>
+      <c r="C314" s="261" t="s">
         <v>104</v>
       </c>
-      <c r="D314" s="298"/>
-      <c r="E314" s="298"/>
-      <c r="F314" s="302">
+      <c r="D314" s="261"/>
+      <c r="E314" s="261"/>
+      <c r="F314" s="257">
         <f>Cálculos!E204</f>
         <v>3.8607804232804233</v>
       </c>
-      <c r="G314" s="302"/>
-      <c r="H314" s="292"/>
+      <c r="G314" s="257"/>
+      <c r="H314" s="266"/>
       <c r="I314" s="95"/>
       <c r="J314" s="95"/>
       <c r="K314" s="95"/>
@@ -53889,19 +53898,19 @@
       <c r="U314" s="95"/>
     </row>
     <row r="315" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A315" s="296"/>
-      <c r="B315" s="296"/>
-      <c r="C315" s="297" t="s">
+      <c r="A315" s="270"/>
+      <c r="B315" s="270"/>
+      <c r="C315" s="260" t="s">
         <v>139</v>
       </c>
-      <c r="D315" s="297"/>
-      <c r="E315" s="297"/>
-      <c r="F315" s="301">
+      <c r="D315" s="260"/>
+      <c r="E315" s="260"/>
+      <c r="F315" s="256">
         <f>Cálculos!E205</f>
         <v>3.5</v>
       </c>
-      <c r="G315" s="301"/>
-      <c r="H315" s="292"/>
+      <c r="G315" s="256"/>
+      <c r="H315" s="266"/>
       <c r="I315" s="95"/>
       <c r="J315" s="95"/>
       <c r="K315" s="95"/>
@@ -53917,19 +53926,19 @@
       <c r="U315" s="95"/>
     </row>
     <row r="316" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A316" s="296"/>
-      <c r="B316" s="296"/>
-      <c r="C316" s="298" t="s">
+      <c r="A316" s="270"/>
+      <c r="B316" s="270"/>
+      <c r="C316" s="261" t="s">
         <v>141</v>
       </c>
-      <c r="D316" s="298"/>
-      <c r="E316" s="298"/>
-      <c r="F316" s="302">
+      <c r="D316" s="261"/>
+      <c r="E316" s="261"/>
+      <c r="F316" s="257">
         <f>Cálculos!E206</f>
         <v>2.5</v>
       </c>
-      <c r="G316" s="302"/>
-      <c r="H316" s="292"/>
+      <c r="G316" s="257"/>
+      <c r="H316" s="266"/>
       <c r="I316" s="95"/>
       <c r="J316" s="95"/>
       <c r="K316" s="95"/>
@@ -53945,19 +53954,19 @@
       <c r="U316" s="95"/>
     </row>
     <row r="317" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A317" s="296"/>
-      <c r="B317" s="296"/>
-      <c r="C317" s="297" t="s">
+      <c r="A317" s="270"/>
+      <c r="B317" s="270"/>
+      <c r="C317" s="260" t="s">
         <v>142</v>
       </c>
-      <c r="D317" s="297"/>
-      <c r="E317" s="297"/>
-      <c r="F317" s="301">
+      <c r="D317" s="260"/>
+      <c r="E317" s="260"/>
+      <c r="F317" s="256">
         <f>Cálculos!E207</f>
         <v>3.5</v>
       </c>
-      <c r="G317" s="301"/>
-      <c r="H317" s="292"/>
+      <c r="G317" s="256"/>
+      <c r="H317" s="266"/>
       <c r="I317" s="95"/>
       <c r="J317" s="95"/>
       <c r="K317" s="95"/>
@@ -53973,19 +53982,19 @@
       <c r="U317" s="95"/>
     </row>
     <row r="318" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A318" s="296"/>
-      <c r="B318" s="296"/>
-      <c r="C318" s="298" t="s">
+      <c r="A318" s="270"/>
+      <c r="B318" s="270"/>
+      <c r="C318" s="261" t="s">
         <v>143</v>
       </c>
-      <c r="D318" s="298"/>
-      <c r="E318" s="298"/>
-      <c r="F318" s="302">
+      <c r="D318" s="261"/>
+      <c r="E318" s="261"/>
+      <c r="F318" s="257">
         <f>Cálculos!E208</f>
         <v>4</v>
       </c>
-      <c r="G318" s="302"/>
-      <c r="H318" s="292"/>
+      <c r="G318" s="257"/>
+      <c r="H318" s="266"/>
       <c r="I318" s="95"/>
       <c r="J318" s="95"/>
       <c r="K318" s="95"/>
@@ -54001,21 +54010,21 @@
       <c r="U318" s="95"/>
     </row>
     <row r="319" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A319" s="218" t="s">
+      <c r="A319" s="217" t="s">
         <v>255</v>
       </c>
-      <c r="B319" s="218"/>
-      <c r="C319" s="297" t="s">
+      <c r="B319" s="217"/>
+      <c r="C319" s="260" t="s">
         <v>115</v>
       </c>
-      <c r="D319" s="297"/>
-      <c r="E319" s="297"/>
-      <c r="F319" s="301">
+      <c r="D319" s="260"/>
+      <c r="E319" s="260"/>
+      <c r="F319" s="256">
         <f>Cálculos!E209</f>
         <v>3.6830357142857144</v>
       </c>
-      <c r="G319" s="301"/>
-      <c r="H319" s="291">
+      <c r="G319" s="256"/>
+      <c r="H319" s="265">
         <f>Cálculos!I209</f>
         <v>3.6553406084656088</v>
       </c>
@@ -54034,19 +54043,19 @@
       <c r="U319" s="95"/>
     </row>
     <row r="320" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A320" s="218"/>
-      <c r="B320" s="218"/>
-      <c r="C320" s="298" t="s">
+      <c r="A320" s="217"/>
+      <c r="B320" s="217"/>
+      <c r="C320" s="261" t="s">
         <v>116</v>
       </c>
-      <c r="D320" s="298"/>
-      <c r="E320" s="298"/>
-      <c r="F320" s="302">
+      <c r="D320" s="261"/>
+      <c r="E320" s="261"/>
+      <c r="F320" s="257">
         <f>Cálculos!E210</f>
         <v>3.6094576719576721</v>
       </c>
-      <c r="G320" s="302"/>
-      <c r="H320" s="291"/>
+      <c r="G320" s="257"/>
+      <c r="H320" s="265"/>
       <c r="I320" s="95"/>
       <c r="J320" s="95"/>
       <c r="K320" s="95"/>
@@ -54062,19 +54071,19 @@
       <c r="U320" s="95"/>
     </row>
     <row r="321" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A321" s="218"/>
-      <c r="B321" s="218"/>
-      <c r="C321" s="297" t="s">
+      <c r="A321" s="217"/>
+      <c r="B321" s="217"/>
+      <c r="C321" s="260" t="s">
         <v>117</v>
       </c>
-      <c r="D321" s="297"/>
-      <c r="E321" s="297"/>
-      <c r="F321" s="301">
+      <c r="D321" s="260"/>
+      <c r="E321" s="260"/>
+      <c r="F321" s="256">
         <f>Cálculos!E211</f>
         <v>4.1369047619047619</v>
       </c>
-      <c r="G321" s="301"/>
-      <c r="H321" s="291"/>
+      <c r="G321" s="256"/>
+      <c r="H321" s="265"/>
       <c r="I321" s="95"/>
       <c r="J321" s="95"/>
       <c r="K321" s="95"/>
@@ -54090,19 +54099,19 @@
       <c r="U321" s="95"/>
     </row>
     <row r="322" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A322" s="218"/>
-      <c r="B322" s="218"/>
-      <c r="C322" s="298" t="s">
+      <c r="A322" s="217"/>
+      <c r="B322" s="217"/>
+      <c r="C322" s="261" t="s">
         <v>118</v>
       </c>
-      <c r="D322" s="298"/>
-      <c r="E322" s="298"/>
-      <c r="F322" s="302">
+      <c r="D322" s="261"/>
+      <c r="E322" s="261"/>
+      <c r="F322" s="257">
         <f>Cálculos!E212</f>
         <v>3.191964285714286</v>
       </c>
-      <c r="G322" s="302"/>
-      <c r="H322" s="291"/>
+      <c r="G322" s="257"/>
+      <c r="H322" s="265"/>
       <c r="I322" s="95"/>
       <c r="J322" s="95"/>
       <c r="K322" s="95"/>
@@ -54118,21 +54127,21 @@
       <c r="U322" s="95"/>
     </row>
     <row r="323" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A323" s="296" t="s">
+      <c r="A323" s="270" t="s">
         <v>256</v>
       </c>
-      <c r="B323" s="296"/>
-      <c r="C323" s="297" t="s">
+      <c r="B323" s="270"/>
+      <c r="C323" s="260" t="s">
         <v>106</v>
       </c>
-      <c r="D323" s="297"/>
-      <c r="E323" s="297"/>
-      <c r="F323" s="301">
+      <c r="D323" s="260"/>
+      <c r="E323" s="260"/>
+      <c r="F323" s="256">
         <f>Cálculos!E213</f>
         <v>4.2129629629629628</v>
       </c>
-      <c r="G323" s="301"/>
-      <c r="H323" s="292">
+      <c r="G323" s="256"/>
+      <c r="H323" s="266">
         <f>Cálculos!I213</f>
         <v>3.7191987906273614</v>
       </c>
@@ -54151,19 +54160,19 @@
       <c r="U323" s="95"/>
     </row>
     <row r="324" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A324" s="296"/>
-      <c r="B324" s="296"/>
-      <c r="C324" s="298" t="s">
+      <c r="A324" s="270"/>
+      <c r="B324" s="270"/>
+      <c r="C324" s="261" t="s">
         <v>140</v>
       </c>
-      <c r="D324" s="298"/>
-      <c r="E324" s="298"/>
-      <c r="F324" s="302">
+      <c r="D324" s="261"/>
+      <c r="E324" s="261"/>
+      <c r="F324" s="257">
         <f>Cálculos!E214</f>
         <v>3</v>
       </c>
-      <c r="G324" s="302"/>
-      <c r="H324" s="292"/>
+      <c r="G324" s="257"/>
+      <c r="H324" s="266"/>
       <c r="I324" s="95"/>
       <c r="J324" s="95"/>
       <c r="K324" s="95"/>
@@ -54179,19 +54188,19 @@
       <c r="U324" s="95"/>
     </row>
     <row r="325" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A325" s="296"/>
-      <c r="B325" s="296"/>
-      <c r="C325" s="297" t="s">
+      <c r="A325" s="270"/>
+      <c r="B325" s="270"/>
+      <c r="C325" s="260" t="s">
         <v>144</v>
       </c>
-      <c r="D325" s="297"/>
-      <c r="E325" s="297"/>
-      <c r="F325" s="301">
+      <c r="D325" s="260"/>
+      <c r="E325" s="260"/>
+      <c r="F325" s="256">
         <f>Cálculos!E215</f>
         <v>4</v>
       </c>
-      <c r="G325" s="301"/>
-      <c r="H325" s="292"/>
+      <c r="G325" s="256"/>
+      <c r="H325" s="266"/>
       <c r="I325" s="95"/>
       <c r="J325" s="95"/>
       <c r="K325" s="95"/>
@@ -54207,19 +54216,19 @@
       <c r="U325" s="95"/>
     </row>
     <row r="326" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A326" s="296"/>
-      <c r="B326" s="296"/>
-      <c r="C326" s="298" t="s">
+      <c r="A326" s="270"/>
+      <c r="B326" s="270"/>
+      <c r="C326" s="261" t="s">
         <v>119</v>
       </c>
-      <c r="D326" s="298"/>
-      <c r="E326" s="298"/>
-      <c r="F326" s="302">
+      <c r="D326" s="261"/>
+      <c r="E326" s="261"/>
+      <c r="F326" s="257">
         <f>Cálculos!E216</f>
         <v>3.6160714285714284</v>
       </c>
-      <c r="G326" s="302"/>
-      <c r="H326" s="292"/>
+      <c r="G326" s="257"/>
+      <c r="H326" s="266"/>
       <c r="I326" s="95"/>
       <c r="J326" s="95"/>
       <c r="K326" s="95"/>
@@ -54235,19 +54244,19 @@
       <c r="U326" s="95"/>
     </row>
     <row r="327" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A327" s="296"/>
-      <c r="B327" s="296"/>
-      <c r="C327" s="297" t="s">
+      <c r="A327" s="270"/>
+      <c r="B327" s="270"/>
+      <c r="C327" s="260" t="s">
         <v>514</v>
       </c>
-      <c r="D327" s="297"/>
-      <c r="E327" s="297"/>
-      <c r="F327" s="301">
+      <c r="D327" s="260"/>
+      <c r="E327" s="260"/>
+      <c r="F327" s="256">
         <f>Cálculos!E217</f>
         <v>3.6160714285714284</v>
       </c>
-      <c r="G327" s="301"/>
-      <c r="H327" s="292"/>
+      <c r="G327" s="256"/>
+      <c r="H327" s="266"/>
       <c r="I327" s="95"/>
       <c r="J327" s="95"/>
       <c r="K327" s="95"/>
@@ -54263,19 +54272,19 @@
       <c r="U327" s="95"/>
     </row>
     <row r="328" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A328" s="296"/>
-      <c r="B328" s="296"/>
-      <c r="C328" s="298" t="s">
+      <c r="A328" s="270"/>
+      <c r="B328" s="270"/>
+      <c r="C328" s="261" t="s">
         <v>515</v>
       </c>
-      <c r="D328" s="298"/>
-      <c r="E328" s="298"/>
-      <c r="F328" s="302">
+      <c r="D328" s="261"/>
+      <c r="E328" s="261"/>
+      <c r="F328" s="257">
         <f>Cálculos!E218</f>
         <v>3.4821428571428568</v>
       </c>
-      <c r="G328" s="302"/>
-      <c r="H328" s="292"/>
+      <c r="G328" s="257"/>
+      <c r="H328" s="266"/>
       <c r="I328" s="95"/>
       <c r="J328" s="95"/>
       <c r="K328" s="95"/>
@@ -54291,19 +54300,19 @@
       <c r="U328" s="95"/>
     </row>
     <row r="329" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A329" s="296"/>
-      <c r="B329" s="296"/>
-      <c r="C329" s="297" t="s">
+      <c r="A329" s="270"/>
+      <c r="B329" s="270"/>
+      <c r="C329" s="260" t="s">
         <v>516</v>
       </c>
-      <c r="D329" s="297"/>
-      <c r="E329" s="297"/>
-      <c r="F329" s="301">
+      <c r="D329" s="260"/>
+      <c r="E329" s="260"/>
+      <c r="F329" s="256">
         <f>Cálculos!E219</f>
         <v>4.1071428571428568</v>
       </c>
-      <c r="G329" s="301"/>
-      <c r="H329" s="292"/>
+      <c r="G329" s="256"/>
+      <c r="H329" s="266"/>
       <c r="I329" s="95"/>
       <c r="J329" s="95"/>
       <c r="K329" s="95"/>
@@ -54422,18 +54431,18 @@
       <c r="U333" s="95"/>
     </row>
     <row r="334" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="307" t="s">
+      <c r="A334" s="254" t="s">
         <v>248</v>
       </c>
-      <c r="B334" s="308"/>
+      <c r="B334" s="255"/>
       <c r="C334" s="196" t="s">
         <v>247</v>
       </c>
       <c r="E334" s="195"/>
-      <c r="F334" s="307" t="s">
+      <c r="F334" s="254" t="s">
         <v>248</v>
       </c>
-      <c r="G334" s="308"/>
+      <c r="G334" s="255"/>
       <c r="H334" s="196" t="s">
         <v>247</v>
       </c>
@@ -54452,19 +54461,19 @@
       <c r="U334" s="95"/>
     </row>
     <row r="335" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="303" t="s">
+      <c r="A335" s="252" t="s">
         <v>135</v>
       </c>
-      <c r="B335" s="304"/>
+      <c r="B335" s="253"/>
       <c r="C335" s="197">
         <f>Cálculos!G179</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E335" s="95"/>
-      <c r="F335" s="309" t="s">
+      <c r="F335" s="250" t="s">
         <v>102</v>
       </c>
-      <c r="G335" s="310"/>
+      <c r="G335" s="251"/>
       <c r="H335" s="197">
         <f>Cálculos!G202</f>
         <v>4.7619047619047616E-2</v>
@@ -54484,19 +54493,19 @@
       <c r="U335" s="95"/>
     </row>
     <row r="336" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="303" t="s">
+      <c r="A336" s="252" t="s">
         <v>136</v>
       </c>
-      <c r="B336" s="304"/>
+      <c r="B336" s="253"/>
       <c r="C336" s="197">
         <f>Cálculos!G180</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E336" s="95"/>
-      <c r="F336" s="309" t="s">
+      <c r="F336" s="250" t="s">
         <v>103</v>
       </c>
-      <c r="G336" s="310"/>
+      <c r="G336" s="251"/>
       <c r="H336" s="197">
         <f>Cálculos!G203</f>
         <v>4.7619047619047616E-2</v>
@@ -54516,19 +54525,19 @@
       <c r="U336" s="95"/>
     </row>
     <row r="337" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="303" t="s">
+      <c r="A337" s="252" t="s">
         <v>137</v>
       </c>
-      <c r="B337" s="304"/>
+      <c r="B337" s="253"/>
       <c r="C337" s="197">
         <f>Cálculos!G181</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E337" s="95"/>
-      <c r="F337" s="309" t="s">
+      <c r="F337" s="250" t="s">
         <v>104</v>
       </c>
-      <c r="G337" s="310"/>
+      <c r="G337" s="251"/>
       <c r="H337" s="197">
         <f>Cálculos!G204</f>
         <v>4.7619047619047616E-2</v>
@@ -54548,19 +54557,19 @@
       <c r="U337" s="95"/>
     </row>
     <row r="338" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="303" t="s">
+      <c r="A338" s="252" t="s">
         <v>138</v>
       </c>
-      <c r="B338" s="304"/>
+      <c r="B338" s="253"/>
       <c r="C338" s="197">
         <f>Cálculos!G182</f>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="E338" s="95"/>
-      <c r="F338" s="309" t="s">
+      <c r="F338" s="250" t="s">
         <v>139</v>
       </c>
-      <c r="G338" s="310"/>
+      <c r="G338" s="251"/>
       <c r="H338" s="197">
         <f>Cálculos!G205</f>
         <v>4.7619047619047616E-2</v>
@@ -54580,19 +54589,19 @@
       <c r="U338" s="95"/>
     </row>
     <row r="339" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="303" t="s">
+      <c r="A339" s="252" t="s">
         <v>251</v>
       </c>
-      <c r="B339" s="304"/>
+      <c r="B339" s="253"/>
       <c r="C339" s="197">
         <f>Cálculos!G183</f>
         <v>0</v>
       </c>
       <c r="E339" s="95"/>
-      <c r="F339" s="309" t="s">
+      <c r="F339" s="250" t="s">
         <v>141</v>
       </c>
-      <c r="G339" s="310"/>
+      <c r="G339" s="251"/>
       <c r="H339" s="197">
         <f>Cálculos!G206</f>
         <v>4.7619047619047616E-2</v>
@@ -54612,19 +54621,19 @@
       <c r="U339" s="95"/>
     </row>
     <row r="340" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="303" t="s">
+      <c r="A340" s="252" t="s">
         <v>91</v>
       </c>
-      <c r="B340" s="304"/>
+      <c r="B340" s="253"/>
       <c r="C340" s="197" t="str">
         <f>Cálculos!G184</f>
         <v>N/A</v>
       </c>
       <c r="E340" s="95"/>
-      <c r="F340" s="309" t="s">
+      <c r="F340" s="250" t="s">
         <v>142</v>
       </c>
-      <c r="G340" s="310"/>
+      <c r="G340" s="251"/>
       <c r="H340" s="197">
         <f>Cálculos!G207</f>
         <v>4.7619047619047616E-2</v>
@@ -54644,19 +54653,19 @@
       <c r="U340" s="95"/>
     </row>
     <row r="341" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="303" t="s">
+      <c r="A341" s="252" t="s">
         <v>95</v>
       </c>
-      <c r="B341" s="304"/>
+      <c r="B341" s="253"/>
       <c r="C341" s="197" t="str">
         <f>Cálculos!G185</f>
         <v>N/A</v>
       </c>
       <c r="E341" s="95"/>
-      <c r="F341" s="309" t="s">
+      <c r="F341" s="250" t="s">
         <v>143</v>
       </c>
-      <c r="G341" s="310"/>
+      <c r="G341" s="251"/>
       <c r="H341" s="197">
         <f>Cálculos!G208</f>
         <v>4.7619047619047616E-2</v>
@@ -54676,19 +54685,19 @@
       <c r="U341" s="95"/>
     </row>
     <row r="342" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="303" t="s">
+      <c r="A342" s="252" t="s">
         <v>105</v>
       </c>
-      <c r="B342" s="304"/>
+      <c r="B342" s="253"/>
       <c r="C342" s="197">
         <f>Cálculos!G186</f>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="E342" s="95"/>
-      <c r="F342" s="309" t="s">
+      <c r="F342" s="250" t="s">
         <v>115</v>
       </c>
-      <c r="G342" s="310"/>
+      <c r="G342" s="251"/>
       <c r="H342" s="197">
         <f>Cálculos!G209</f>
         <v>8.3333333333333329E-2</v>
@@ -54708,19 +54717,19 @@
       <c r="U342" s="95"/>
     </row>
     <row r="343" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="303" t="s">
+      <c r="A343" s="252" t="s">
         <v>107</v>
       </c>
-      <c r="B343" s="304"/>
+      <c r="B343" s="253"/>
       <c r="C343" s="197">
         <f>Cálculos!G187</f>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="E343" s="95"/>
-      <c r="F343" s="309" t="s">
+      <c r="F343" s="250" t="s">
         <v>116</v>
       </c>
-      <c r="G343" s="310"/>
+      <c r="G343" s="251"/>
       <c r="H343" s="197">
         <f>Cálculos!G210</f>
         <v>8.3333333333333329E-2</v>
@@ -54740,19 +54749,19 @@
       <c r="U343" s="95"/>
     </row>
     <row r="344" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A344" s="303" t="s">
+      <c r="A344" s="252" t="s">
         <v>108</v>
       </c>
-      <c r="B344" s="304"/>
+      <c r="B344" s="253"/>
       <c r="C344" s="197">
         <f>Cálculos!G188</f>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="E344" s="95"/>
-      <c r="F344" s="309" t="s">
+      <c r="F344" s="250" t="s">
         <v>117</v>
       </c>
-      <c r="G344" s="310"/>
+      <c r="G344" s="251"/>
       <c r="H344" s="197">
         <f>Cálculos!G211</f>
         <v>8.3333333333333329E-2</v>
@@ -54772,19 +54781,19 @@
       <c r="U344" s="95"/>
     </row>
     <row r="345" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="303" t="s">
+      <c r="A345" s="252" t="s">
         <v>109</v>
       </c>
-      <c r="B345" s="304"/>
+      <c r="B345" s="253"/>
       <c r="C345" s="197">
         <f>Cálculos!G189</f>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="E345" s="95"/>
-      <c r="F345" s="309" t="s">
+      <c r="F345" s="250" t="s">
         <v>118</v>
       </c>
-      <c r="G345" s="310"/>
+      <c r="G345" s="251"/>
       <c r="H345" s="197">
         <f>Cálculos!G212</f>
         <v>8.3333333333333329E-2</v>
@@ -54804,19 +54813,19 @@
       <c r="U345" s="95"/>
     </row>
     <row r="346" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="303" t="s">
+      <c r="A346" s="252" t="s">
         <v>110</v>
       </c>
-      <c r="B346" s="304"/>
+      <c r="B346" s="253"/>
       <c r="C346" s="197">
         <f>Cálculos!G190</f>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="E346" s="95"/>
-      <c r="F346" s="309" t="s">
+      <c r="F346" s="250" t="s">
         <v>106</v>
       </c>
-      <c r="G346" s="310"/>
+      <c r="G346" s="251"/>
       <c r="H346" s="197">
         <f>Cálculos!G213</f>
         <v>4.7619047619047616E-2</v>
@@ -54836,19 +54845,19 @@
       <c r="U346" s="95"/>
     </row>
     <row r="347" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="303" t="s">
+      <c r="A347" s="252" t="s">
         <v>111</v>
       </c>
-      <c r="B347" s="304"/>
+      <c r="B347" s="253"/>
       <c r="C347" s="197">
         <f>Cálculos!G191</f>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="E347" s="95"/>
-      <c r="F347" s="309" t="s">
+      <c r="F347" s="250" t="s">
         <v>140</v>
       </c>
-      <c r="G347" s="310"/>
+      <c r="G347" s="251"/>
       <c r="H347" s="197">
         <f>Cálculos!G214</f>
         <v>4.7619047619047616E-2</v>
@@ -54868,19 +54877,19 @@
       <c r="U347" s="95"/>
     </row>
     <row r="348" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="303" t="s">
+      <c r="A348" s="252" t="s">
         <v>112</v>
       </c>
-      <c r="B348" s="304"/>
+      <c r="B348" s="253"/>
       <c r="C348" s="197">
         <f>Cálculos!G192</f>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="E348" s="95"/>
-      <c r="F348" s="309" t="s">
+      <c r="F348" s="250" t="s">
         <v>144</v>
       </c>
-      <c r="G348" s="310"/>
+      <c r="G348" s="251"/>
       <c r="H348" s="197">
         <f>Cálculos!G215</f>
         <v>4.7619047619047616E-2</v>
@@ -54900,19 +54909,19 @@
       <c r="U348" s="95"/>
     </row>
     <row r="349" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="303" t="s">
+      <c r="A349" s="252" t="s">
         <v>113</v>
       </c>
-      <c r="B349" s="304"/>
+      <c r="B349" s="253"/>
       <c r="C349" s="197">
         <f>Cálculos!G193</f>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="E349" s="95"/>
-      <c r="F349" s="309" t="s">
+      <c r="F349" s="250" t="s">
         <v>119</v>
       </c>
-      <c r="G349" s="310"/>
+      <c r="G349" s="251"/>
       <c r="H349" s="197">
         <f>Cálculos!G216</f>
         <v>4.7619047619047616E-2</v>
@@ -54932,19 +54941,19 @@
       <c r="U349" s="95"/>
     </row>
     <row r="350" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="303" t="s">
+      <c r="A350" s="252" t="s">
         <v>114</v>
       </c>
-      <c r="B350" s="304"/>
+      <c r="B350" s="253"/>
       <c r="C350" s="197">
         <f>Cálculos!G194</f>
         <v>3.7037037037037035E-2</v>
       </c>
       <c r="E350" s="95"/>
-      <c r="F350" s="309" t="s">
+      <c r="F350" s="250" t="s">
         <v>514</v>
       </c>
-      <c r="G350" s="310"/>
+      <c r="G350" s="251"/>
       <c r="H350" s="197">
         <f>Cálculos!G217</f>
         <v>4.7619047619047616E-2</v>
@@ -54964,19 +54973,19 @@
       <c r="U350" s="95"/>
     </row>
     <row r="351" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="303" t="s">
+      <c r="A351" s="252" t="s">
         <v>373</v>
       </c>
-      <c r="B351" s="304"/>
+      <c r="B351" s="253"/>
       <c r="C351" s="197">
         <f>Cálculos!G195</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="E351" s="95"/>
-      <c r="F351" s="309" t="s">
+      <c r="F351" s="250" t="s">
         <v>515</v>
       </c>
-      <c r="G351" s="310"/>
+      <c r="G351" s="251"/>
       <c r="H351" s="197">
         <f>Cálculos!G218</f>
         <v>4.7619047619047616E-2</v>
@@ -54996,19 +55005,19 @@
       <c r="U351" s="95"/>
     </row>
     <row r="352" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="303" t="s">
+      <c r="A352" s="252" t="s">
         <v>374</v>
       </c>
-      <c r="B352" s="304"/>
+      <c r="B352" s="253"/>
       <c r="C352" s="197">
         <f>Cálculos!G196</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="E352" s="95"/>
-      <c r="F352" s="311" t="s">
+      <c r="F352" s="237" t="s">
         <v>516</v>
       </c>
-      <c r="G352" s="312"/>
+      <c r="G352" s="238"/>
       <c r="H352" s="198">
         <f>Cálculos!G219</f>
         <v>4.7619047619047616E-2</v>
@@ -55028,17 +55037,17 @@
       <c r="U352" s="95"/>
     </row>
     <row r="353" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="303" t="s">
+      <c r="A353" s="252" t="s">
         <v>369</v>
       </c>
-      <c r="B353" s="304"/>
+      <c r="B353" s="253"/>
       <c r="C353" s="197">
         <f>Cálculos!G197</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="E353" s="95"/>
-      <c r="F353" s="313"/>
-      <c r="G353" s="313"/>
+      <c r="F353" s="239"/>
+      <c r="G353" s="239"/>
       <c r="H353" s="200"/>
       <c r="I353" s="95"/>
       <c r="J353" s="95"/>
@@ -55055,17 +55064,17 @@
       <c r="U353" s="95"/>
     </row>
     <row r="354" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="303" t="s">
+      <c r="A354" s="252" t="s">
         <v>370</v>
       </c>
-      <c r="B354" s="304"/>
+      <c r="B354" s="253"/>
       <c r="C354" s="197">
         <f>Cálculos!G198</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="E354" s="95"/>
-      <c r="F354" s="314"/>
-      <c r="G354" s="314"/>
+      <c r="F354" s="240"/>
+      <c r="G354" s="240"/>
       <c r="H354" s="199"/>
       <c r="I354" s="95"/>
       <c r="J354" s="95"/>
@@ -55082,17 +55091,17 @@
       <c r="U354" s="95"/>
     </row>
     <row r="355" spans="1:21" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="303" t="s">
+      <c r="A355" s="252" t="s">
         <v>371</v>
       </c>
-      <c r="B355" s="304"/>
+      <c r="B355" s="253"/>
       <c r="C355" s="197">
         <f>Cálculos!G199</f>
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="E355" s="95"/>
-      <c r="F355" s="314"/>
-      <c r="G355" s="314"/>
+      <c r="F355" s="240"/>
+      <c r="G355" s="240"/>
       <c r="H355" s="199"/>
       <c r="I355" s="95"/>
       <c r="J355" s="95"/>
@@ -57028,7 +57037,7 @@
     </row>
     <row r="439" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A439" s="95"/>
-      <c r="B439" s="315" t="s">
+      <c r="B439" s="241" t="s">
         <v>717</v>
       </c>
       <c r="C439" s="242"/>
@@ -57053,12 +57062,12 @@
     </row>
     <row r="440" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A440" s="95"/>
-      <c r="B440" s="316"/>
-      <c r="C440" s="276"/>
-      <c r="D440" s="276"/>
-      <c r="E440" s="276"/>
-      <c r="F440" s="276"/>
-      <c r="G440" s="277"/>
+      <c r="B440" s="244"/>
+      <c r="C440" s="245"/>
+      <c r="D440" s="245"/>
+      <c r="E440" s="245"/>
+      <c r="F440" s="245"/>
+      <c r="G440" s="246"/>
       <c r="H440" s="95"/>
       <c r="I440" s="95"/>
       <c r="J440" s="95"/>
@@ -57076,12 +57085,12 @@
     </row>
     <row r="441" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A441" s="95"/>
-      <c r="B441" s="316"/>
-      <c r="C441" s="276"/>
-      <c r="D441" s="276"/>
-      <c r="E441" s="276"/>
-      <c r="F441" s="276"/>
-      <c r="G441" s="277"/>
+      <c r="B441" s="244"/>
+      <c r="C441" s="245"/>
+      <c r="D441" s="245"/>
+      <c r="E441" s="245"/>
+      <c r="F441" s="245"/>
+      <c r="G441" s="246"/>
       <c r="H441" s="95"/>
       <c r="I441" s="95"/>
       <c r="J441" s="95"/>
@@ -57099,12 +57108,12 @@
     </row>
     <row r="442" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A442" s="95"/>
-      <c r="B442" s="316"/>
-      <c r="C442" s="276"/>
-      <c r="D442" s="276"/>
-      <c r="E442" s="276"/>
-      <c r="F442" s="276"/>
-      <c r="G442" s="277"/>
+      <c r="B442" s="244"/>
+      <c r="C442" s="245"/>
+      <c r="D442" s="245"/>
+      <c r="E442" s="245"/>
+      <c r="F442" s="245"/>
+      <c r="G442" s="246"/>
       <c r="H442" s="95"/>
       <c r="I442" s="95"/>
       <c r="J442" s="95"/>
@@ -57122,12 +57131,12 @@
     </row>
     <row r="443" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A443" s="95"/>
-      <c r="B443" s="316"/>
-      <c r="C443" s="276"/>
-      <c r="D443" s="276"/>
-      <c r="E443" s="276"/>
-      <c r="F443" s="276"/>
-      <c r="G443" s="277"/>
+      <c r="B443" s="244"/>
+      <c r="C443" s="245"/>
+      <c r="D443" s="245"/>
+      <c r="E443" s="245"/>
+      <c r="F443" s="245"/>
+      <c r="G443" s="246"/>
       <c r="H443" s="95"/>
       <c r="I443" s="95"/>
       <c r="J443" s="95"/>
@@ -57145,12 +57154,12 @@
     </row>
     <row r="444" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A444" s="95"/>
-      <c r="B444" s="316"/>
-      <c r="C444" s="276"/>
-      <c r="D444" s="276"/>
-      <c r="E444" s="276"/>
-      <c r="F444" s="276"/>
-      <c r="G444" s="277"/>
+      <c r="B444" s="244"/>
+      <c r="C444" s="245"/>
+      <c r="D444" s="245"/>
+      <c r="E444" s="245"/>
+      <c r="F444" s="245"/>
+      <c r="G444" s="246"/>
       <c r="H444" s="95"/>
       <c r="I444" s="95"/>
       <c r="J444" s="95"/>
@@ -57168,12 +57177,12 @@
     </row>
     <row r="445" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A445" s="95"/>
-      <c r="B445" s="316"/>
-      <c r="C445" s="276"/>
-      <c r="D445" s="276"/>
-      <c r="E445" s="276"/>
-      <c r="F445" s="276"/>
-      <c r="G445" s="277"/>
+      <c r="B445" s="244"/>
+      <c r="C445" s="245"/>
+      <c r="D445" s="245"/>
+      <c r="E445" s="245"/>
+      <c r="F445" s="245"/>
+      <c r="G445" s="246"/>
       <c r="H445" s="95"/>
       <c r="I445" s="95"/>
       <c r="J445" s="95"/>
@@ -57191,12 +57200,12 @@
     </row>
     <row r="446" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A446" s="95"/>
-      <c r="B446" s="316"/>
-      <c r="C446" s="276"/>
-      <c r="D446" s="276"/>
-      <c r="E446" s="276"/>
-      <c r="F446" s="276"/>
-      <c r="G446" s="277"/>
+      <c r="B446" s="244"/>
+      <c r="C446" s="245"/>
+      <c r="D446" s="245"/>
+      <c r="E446" s="245"/>
+      <c r="F446" s="245"/>
+      <c r="G446" s="246"/>
       <c r="H446" s="95"/>
       <c r="I446" s="95"/>
       <c r="J446" s="95"/>
@@ -57214,12 +57223,12 @@
     </row>
     <row r="447" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A447" s="95"/>
-      <c r="B447" s="316"/>
-      <c r="C447" s="276"/>
-      <c r="D447" s="276"/>
-      <c r="E447" s="276"/>
-      <c r="F447" s="276"/>
-      <c r="G447" s="277"/>
+      <c r="B447" s="244"/>
+      <c r="C447" s="245"/>
+      <c r="D447" s="245"/>
+      <c r="E447" s="245"/>
+      <c r="F447" s="245"/>
+      <c r="G447" s="246"/>
       <c r="H447" s="95"/>
       <c r="I447" s="95"/>
       <c r="J447" s="95"/>
@@ -57237,12 +57246,12 @@
     </row>
     <row r="448" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A448" s="95"/>
-      <c r="B448" s="316"/>
-      <c r="C448" s="276"/>
-      <c r="D448" s="276"/>
-      <c r="E448" s="276"/>
-      <c r="F448" s="276"/>
-      <c r="G448" s="277"/>
+      <c r="B448" s="244"/>
+      <c r="C448" s="245"/>
+      <c r="D448" s="245"/>
+      <c r="E448" s="245"/>
+      <c r="F448" s="245"/>
+      <c r="G448" s="246"/>
       <c r="H448" s="95"/>
       <c r="I448" s="95"/>
       <c r="J448" s="95"/>
@@ -57260,12 +57269,12 @@
     </row>
     <row r="449" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A449" s="95"/>
-      <c r="B449" s="316"/>
-      <c r="C449" s="276"/>
-      <c r="D449" s="276"/>
-      <c r="E449" s="276"/>
-      <c r="F449" s="276"/>
-      <c r="G449" s="277"/>
+      <c r="B449" s="244"/>
+      <c r="C449" s="245"/>
+      <c r="D449" s="245"/>
+      <c r="E449" s="245"/>
+      <c r="F449" s="245"/>
+      <c r="G449" s="246"/>
       <c r="H449" s="95"/>
       <c r="I449" s="95"/>
       <c r="J449" s="95"/>
@@ -57283,12 +57292,12 @@
     </row>
     <row r="450" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A450" s="95"/>
-      <c r="B450" s="316"/>
-      <c r="C450" s="276"/>
-      <c r="D450" s="276"/>
-      <c r="E450" s="276"/>
-      <c r="F450" s="276"/>
-      <c r="G450" s="277"/>
+      <c r="B450" s="244"/>
+      <c r="C450" s="245"/>
+      <c r="D450" s="245"/>
+      <c r="E450" s="245"/>
+      <c r="F450" s="245"/>
+      <c r="G450" s="246"/>
       <c r="H450" s="95"/>
       <c r="I450" s="95"/>
       <c r="J450" s="95"/>
@@ -57306,12 +57315,12 @@
     </row>
     <row r="451" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A451" s="95"/>
-      <c r="B451" s="316"/>
-      <c r="C451" s="276"/>
-      <c r="D451" s="276"/>
-      <c r="E451" s="276"/>
-      <c r="F451" s="276"/>
-      <c r="G451" s="277"/>
+      <c r="B451" s="244"/>
+      <c r="C451" s="245"/>
+      <c r="D451" s="245"/>
+      <c r="E451" s="245"/>
+      <c r="F451" s="245"/>
+      <c r="G451" s="246"/>
       <c r="H451" s="95"/>
       <c r="I451" s="95"/>
       <c r="J451" s="95"/>
@@ -57329,12 +57338,12 @@
     </row>
     <row r="452" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A452" s="95"/>
-      <c r="B452" s="316"/>
-      <c r="C452" s="276"/>
-      <c r="D452" s="276"/>
-      <c r="E452" s="276"/>
-      <c r="F452" s="276"/>
-      <c r="G452" s="277"/>
+      <c r="B452" s="244"/>
+      <c r="C452" s="245"/>
+      <c r="D452" s="245"/>
+      <c r="E452" s="245"/>
+      <c r="F452" s="245"/>
+      <c r="G452" s="246"/>
       <c r="H452" s="95"/>
       <c r="I452" s="95"/>
       <c r="J452" s="95"/>
@@ -57352,12 +57361,12 @@
     </row>
     <row r="453" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A453" s="95"/>
-      <c r="B453" s="317"/>
-      <c r="C453" s="264"/>
-      <c r="D453" s="264"/>
-      <c r="E453" s="264"/>
-      <c r="F453" s="264"/>
-      <c r="G453" s="265"/>
+      <c r="B453" s="247"/>
+      <c r="C453" s="248"/>
+      <c r="D453" s="248"/>
+      <c r="E453" s="248"/>
+      <c r="F453" s="248"/>
+      <c r="G453" s="249"/>
       <c r="H453" s="95"/>
       <c r="I453" s="95"/>
       <c r="J453" s="95"/>
@@ -67058,6 +67067,382 @@
     </row>
   </sheetData>
   <mergeCells count="400">
+    <mergeCell ref="B158:H158"/>
+    <mergeCell ref="B159:H159"/>
+    <mergeCell ref="B160:H160"/>
+    <mergeCell ref="B161:H161"/>
+    <mergeCell ref="B153:H153"/>
+    <mergeCell ref="B154:H154"/>
+    <mergeCell ref="B155:H155"/>
+    <mergeCell ref="B162:H162"/>
+    <mergeCell ref="B168:H168"/>
+    <mergeCell ref="B174:H174"/>
+    <mergeCell ref="B169:H169"/>
+    <mergeCell ref="B170:H170"/>
+    <mergeCell ref="B171:H171"/>
+    <mergeCell ref="B172:H172"/>
+    <mergeCell ref="B163:H163"/>
+    <mergeCell ref="B165:H165"/>
+    <mergeCell ref="B166:H166"/>
+    <mergeCell ref="B167:H167"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="B95:F95"/>
+    <mergeCell ref="B96:F96"/>
+    <mergeCell ref="B97:F97"/>
+    <mergeCell ref="B98:F98"/>
+    <mergeCell ref="B79:F79"/>
+    <mergeCell ref="B80:F80"/>
+    <mergeCell ref="B81:F81"/>
+    <mergeCell ref="B82:F82"/>
+    <mergeCell ref="B83:F83"/>
+    <mergeCell ref="B84:F84"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="B86:F86"/>
+    <mergeCell ref="B87:F87"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="B78:F78"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="B70:F70"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="B77:F77"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="B37:C38"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="B42:C43"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B157:H157"/>
+    <mergeCell ref="B148:H148"/>
+    <mergeCell ref="B149:H149"/>
+    <mergeCell ref="B151:H151"/>
+    <mergeCell ref="B152:H152"/>
+    <mergeCell ref="B144:H144"/>
+    <mergeCell ref="B150:H150"/>
+    <mergeCell ref="B156:H156"/>
+    <mergeCell ref="B145:H145"/>
+    <mergeCell ref="B146:H146"/>
+    <mergeCell ref="B147:H147"/>
+    <mergeCell ref="A111:H111"/>
+    <mergeCell ref="A114:H114"/>
+    <mergeCell ref="A118:H118"/>
+    <mergeCell ref="A120:H120"/>
+    <mergeCell ref="B88:F88"/>
+    <mergeCell ref="B89:F89"/>
+    <mergeCell ref="B90:F90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="B115:F115"/>
+    <mergeCell ref="B116:F116"/>
+    <mergeCell ref="B113:H113"/>
+    <mergeCell ref="B117:H117"/>
+    <mergeCell ref="B119:H119"/>
+    <mergeCell ref="B104:F104"/>
+    <mergeCell ref="B99:F99"/>
+    <mergeCell ref="B100:F100"/>
+    <mergeCell ref="B101:F101"/>
+    <mergeCell ref="B102:F102"/>
+    <mergeCell ref="B103:F103"/>
+    <mergeCell ref="B191:H191"/>
+    <mergeCell ref="B193:H193"/>
+    <mergeCell ref="B194:H194"/>
+    <mergeCell ref="B195:H195"/>
+    <mergeCell ref="B192:H192"/>
+    <mergeCell ref="B198:H198"/>
+    <mergeCell ref="B189:H189"/>
+    <mergeCell ref="B164:H164"/>
+    <mergeCell ref="B190:H190"/>
+    <mergeCell ref="B179:H179"/>
+    <mergeCell ref="B181:H181"/>
+    <mergeCell ref="B182:H182"/>
+    <mergeCell ref="B183:H183"/>
+    <mergeCell ref="B184:H184"/>
+    <mergeCell ref="B180:H180"/>
+    <mergeCell ref="B186:H186"/>
+    <mergeCell ref="B185:H185"/>
+    <mergeCell ref="B187:H187"/>
+    <mergeCell ref="B188:H188"/>
+    <mergeCell ref="B173:H173"/>
+    <mergeCell ref="B175:H175"/>
+    <mergeCell ref="B176:H176"/>
+    <mergeCell ref="B177:H177"/>
+    <mergeCell ref="B178:H178"/>
+    <mergeCell ref="B202:H202"/>
+    <mergeCell ref="B203:H203"/>
+    <mergeCell ref="B205:H205"/>
+    <mergeCell ref="B206:H206"/>
+    <mergeCell ref="B207:H207"/>
+    <mergeCell ref="B204:H204"/>
+    <mergeCell ref="B210:H210"/>
+    <mergeCell ref="B196:H196"/>
+    <mergeCell ref="B197:H197"/>
+    <mergeCell ref="B199:H199"/>
+    <mergeCell ref="B200:H200"/>
+    <mergeCell ref="B201:H201"/>
+    <mergeCell ref="B221:H221"/>
+    <mergeCell ref="B214:H214"/>
+    <mergeCell ref="B215:H215"/>
+    <mergeCell ref="B217:H217"/>
+    <mergeCell ref="B218:H218"/>
+    <mergeCell ref="B219:H219"/>
+    <mergeCell ref="B216:H216"/>
+    <mergeCell ref="B208:H208"/>
+    <mergeCell ref="B209:H209"/>
+    <mergeCell ref="B211:H211"/>
+    <mergeCell ref="B212:H212"/>
+    <mergeCell ref="B213:H213"/>
+    <mergeCell ref="A252:B253"/>
+    <mergeCell ref="A254:B255"/>
+    <mergeCell ref="A256:B257"/>
+    <mergeCell ref="A258:B259"/>
+    <mergeCell ref="A260:B261"/>
+    <mergeCell ref="A262:B263"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B105:F105"/>
+    <mergeCell ref="B106:F106"/>
+    <mergeCell ref="B107:F107"/>
+    <mergeCell ref="B108:F108"/>
+    <mergeCell ref="B109:F109"/>
+    <mergeCell ref="B71:H71"/>
+    <mergeCell ref="A72:H72"/>
+    <mergeCell ref="B73:H73"/>
+    <mergeCell ref="B75:H75"/>
+    <mergeCell ref="A74:H74"/>
+    <mergeCell ref="A76:H76"/>
+    <mergeCell ref="B93:H93"/>
+    <mergeCell ref="B110:H110"/>
+    <mergeCell ref="A94:H94"/>
+    <mergeCell ref="B220:H220"/>
+    <mergeCell ref="A234:B235"/>
+    <mergeCell ref="A236:B237"/>
+    <mergeCell ref="A238:B239"/>
+    <mergeCell ref="A240:B241"/>
+    <mergeCell ref="A242:B243"/>
+    <mergeCell ref="A244:B245"/>
+    <mergeCell ref="A246:B247"/>
+    <mergeCell ref="A248:B249"/>
+    <mergeCell ref="A250:B251"/>
+    <mergeCell ref="C234:D234"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="C238:D238"/>
+    <mergeCell ref="C239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="C241:D241"/>
+    <mergeCell ref="C242:D242"/>
+    <mergeCell ref="C243:D243"/>
+    <mergeCell ref="C244:D244"/>
+    <mergeCell ref="C245:D245"/>
+    <mergeCell ref="C246:D246"/>
+    <mergeCell ref="C247:D247"/>
+    <mergeCell ref="C248:D248"/>
+    <mergeCell ref="C249:D249"/>
+    <mergeCell ref="C250:D250"/>
+    <mergeCell ref="C251:D251"/>
+    <mergeCell ref="C252:D252"/>
+    <mergeCell ref="C253:D253"/>
+    <mergeCell ref="C254:D254"/>
+    <mergeCell ref="C255:D255"/>
+    <mergeCell ref="C256:D256"/>
+    <mergeCell ref="C257:D257"/>
+    <mergeCell ref="C258:D258"/>
+    <mergeCell ref="C259:D259"/>
+    <mergeCell ref="C260:D260"/>
+    <mergeCell ref="C261:D261"/>
+    <mergeCell ref="C262:D262"/>
+    <mergeCell ref="C263:D263"/>
+    <mergeCell ref="E234:H234"/>
+    <mergeCell ref="E235:H235"/>
+    <mergeCell ref="E236:H236"/>
+    <mergeCell ref="E237:H237"/>
+    <mergeCell ref="E238:H238"/>
+    <mergeCell ref="E239:H239"/>
+    <mergeCell ref="E240:H240"/>
+    <mergeCell ref="E241:H241"/>
+    <mergeCell ref="E242:H242"/>
+    <mergeCell ref="E243:H243"/>
+    <mergeCell ref="E244:H244"/>
+    <mergeCell ref="E245:H245"/>
+    <mergeCell ref="E246:H246"/>
+    <mergeCell ref="E247:H247"/>
+    <mergeCell ref="E248:H248"/>
+    <mergeCell ref="E249:H249"/>
+    <mergeCell ref="E250:H250"/>
+    <mergeCell ref="E251:H251"/>
+    <mergeCell ref="E252:H252"/>
+    <mergeCell ref="E253:H253"/>
+    <mergeCell ref="E254:H254"/>
+    <mergeCell ref="E255:H255"/>
+    <mergeCell ref="E256:H256"/>
+    <mergeCell ref="E257:H257"/>
+    <mergeCell ref="E258:H258"/>
+    <mergeCell ref="E259:H259"/>
+    <mergeCell ref="E260:H260"/>
+    <mergeCell ref="E261:H261"/>
+    <mergeCell ref="E262:H262"/>
+    <mergeCell ref="E263:H263"/>
+    <mergeCell ref="H288:H292"/>
+    <mergeCell ref="H293:H294"/>
+    <mergeCell ref="H295:H303"/>
+    <mergeCell ref="H304:H308"/>
+    <mergeCell ref="H312:H318"/>
+    <mergeCell ref="H319:H322"/>
+    <mergeCell ref="H323:H329"/>
+    <mergeCell ref="A288:B292"/>
+    <mergeCell ref="A293:B294"/>
+    <mergeCell ref="A295:B303"/>
+    <mergeCell ref="A304:B308"/>
+    <mergeCell ref="A312:B318"/>
+    <mergeCell ref="A319:B322"/>
+    <mergeCell ref="A323:B329"/>
+    <mergeCell ref="C300:E300"/>
+    <mergeCell ref="C301:E301"/>
+    <mergeCell ref="C302:E302"/>
+    <mergeCell ref="C303:E303"/>
+    <mergeCell ref="C304:E304"/>
+    <mergeCell ref="C305:E305"/>
+    <mergeCell ref="C288:E288"/>
+    <mergeCell ref="C289:E289"/>
+    <mergeCell ref="C290:E290"/>
+    <mergeCell ref="C291:E291"/>
+    <mergeCell ref="C292:E292"/>
+    <mergeCell ref="C293:E293"/>
+    <mergeCell ref="C294:E294"/>
+    <mergeCell ref="C295:E295"/>
+    <mergeCell ref="C296:E296"/>
+    <mergeCell ref="C321:E321"/>
+    <mergeCell ref="C322:E322"/>
+    <mergeCell ref="C323:E323"/>
+    <mergeCell ref="C324:E324"/>
+    <mergeCell ref="C325:E325"/>
+    <mergeCell ref="C326:E326"/>
+    <mergeCell ref="C306:E306"/>
+    <mergeCell ref="C307:E307"/>
+    <mergeCell ref="C308:E308"/>
+    <mergeCell ref="C312:E312"/>
+    <mergeCell ref="C313:E313"/>
+    <mergeCell ref="C314:E314"/>
+    <mergeCell ref="C315:E315"/>
+    <mergeCell ref="C316:E316"/>
+    <mergeCell ref="C317:E317"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="C287:E287"/>
+    <mergeCell ref="A311:B311"/>
+    <mergeCell ref="C311:E311"/>
+    <mergeCell ref="F287:G287"/>
+    <mergeCell ref="F288:G288"/>
+    <mergeCell ref="F289:G289"/>
+    <mergeCell ref="F290:G290"/>
+    <mergeCell ref="F291:G291"/>
+    <mergeCell ref="F292:G292"/>
+    <mergeCell ref="F293:G293"/>
+    <mergeCell ref="F294:G294"/>
+    <mergeCell ref="F295:G295"/>
+    <mergeCell ref="F296:G296"/>
+    <mergeCell ref="F297:G297"/>
+    <mergeCell ref="F298:G298"/>
+    <mergeCell ref="F299:G299"/>
+    <mergeCell ref="F300:G300"/>
+    <mergeCell ref="F301:G301"/>
+    <mergeCell ref="F302:G302"/>
+    <mergeCell ref="F303:G303"/>
+    <mergeCell ref="C297:E297"/>
+    <mergeCell ref="C298:E298"/>
+    <mergeCell ref="C299:E299"/>
+    <mergeCell ref="F304:G304"/>
+    <mergeCell ref="F305:G305"/>
+    <mergeCell ref="F306:G306"/>
+    <mergeCell ref="F307:G307"/>
+    <mergeCell ref="F308:G308"/>
+    <mergeCell ref="F312:G312"/>
+    <mergeCell ref="F313:G313"/>
+    <mergeCell ref="F314:G314"/>
+    <mergeCell ref="F315:G315"/>
+    <mergeCell ref="A353:B353"/>
+    <mergeCell ref="A354:B354"/>
+    <mergeCell ref="A355:B355"/>
+    <mergeCell ref="F325:G325"/>
+    <mergeCell ref="F326:G326"/>
+    <mergeCell ref="F327:G327"/>
+    <mergeCell ref="F328:G328"/>
+    <mergeCell ref="F329:G329"/>
+    <mergeCell ref="F311:G311"/>
+    <mergeCell ref="F316:G316"/>
+    <mergeCell ref="F317:G317"/>
+    <mergeCell ref="F318:G318"/>
+    <mergeCell ref="F319:G319"/>
+    <mergeCell ref="F320:G320"/>
+    <mergeCell ref="F321:G321"/>
+    <mergeCell ref="F322:G322"/>
+    <mergeCell ref="F323:G323"/>
+    <mergeCell ref="F324:G324"/>
+    <mergeCell ref="C327:E327"/>
+    <mergeCell ref="C328:E328"/>
+    <mergeCell ref="C329:E329"/>
+    <mergeCell ref="C318:E318"/>
+    <mergeCell ref="C319:E319"/>
+    <mergeCell ref="C320:E320"/>
+    <mergeCell ref="A334:B334"/>
+    <mergeCell ref="A335:B335"/>
+    <mergeCell ref="A336:B336"/>
+    <mergeCell ref="A337:B337"/>
+    <mergeCell ref="A338:B338"/>
+    <mergeCell ref="A339:B339"/>
+    <mergeCell ref="A340:B340"/>
+    <mergeCell ref="A341:B341"/>
+    <mergeCell ref="A342:B342"/>
+    <mergeCell ref="F334:G334"/>
+    <mergeCell ref="F335:G335"/>
+    <mergeCell ref="F336:G336"/>
+    <mergeCell ref="F337:G337"/>
+    <mergeCell ref="F338:G338"/>
+    <mergeCell ref="F339:G339"/>
+    <mergeCell ref="F340:G340"/>
+    <mergeCell ref="F341:G341"/>
+    <mergeCell ref="F342:G342"/>
     <mergeCell ref="F352:G352"/>
     <mergeCell ref="F353:G353"/>
     <mergeCell ref="F354:G354"/>
@@ -67082,382 +67467,6 @@
     <mergeCell ref="A350:B350"/>
     <mergeCell ref="A351:B351"/>
     <mergeCell ref="A352:B352"/>
-    <mergeCell ref="F334:G334"/>
-    <mergeCell ref="F335:G335"/>
-    <mergeCell ref="F336:G336"/>
-    <mergeCell ref="F337:G337"/>
-    <mergeCell ref="F338:G338"/>
-    <mergeCell ref="F339:G339"/>
-    <mergeCell ref="F340:G340"/>
-    <mergeCell ref="F341:G341"/>
-    <mergeCell ref="F342:G342"/>
-    <mergeCell ref="A334:B334"/>
-    <mergeCell ref="A335:B335"/>
-    <mergeCell ref="A336:B336"/>
-    <mergeCell ref="A337:B337"/>
-    <mergeCell ref="A338:B338"/>
-    <mergeCell ref="A339:B339"/>
-    <mergeCell ref="A340:B340"/>
-    <mergeCell ref="A341:B341"/>
-    <mergeCell ref="A342:B342"/>
-    <mergeCell ref="A353:B353"/>
-    <mergeCell ref="A354:B354"/>
-    <mergeCell ref="A355:B355"/>
-    <mergeCell ref="F325:G325"/>
-    <mergeCell ref="F326:G326"/>
-    <mergeCell ref="F327:G327"/>
-    <mergeCell ref="F328:G328"/>
-    <mergeCell ref="F329:G329"/>
-    <mergeCell ref="F311:G311"/>
-    <mergeCell ref="F316:G316"/>
-    <mergeCell ref="F317:G317"/>
-    <mergeCell ref="F318:G318"/>
-    <mergeCell ref="F319:G319"/>
-    <mergeCell ref="F320:G320"/>
-    <mergeCell ref="F321:G321"/>
-    <mergeCell ref="F322:G322"/>
-    <mergeCell ref="F323:G323"/>
-    <mergeCell ref="F324:G324"/>
-    <mergeCell ref="C327:E327"/>
-    <mergeCell ref="C328:E328"/>
-    <mergeCell ref="C329:E329"/>
-    <mergeCell ref="C318:E318"/>
-    <mergeCell ref="C319:E319"/>
-    <mergeCell ref="C320:E320"/>
-    <mergeCell ref="F304:G304"/>
-    <mergeCell ref="F305:G305"/>
-    <mergeCell ref="F306:G306"/>
-    <mergeCell ref="F307:G307"/>
-    <mergeCell ref="F308:G308"/>
-    <mergeCell ref="F312:G312"/>
-    <mergeCell ref="F313:G313"/>
-    <mergeCell ref="F314:G314"/>
-    <mergeCell ref="F315:G315"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="C287:E287"/>
-    <mergeCell ref="A311:B311"/>
-    <mergeCell ref="C311:E311"/>
-    <mergeCell ref="F287:G287"/>
-    <mergeCell ref="F288:G288"/>
-    <mergeCell ref="F289:G289"/>
-    <mergeCell ref="F290:G290"/>
-    <mergeCell ref="F291:G291"/>
-    <mergeCell ref="F292:G292"/>
-    <mergeCell ref="F293:G293"/>
-    <mergeCell ref="F294:G294"/>
-    <mergeCell ref="F295:G295"/>
-    <mergeCell ref="F296:G296"/>
-    <mergeCell ref="F297:G297"/>
-    <mergeCell ref="F298:G298"/>
-    <mergeCell ref="F299:G299"/>
-    <mergeCell ref="F300:G300"/>
-    <mergeCell ref="F301:G301"/>
-    <mergeCell ref="F302:G302"/>
-    <mergeCell ref="F303:G303"/>
-    <mergeCell ref="C297:E297"/>
-    <mergeCell ref="C298:E298"/>
-    <mergeCell ref="C299:E299"/>
-    <mergeCell ref="C325:E325"/>
-    <mergeCell ref="C326:E326"/>
-    <mergeCell ref="C306:E306"/>
-    <mergeCell ref="C307:E307"/>
-    <mergeCell ref="C308:E308"/>
-    <mergeCell ref="C312:E312"/>
-    <mergeCell ref="C313:E313"/>
-    <mergeCell ref="C314:E314"/>
-    <mergeCell ref="C315:E315"/>
-    <mergeCell ref="C316:E316"/>
-    <mergeCell ref="C317:E317"/>
-    <mergeCell ref="C292:E292"/>
-    <mergeCell ref="C293:E293"/>
-    <mergeCell ref="C294:E294"/>
-    <mergeCell ref="C295:E295"/>
-    <mergeCell ref="C296:E296"/>
-    <mergeCell ref="C321:E321"/>
-    <mergeCell ref="C322:E322"/>
-    <mergeCell ref="C323:E323"/>
-    <mergeCell ref="C324:E324"/>
-    <mergeCell ref="H288:H292"/>
-    <mergeCell ref="H293:H294"/>
-    <mergeCell ref="H295:H303"/>
-    <mergeCell ref="H304:H308"/>
-    <mergeCell ref="H312:H318"/>
-    <mergeCell ref="H319:H322"/>
-    <mergeCell ref="H323:H329"/>
-    <mergeCell ref="A288:B292"/>
-    <mergeCell ref="A293:B294"/>
-    <mergeCell ref="A295:B303"/>
-    <mergeCell ref="A304:B308"/>
-    <mergeCell ref="A312:B318"/>
-    <mergeCell ref="A319:B322"/>
-    <mergeCell ref="A323:B329"/>
-    <mergeCell ref="C300:E300"/>
-    <mergeCell ref="C301:E301"/>
-    <mergeCell ref="C302:E302"/>
-    <mergeCell ref="C303:E303"/>
-    <mergeCell ref="C304:E304"/>
-    <mergeCell ref="C305:E305"/>
-    <mergeCell ref="C288:E288"/>
-    <mergeCell ref="C289:E289"/>
-    <mergeCell ref="C290:E290"/>
-    <mergeCell ref="C291:E291"/>
-    <mergeCell ref="E255:H255"/>
-    <mergeCell ref="E256:H256"/>
-    <mergeCell ref="E257:H257"/>
-    <mergeCell ref="E258:H258"/>
-    <mergeCell ref="E259:H259"/>
-    <mergeCell ref="E260:H260"/>
-    <mergeCell ref="E261:H261"/>
-    <mergeCell ref="E262:H262"/>
-    <mergeCell ref="E263:H263"/>
-    <mergeCell ref="C261:D261"/>
-    <mergeCell ref="C262:D262"/>
-    <mergeCell ref="C263:D263"/>
-    <mergeCell ref="E234:H234"/>
-    <mergeCell ref="E235:H235"/>
-    <mergeCell ref="E236:H236"/>
-    <mergeCell ref="E237:H237"/>
-    <mergeCell ref="E238:H238"/>
-    <mergeCell ref="E239:H239"/>
-    <mergeCell ref="E240:H240"/>
-    <mergeCell ref="E241:H241"/>
-    <mergeCell ref="E242:H242"/>
-    <mergeCell ref="E243:H243"/>
-    <mergeCell ref="E244:H244"/>
-    <mergeCell ref="E245:H245"/>
-    <mergeCell ref="E246:H246"/>
-    <mergeCell ref="E247:H247"/>
-    <mergeCell ref="E248:H248"/>
-    <mergeCell ref="E249:H249"/>
-    <mergeCell ref="E250:H250"/>
-    <mergeCell ref="E251:H251"/>
-    <mergeCell ref="E252:H252"/>
-    <mergeCell ref="E253:H253"/>
-    <mergeCell ref="E254:H254"/>
-    <mergeCell ref="C252:D252"/>
-    <mergeCell ref="C253:D253"/>
-    <mergeCell ref="C254:D254"/>
-    <mergeCell ref="C255:D255"/>
-    <mergeCell ref="C256:D256"/>
-    <mergeCell ref="C257:D257"/>
-    <mergeCell ref="C258:D258"/>
-    <mergeCell ref="C259:D259"/>
-    <mergeCell ref="C260:D260"/>
-    <mergeCell ref="C243:D243"/>
-    <mergeCell ref="C244:D244"/>
-    <mergeCell ref="C245:D245"/>
-    <mergeCell ref="C246:D246"/>
-    <mergeCell ref="C247:D247"/>
-    <mergeCell ref="C248:D248"/>
-    <mergeCell ref="C249:D249"/>
-    <mergeCell ref="C250:D250"/>
-    <mergeCell ref="C251:D251"/>
-    <mergeCell ref="C234:D234"/>
-    <mergeCell ref="C235:D235"/>
-    <mergeCell ref="C236:D236"/>
-    <mergeCell ref="C237:D237"/>
-    <mergeCell ref="C238:D238"/>
-    <mergeCell ref="C239:D239"/>
-    <mergeCell ref="C240:D240"/>
-    <mergeCell ref="C241:D241"/>
-    <mergeCell ref="C242:D242"/>
-    <mergeCell ref="A234:B235"/>
-    <mergeCell ref="A236:B237"/>
-    <mergeCell ref="A238:B239"/>
-    <mergeCell ref="A240:B241"/>
-    <mergeCell ref="A242:B243"/>
-    <mergeCell ref="A244:B245"/>
-    <mergeCell ref="A246:B247"/>
-    <mergeCell ref="A248:B249"/>
-    <mergeCell ref="A250:B251"/>
-    <mergeCell ref="A252:B253"/>
-    <mergeCell ref="A254:B255"/>
-    <mergeCell ref="A256:B257"/>
-    <mergeCell ref="A258:B259"/>
-    <mergeCell ref="A260:B261"/>
-    <mergeCell ref="A262:B263"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B105:F105"/>
-    <mergeCell ref="B106:F106"/>
-    <mergeCell ref="B107:F107"/>
-    <mergeCell ref="B108:F108"/>
-    <mergeCell ref="B109:F109"/>
-    <mergeCell ref="B71:H71"/>
-    <mergeCell ref="A72:H72"/>
-    <mergeCell ref="B73:H73"/>
-    <mergeCell ref="B75:H75"/>
-    <mergeCell ref="A74:H74"/>
-    <mergeCell ref="A76:H76"/>
-    <mergeCell ref="B93:H93"/>
-    <mergeCell ref="B110:H110"/>
-    <mergeCell ref="A94:H94"/>
-    <mergeCell ref="B220:H220"/>
-    <mergeCell ref="B221:H221"/>
-    <mergeCell ref="B214:H214"/>
-    <mergeCell ref="B215:H215"/>
-    <mergeCell ref="B217:H217"/>
-    <mergeCell ref="B218:H218"/>
-    <mergeCell ref="B219:H219"/>
-    <mergeCell ref="B216:H216"/>
-    <mergeCell ref="B208:H208"/>
-    <mergeCell ref="B209:H209"/>
-    <mergeCell ref="B211:H211"/>
-    <mergeCell ref="B212:H212"/>
-    <mergeCell ref="B213:H213"/>
-    <mergeCell ref="B202:H202"/>
-    <mergeCell ref="B203:H203"/>
-    <mergeCell ref="B205:H205"/>
-    <mergeCell ref="B206:H206"/>
-    <mergeCell ref="B207:H207"/>
-    <mergeCell ref="B204:H204"/>
-    <mergeCell ref="B210:H210"/>
-    <mergeCell ref="B196:H196"/>
-    <mergeCell ref="B197:H197"/>
-    <mergeCell ref="B199:H199"/>
-    <mergeCell ref="B200:H200"/>
-    <mergeCell ref="B201:H201"/>
-    <mergeCell ref="B191:H191"/>
-    <mergeCell ref="B193:H193"/>
-    <mergeCell ref="B194:H194"/>
-    <mergeCell ref="B195:H195"/>
-    <mergeCell ref="B192:H192"/>
-    <mergeCell ref="B198:H198"/>
-    <mergeCell ref="B189:H189"/>
-    <mergeCell ref="B164:H164"/>
-    <mergeCell ref="B190:H190"/>
-    <mergeCell ref="B179:H179"/>
-    <mergeCell ref="B181:H181"/>
-    <mergeCell ref="B182:H182"/>
-    <mergeCell ref="B183:H183"/>
-    <mergeCell ref="B184:H184"/>
-    <mergeCell ref="B180:H180"/>
-    <mergeCell ref="B186:H186"/>
-    <mergeCell ref="B185:H185"/>
-    <mergeCell ref="B187:H187"/>
-    <mergeCell ref="B188:H188"/>
-    <mergeCell ref="A111:H111"/>
-    <mergeCell ref="A114:H114"/>
-    <mergeCell ref="A118:H118"/>
-    <mergeCell ref="A120:H120"/>
-    <mergeCell ref="B88:F88"/>
-    <mergeCell ref="B89:F89"/>
-    <mergeCell ref="B90:F90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="B115:F115"/>
-    <mergeCell ref="B116:F116"/>
-    <mergeCell ref="B113:H113"/>
-    <mergeCell ref="B117:H117"/>
-    <mergeCell ref="B119:H119"/>
-    <mergeCell ref="B104:F104"/>
-    <mergeCell ref="B99:F99"/>
-    <mergeCell ref="B100:F100"/>
-    <mergeCell ref="B101:F101"/>
-    <mergeCell ref="B102:F102"/>
-    <mergeCell ref="B103:F103"/>
-    <mergeCell ref="B157:H157"/>
-    <mergeCell ref="B148:H148"/>
-    <mergeCell ref="B149:H149"/>
-    <mergeCell ref="B151:H151"/>
-    <mergeCell ref="B152:H152"/>
-    <mergeCell ref="B144:H144"/>
-    <mergeCell ref="B150:H150"/>
-    <mergeCell ref="B156:H156"/>
-    <mergeCell ref="B145:H145"/>
-    <mergeCell ref="B146:H146"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:H7"/>
-    <mergeCell ref="B37:C38"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="B42:C43"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:H21"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="B78:F78"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:H11"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:H18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:H19"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:H8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:H10"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="B70:F70"/>
-    <mergeCell ref="A69:F69"/>
-    <mergeCell ref="B77:F77"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:H28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:H29"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="B95:F95"/>
-    <mergeCell ref="B96:F96"/>
-    <mergeCell ref="B97:F97"/>
-    <mergeCell ref="B98:F98"/>
-    <mergeCell ref="B79:F79"/>
-    <mergeCell ref="B80:F80"/>
-    <mergeCell ref="B81:F81"/>
-    <mergeCell ref="B82:F82"/>
-    <mergeCell ref="B83:F83"/>
-    <mergeCell ref="B84:F84"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="B86:F86"/>
-    <mergeCell ref="B87:F87"/>
-    <mergeCell ref="B147:H147"/>
-    <mergeCell ref="B173:H173"/>
-    <mergeCell ref="B175:H175"/>
-    <mergeCell ref="B176:H176"/>
-    <mergeCell ref="B177:H177"/>
-    <mergeCell ref="B178:H178"/>
-    <mergeCell ref="B162:H162"/>
-    <mergeCell ref="B168:H168"/>
-    <mergeCell ref="B174:H174"/>
-    <mergeCell ref="B169:H169"/>
-    <mergeCell ref="B170:H170"/>
-    <mergeCell ref="B171:H171"/>
-    <mergeCell ref="B172:H172"/>
-    <mergeCell ref="B163:H163"/>
-    <mergeCell ref="B165:H165"/>
-    <mergeCell ref="B166:H166"/>
-    <mergeCell ref="B167:H167"/>
-    <mergeCell ref="B158:H158"/>
-    <mergeCell ref="B159:H159"/>
-    <mergeCell ref="B160:H160"/>
-    <mergeCell ref="B161:H161"/>
-    <mergeCell ref="B153:H153"/>
-    <mergeCell ref="B154:H154"/>
-    <mergeCell ref="B155:H155"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
